--- a/inputs/es/Optima_template.xlsx
+++ b/inputs/es/Optima_template.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dominic.delport\Documents\GitHub\Nutrition\inputs\es\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nick.scott\Desktop\GitHub\Nutrition\inputs\es\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE689F92-8789-47E2-A866-4F474070794D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90B7D8BC-DE01-4965-850A-ACEFC2B3214E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="961" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-15225" yWindow="-18120" windowWidth="29040" windowHeight="17640" tabRatio="961" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Entradas de población-año base" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Causas de muerte" sheetId="3" r:id="rId3"/>
     <sheet name="Distribución estado nutricional" sheetId="4" r:id="rId4"/>
     <sheet name="Distribución de lactancia" sheetId="5" r:id="rId5"/>
-    <sheet name="Tendencias temporales" sheetId="6" r:id="rId6"/>
+    <sheet name="Tendencias temporales" sheetId="6" state="hidden" r:id="rId6"/>
     <sheet name="Pérdida económica" sheetId="7" r:id="rId7"/>
     <sheet name="Paquetes de IYCF" sheetId="8" r:id="rId8"/>
     <sheet name="Tratamiento de la MAS" sheetId="9" r:id="rId9"/>
@@ -96,8 +96,12 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -406,7 +410,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2089" uniqueCount="341">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2093" uniqueCount="341">
   <si>
     <t>Field</t>
   </si>
@@ -1928,17 +1932,17 @@
     <xf numFmtId="1" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="9" fontId="8" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="8" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="167" fontId="8" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="9" fontId="8" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="9" fontId="8" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="167" fontId="8" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Comma 2" xfId="5" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
@@ -2306,19 +2310,19 @@
   </sheetPr>
   <dimension ref="A1:E63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.6328125" style="98" customWidth="1"/>
-    <col min="2" max="2" width="38.6328125" style="66" customWidth="1"/>
-    <col min="3" max="7" width="14.453125" style="98" customWidth="1"/>
-    <col min="8" max="16384" width="14.453125" style="98"/>
+    <col min="1" max="1" width="27.6640625" style="98" customWidth="1"/>
+    <col min="2" max="2" width="38.6640625" style="66" customWidth="1"/>
+    <col min="3" max="7" width="14.44140625" style="98" customWidth="1"/>
+    <col min="8" max="16384" width="14.44140625" style="98"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="71" t="s">
         <v>19</v>
       </c>
@@ -2329,14 +2333,14 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="98" t="s">
         <v>55</v>
       </c>
       <c r="B2" s="20"/>
       <c r="C2" s="20"/>
     </row>
-    <row r="3" spans="1:3" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="71"/>
       <c r="B3" s="70" t="s">
         <v>18</v>
@@ -2345,7 +2349,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="71"/>
       <c r="B4" s="70" t="s">
         <v>26</v>
@@ -2354,7 +2358,7 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="71"/>
       <c r="B5" s="20"/>
       <c r="C5" s="20"/>
@@ -2409,7 +2413,7 @@
     <row r="14" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="98"/>
     </row>
-    <row r="15" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="98" t="s">
         <v>28</v>
       </c>
@@ -2444,7 +2448,7 @@
       <c r="B20" s="70" t="s">
         <v>34</v>
       </c>
-      <c r="C20" s="102">
+      <c r="C20" s="100">
         <f>1-frac_rice-frac_wheat-frac_maize</f>
         <v>1</v>
       </c>
@@ -2516,17 +2520,17 @@
       </c>
       <c r="C32" s="43"/>
     </row>
-    <row r="33" spans="1:5" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="C33" s="103">
+      <c r="C33" s="101">
         <f>SUM(C29:C32)</f>
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="35" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="53" t="s">
         <v>20</v>
       </c>
@@ -2612,7 +2616,7 @@
       <c r="B48" s="66" t="s">
         <v>58</v>
       </c>
-      <c r="C48" s="102">
+      <c r="C48" s="100">
         <f>1-preterm_SGA-preterm_AGA-term_SGA</f>
         <v>1</v>
       </c>
@@ -2694,7 +2698,7 @@
       </c>
       <c r="C62" s="33"/>
     </row>
-    <row r="63" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="53"/>
     </row>
   </sheetData>
@@ -2716,20 +2720,20 @@
       <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="56" style="70" customWidth="1"/>
     <col min="2" max="2" width="20" style="98" customWidth="1"/>
-    <col min="3" max="3" width="20.453125" style="98" customWidth="1"/>
-    <col min="4" max="4" width="20.08984375" style="98" customWidth="1"/>
-    <col min="5" max="5" width="36.36328125" style="98" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.44140625" style="98" customWidth="1"/>
+    <col min="4" max="4" width="20.109375" style="98" customWidth="1"/>
+    <col min="5" max="5" width="36.33203125" style="98" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="23" style="98" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.6328125" style="98" bestFit="1" customWidth="1"/>
-    <col min="8" max="12" width="14.453125" style="98" customWidth="1"/>
-    <col min="13" max="16384" width="14.453125" style="98"/>
+    <col min="7" max="7" width="22.6640625" style="98" bestFit="1" customWidth="1"/>
+    <col min="8" max="12" width="14.44140625" style="98" customWidth="1"/>
+    <col min="13" max="16384" width="14.44140625" style="98"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="71" t="s">
         <v>163</v>
       </c>
@@ -3494,16 +3498,16 @@
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="53" style="70" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="47.90625" style="98" customWidth="1"/>
-    <col min="3" max="3" width="42.453125" style="98" customWidth="1"/>
-    <col min="4" max="8" width="11.453125" style="98" customWidth="1"/>
-    <col min="9" max="16384" width="11.453125" style="98"/>
+    <col min="2" max="2" width="47.88671875" style="98" customWidth="1"/>
+    <col min="3" max="3" width="42.44140625" style="98" customWidth="1"/>
+    <col min="4" max="8" width="11.44140625" style="98" customWidth="1"/>
+    <col min="9" max="16384" width="11.44140625" style="98"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="53" t="s">
         <v>163</v>
       </c>
@@ -3644,14 +3648,14 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.08984375" style="98" customWidth="1"/>
-    <col min="2" max="6" width="11.453125" style="98" customWidth="1"/>
-    <col min="7" max="16384" width="11.453125" style="98"/>
+    <col min="1" max="1" width="30.109375" style="98" customWidth="1"/>
+    <col min="2" max="6" width="11.44140625" style="98" customWidth="1"/>
+    <col min="7" max="16384" width="11.44140625" style="98"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="53" t="s">
         <v>163</v>
       </c>
@@ -3744,7 +3748,7 @@
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="79" t="s">
@@ -3859,19 +3863,19 @@
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="45.90625" customWidth="1"/>
-    <col min="3" max="3" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45.88671875" customWidth="1"/>
+    <col min="3" max="3" width="8.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.90625" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="11.90625" bestFit="1" customWidth="1"/>
-    <col min="8" max="11" width="13.90625" bestFit="1" customWidth="1"/>
-    <col min="12" max="15" width="15.08984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="11" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="12" max="15" width="15.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="53" t="s">
         <v>209</v>
       </c>
@@ -3918,7 +3922,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="53" t="s">
         <v>83</v>
       </c>
@@ -4479,7 +4483,7 @@
     <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="18"/>
     </row>
-    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="53" t="s">
         <v>104</v>
       </c>
@@ -4530,7 +4534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="53"/>
       <c r="B16" s="70" t="s">
         <v>166</v>
@@ -4575,7 +4579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="53"/>
       <c r="B17" s="70" t="s">
         <v>178</v>
@@ -4624,7 +4628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="53"/>
       <c r="B18" s="70" t="s">
         <v>179</v>
@@ -4860,7 +4864,7 @@
     <row r="23" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="18"/>
     </row>
-    <row r="24" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="53" t="s">
         <v>211</v>
       </c>
@@ -5110,7 +5114,7 @@
       <c r="H29" s="3"/>
       <c r="I29" s="3"/>
     </row>
-    <row r="30" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="53" t="s">
         <v>210</v>
       </c>
@@ -5615,7 +5619,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="98" t="s">
@@ -5654,17 +5658,17 @@
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.6328125" style="98" customWidth="1"/>
-    <col min="2" max="2" width="12.453125" style="98" customWidth="1"/>
-    <col min="3" max="4" width="11.453125" style="98" customWidth="1"/>
-    <col min="5" max="5" width="17.453125" style="98" customWidth="1"/>
-    <col min="6" max="10" width="11.453125" style="98" customWidth="1"/>
-    <col min="11" max="16384" width="11.453125" style="98"/>
+    <col min="1" max="1" width="33.6640625" style="98" customWidth="1"/>
+    <col min="2" max="2" width="12.44140625" style="98" customWidth="1"/>
+    <col min="3" max="4" width="11.44140625" style="98" customWidth="1"/>
+    <col min="5" max="5" width="17.44140625" style="98" customWidth="1"/>
+    <col min="6" max="10" width="11.44140625" style="98" customWidth="1"/>
+    <col min="11" max="16384" width="11.44140625" style="98"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="53" t="s">
         <v>223</v>
       </c>
@@ -5681,7 +5685,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="13.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
         <v>215</v>
       </c>
@@ -5699,7 +5703,7 @@
         <v>7.1999999999999995E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="13.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
         <v>222</v>
       </c>
@@ -5717,7 +5721,7 @@
         <v>3.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="13.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
         <v>217</v>
       </c>
@@ -5735,7 +5739,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="13.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="19" t="s">
         <v>221</v>
       </c>
@@ -5753,7 +5757,7 @@
         <v>0.126</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="13.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="19" t="s">
         <v>220</v>
       </c>
@@ -5771,7 +5775,7 @@
         <v>1.3999999999999999E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="13.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="19" t="s">
         <v>224</v>
       </c>
@@ -5789,7 +5793,7 @@
         <v>0.40500000000000003</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="13.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="19" t="s">
         <v>226</v>
       </c>
@@ -5807,7 +5811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="13.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="19" t="s">
         <v>218</v>
       </c>
@@ -5825,7 +5829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="13.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="19" t="s">
         <v>219</v>
       </c>
@@ -5862,21 +5866,21 @@
       <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.08984375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="16.109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.1796875" style="52" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="58.90625" style="52" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.453125" style="52" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.08984375" style="52" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.21875" style="52" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="58.88671875" style="52" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.44140625" style="52" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.109375" style="52" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" style="52" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="13.08984375" style="52" bestFit="1" customWidth="1"/>
-    <col min="8" max="11" width="15.36328125" style="52" bestFit="1" customWidth="1"/>
-    <col min="12" max="15" width="16.90625" style="52" bestFit="1" customWidth="1"/>
-    <col min="16" max="20" width="16.08984375" style="52" customWidth="1"/>
-    <col min="21" max="16384" width="16.08984375" style="52"/>
+    <col min="6" max="7" width="13.109375" style="52" bestFit="1" customWidth="1"/>
+    <col min="8" max="11" width="15.33203125" style="52" bestFit="1" customWidth="1"/>
+    <col min="12" max="15" width="16.88671875" style="52" bestFit="1" customWidth="1"/>
+    <col min="16" max="20" width="16.109375" style="52" customWidth="1"/>
+    <col min="21" max="16384" width="16.109375" style="52"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="53" t="s">
         <v>209</v>
       </c>
@@ -5923,7 +5927,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="53" t="s">
         <v>83</v>
       </c>
@@ -5970,7 +5974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="70" t="s">
         <v>169</v>
       </c>
@@ -6014,7 +6018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="70" t="s">
         <v>151</v>
       </c>
@@ -6058,7 +6062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="70" t="s">
         <v>152</v>
       </c>
@@ -6102,7 +6106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="70" t="s">
         <v>153</v>
       </c>
@@ -6146,7 +6150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="70" t="s">
         <v>182</v>
       </c>
@@ -6190,7 +6194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="70" t="s">
         <v>184</v>
       </c>
@@ -6234,7 +6238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="70" t="s">
         <v>190</v>
       </c>
@@ -6278,7 +6282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="70" t="s">
         <v>192</v>
       </c>
@@ -6322,7 +6326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="70" t="s">
         <v>193</v>
       </c>
@@ -6366,7 +6370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="70" t="s">
         <v>204</v>
       </c>
@@ -6410,7 +6414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="70" t="s">
         <v>164</v>
       </c>
@@ -6454,7 +6458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="70" t="s">
         <v>196</v>
       </c>
@@ -6498,7 +6502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="70" t="s">
         <v>202</v>
       </c>
@@ -6542,7 +6546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="70" t="s">
         <v>203</v>
       </c>
@@ -6586,7 +6590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="70"/>
       <c r="C17" s="80"/>
       <c r="D17" s="80"/>
@@ -6602,7 +6606,7 @@
       <c r="N17" s="80"/>
       <c r="O17" s="80"/>
     </row>
-    <row r="18" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="53" t="s">
         <v>104</v>
       </c>
@@ -6649,7 +6653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="53"/>
       <c r="B19" s="70" t="s">
         <v>166</v>
@@ -6694,7 +6698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="70" t="s">
         <v>178</v>
       </c>
@@ -6738,7 +6742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="70" t="s">
         <v>179</v>
       </c>
@@ -6782,7 +6786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="50" t="s">
         <v>180</v>
       </c>
@@ -6826,7 +6830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="70" t="s">
         <v>188</v>
       </c>
@@ -6870,7 +6874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="70" t="s">
         <v>189</v>
       </c>
@@ -6914,7 +6918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="70" t="s">
         <v>191</v>
       </c>
@@ -6958,7 +6962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="70"/>
       <c r="C26" s="80"/>
       <c r="D26" s="80"/>
@@ -6974,7 +6978,7 @@
       <c r="N26" s="80"/>
       <c r="O26" s="80"/>
     </row>
-    <row r="27" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:16" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="53" t="s">
         <v>211</v>
       </c>
@@ -7022,7 +7026,7 @@
       </c>
       <c r="P27" s="51"/>
     </row>
-    <row r="28" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="66" t="s">
         <v>174</v>
       </c>
@@ -7066,7 +7070,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="53"/>
       <c r="B29" s="66" t="s">
         <v>175</v>
@@ -7111,7 +7115,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="66" t="s">
         <v>176</v>
       </c>
@@ -7155,7 +7159,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" s="66" t="s">
         <v>177</v>
       </c>
@@ -7199,7 +7203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32" s="70"/>
       <c r="C32" s="81"/>
       <c r="D32" s="81"/>
@@ -7215,7 +7219,7 @@
       <c r="N32" s="80"/>
       <c r="O32" s="80"/>
     </row>
-    <row r="33" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="53" t="s">
         <v>210</v>
       </c>
@@ -7262,7 +7266,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B34" s="70" t="s">
         <v>172</v>
       </c>
@@ -7306,7 +7310,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B35" s="70" t="s">
         <v>173</v>
       </c>
@@ -7350,7 +7354,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B36" s="70" t="s">
         <v>181</v>
       </c>
@@ -7394,7 +7398,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B37" s="70" t="s">
         <v>185</v>
       </c>
@@ -7438,7 +7442,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B38" s="70" t="s">
         <v>197</v>
       </c>
@@ -7482,7 +7486,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B39" s="70" t="s">
         <v>198</v>
       </c>
@@ -7526,7 +7530,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B40" s="70" t="s">
         <v>199</v>
       </c>
@@ -7570,7 +7574,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B41" s="70" t="s">
         <v>200</v>
       </c>
@@ -7614,7 +7618,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B42" s="70" t="s">
         <v>201</v>
       </c>
@@ -7675,23 +7679,23 @@
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="58.90625" style="98" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6328125" style="98" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.90625" style="98" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.36328125" style="98" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.453125" style="98" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.54296875" style="98" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.81640625" style="98" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.90625" style="98" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.81640625" style="98" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.36328125" style="98" bestFit="1" customWidth="1"/>
-    <col min="11" max="15" width="12.81640625" style="98" customWidth="1"/>
-    <col min="16" max="16384" width="12.81640625" style="98"/>
+    <col min="1" max="1" width="58.88671875" style="98" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" style="98" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="98" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.33203125" style="98" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.44140625" style="98" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5546875" style="98" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.77734375" style="98" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.88671875" style="98" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.77734375" style="98" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.33203125" style="98" bestFit="1" customWidth="1"/>
+    <col min="11" max="15" width="12.77734375" style="98" customWidth="1"/>
+    <col min="16" max="16384" width="12.77734375" style="98"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="53" t="s">
         <v>163</v>
       </c>
@@ -8443,23 +8447,23 @@
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.90625" style="98" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6328125" style="98" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.90625" style="98" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.36328125" style="98" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.453125" style="98" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.54296875" style="98" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.81640625" style="98" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.90625" style="98" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.81640625" style="98" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.36328125" style="98" bestFit="1" customWidth="1"/>
-    <col min="11" max="15" width="12.81640625" style="98" customWidth="1"/>
-    <col min="16" max="16384" width="12.81640625" style="98"/>
+    <col min="1" max="1" width="16.88671875" style="98" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" style="98" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="98" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.33203125" style="98" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.44140625" style="98" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5546875" style="98" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.77734375" style="98" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.88671875" style="98" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.77734375" style="98" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.33203125" style="98" bestFit="1" customWidth="1"/>
+    <col min="11" max="15" width="12.77734375" style="98" customWidth="1"/>
+    <col min="16" max="16384" width="12.77734375" style="98"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="53" t="s">
         <v>233</v>
       </c>
@@ -8818,15 +8822,15 @@
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.453125" style="98" customWidth="1"/>
-    <col min="2" max="9" width="16.90625" style="98" customWidth="1"/>
-    <col min="10" max="14" width="14.453125" style="98" customWidth="1"/>
-    <col min="15" max="16384" width="14.453125" style="98"/>
+    <col min="1" max="1" width="8.44140625" style="98" customWidth="1"/>
+    <col min="2" max="9" width="16.88671875" style="98" customWidth="1"/>
+    <col min="10" max="14" width="14.44140625" style="98" customWidth="1"/>
+    <col min="15" max="16384" width="14.44140625" style="98"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="57" t="s">
         <v>73</v>
       </c>
@@ -9814,16 +9818,16 @@
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="48.08984375" style="98" customWidth="1"/>
+    <col min="1" max="1" width="48.109375" style="98" customWidth="1"/>
     <col min="2" max="2" width="15" style="98" customWidth="1"/>
-    <col min="3" max="3" width="14.6328125" style="98" customWidth="1"/>
-    <col min="4" max="8" width="12.81640625" style="98" customWidth="1"/>
-    <col min="9" max="16384" width="12.81640625" style="98"/>
+    <col min="3" max="3" width="14.6640625" style="98" customWidth="1"/>
+    <col min="4" max="8" width="12.77734375" style="98" customWidth="1"/>
+    <col min="9" max="16384" width="12.77734375" style="98"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="53" t="s">
         <v>234</v>
       </c>
@@ -9849,11 +9853,11 @@
         <v>76</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="53" t="s">
         <v>236</v>
       </c>
-      <c r="B2" s="100" t="s">
+      <c r="B2" s="103" t="s">
         <v>104</v>
       </c>
       <c r="C2" s="98" t="s">
@@ -9876,7 +9880,7 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B3" s="101"/>
+      <c r="B3" s="104"/>
       <c r="C3" s="98" t="s">
         <v>149</v>
       </c>
@@ -9898,7 +9902,7 @@
       <c r="J3" s="54"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B4" s="101"/>
+      <c r="B4" s="104"/>
       <c r="C4" s="98" t="s">
         <v>155</v>
       </c>
@@ -9920,7 +9924,7 @@
       <c r="J4" s="54"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B5" s="100" t="s">
+      <c r="B5" s="103" t="s">
         <v>78</v>
       </c>
       <c r="C5" s="98" t="s">
@@ -9944,7 +9948,7 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B6" s="101"/>
+      <c r="B6" s="104"/>
       <c r="C6" s="98" t="s">
         <v>149</v>
       </c>
@@ -9965,7 +9969,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B7" s="101"/>
+      <c r="B7" s="104"/>
       <c r="C7" s="98" t="s">
         <v>155</v>
       </c>
@@ -9986,7 +9990,7 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B8" s="100" t="s">
+      <c r="B8" s="103" t="s">
         <v>74</v>
       </c>
       <c r="C8" s="98" t="s">
@@ -10009,7 +10013,7 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B9" s="101"/>
+      <c r="B9" s="104"/>
       <c r="C9" s="98" t="s">
         <v>149</v>
       </c>
@@ -10030,7 +10034,7 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B10" s="101"/>
+      <c r="B10" s="104"/>
       <c r="C10" s="98" t="s">
         <v>155</v>
       </c>
@@ -10051,7 +10055,7 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B11" s="100" t="s">
+      <c r="B11" s="103" t="s">
         <v>77</v>
       </c>
       <c r="C11" s="98" t="s">
@@ -10074,7 +10078,7 @@
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B12" s="101"/>
+      <c r="B12" s="104"/>
       <c r="C12" s="98" t="s">
         <v>149</v>
       </c>
@@ -10095,7 +10099,7 @@
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B13" s="101"/>
+      <c r="B13" s="104"/>
       <c r="C13" s="98" t="s">
         <v>155</v>
       </c>
@@ -10116,7 +10120,7 @@
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B14" s="100" t="s">
+      <c r="B14" s="103" t="s">
         <v>75</v>
       </c>
       <c r="C14" s="98" t="s">
@@ -10139,7 +10143,7 @@
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B15" s="101"/>
+      <c r="B15" s="104"/>
       <c r="C15" s="98" t="s">
         <v>149</v>
       </c>
@@ -10160,7 +10164,7 @@
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B16" s="101"/>
+      <c r="B16" s="104"/>
       <c r="C16" s="98" t="s">
         <v>155</v>
       </c>
@@ -10180,7 +10184,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B17" s="97" t="s">
         <v>148</v>
       </c>
@@ -10210,11 +10214,11 @@
       <c r="G18" s="82"/>
       <c r="H18" s="82"/>
     </row>
-    <row r="19" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="53" t="s">
         <v>242</v>
       </c>
-      <c r="B19" s="100" t="s">
+      <c r="B19" s="103" t="s">
         <v>104</v>
       </c>
       <c r="C19" s="98" t="s">
@@ -10237,7 +10241,7 @@
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B20" s="101"/>
+      <c r="B20" s="104"/>
       <c r="C20" s="98" t="s">
         <v>149</v>
       </c>
@@ -10258,7 +10262,7 @@
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B21" s="101"/>
+      <c r="B21" s="104"/>
       <c r="C21" s="98" t="s">
         <v>155</v>
       </c>
@@ -10279,7 +10283,7 @@
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B22" s="100" t="s">
+      <c r="B22" s="103" t="s">
         <v>78</v>
       </c>
       <c r="C22" s="98" t="s">
@@ -10302,7 +10306,7 @@
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B23" s="101"/>
+      <c r="B23" s="104"/>
       <c r="C23" s="98" t="s">
         <v>149</v>
       </c>
@@ -10323,7 +10327,7 @@
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B24" s="101"/>
+      <c r="B24" s="104"/>
       <c r="C24" s="98" t="s">
         <v>155</v>
       </c>
@@ -10344,7 +10348,7 @@
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B25" s="100" t="s">
+      <c r="B25" s="103" t="s">
         <v>74</v>
       </c>
       <c r="C25" s="98" t="s">
@@ -10367,7 +10371,7 @@
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B26" s="101"/>
+      <c r="B26" s="104"/>
       <c r="C26" s="98" t="s">
         <v>149</v>
       </c>
@@ -10388,7 +10392,7 @@
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B27" s="101"/>
+      <c r="B27" s="104"/>
       <c r="C27" s="98" t="s">
         <v>155</v>
       </c>
@@ -10409,7 +10413,7 @@
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B28" s="100" t="s">
+      <c r="B28" s="103" t="s">
         <v>77</v>
       </c>
       <c r="C28" s="98" t="s">
@@ -10432,7 +10436,7 @@
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B29" s="101"/>
+      <c r="B29" s="104"/>
       <c r="C29" s="98" t="s">
         <v>149</v>
       </c>
@@ -10453,7 +10457,7 @@
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B30" s="101"/>
+      <c r="B30" s="104"/>
       <c r="C30" s="98" t="s">
         <v>155</v>
       </c>
@@ -10474,7 +10478,7 @@
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B31" s="100" t="s">
+      <c r="B31" s="103" t="s">
         <v>75</v>
       </c>
       <c r="C31" s="98" t="s">
@@ -10497,7 +10501,7 @@
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B32" s="101"/>
+      <c r="B32" s="104"/>
       <c r="C32" s="98" t="s">
         <v>149</v>
       </c>
@@ -10518,7 +10522,7 @@
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B33" s="101"/>
+      <c r="B33" s="104"/>
       <c r="C33" s="98" t="s">
         <v>155</v>
       </c>
@@ -10538,7 +10542,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B34" s="97" t="s">
         <v>148</v>
       </c>
@@ -10568,11 +10572,11 @@
       <c r="G35" s="82"/>
       <c r="H35" s="82"/>
     </row>
-    <row r="36" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="55" t="s">
         <v>239</v>
       </c>
-      <c r="B36" s="100" t="s">
+      <c r="B36" s="103" t="s">
         <v>104</v>
       </c>
       <c r="C36" s="98" t="s">
@@ -10595,7 +10599,7 @@
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B37" s="101"/>
+      <c r="B37" s="104"/>
       <c r="C37" s="98" t="s">
         <v>149</v>
       </c>
@@ -10616,7 +10620,7 @@
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B38" s="101"/>
+      <c r="B38" s="104"/>
       <c r="C38" s="98" t="s">
         <v>155</v>
       </c>
@@ -10637,7 +10641,7 @@
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B39" s="100" t="s">
+      <c r="B39" s="103" t="s">
         <v>78</v>
       </c>
       <c r="C39" s="98" t="s">
@@ -10660,7 +10664,7 @@
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B40" s="101"/>
+      <c r="B40" s="104"/>
       <c r="C40" s="98" t="s">
         <v>149</v>
       </c>
@@ -10681,7 +10685,7 @@
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B41" s="101"/>
+      <c r="B41" s="104"/>
       <c r="C41" s="98" t="s">
         <v>155</v>
       </c>
@@ -10702,7 +10706,7 @@
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B42" s="100" t="s">
+      <c r="B42" s="103" t="s">
         <v>74</v>
       </c>
       <c r="C42" s="98" t="s">
@@ -10725,7 +10729,7 @@
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B43" s="101"/>
+      <c r="B43" s="104"/>
       <c r="C43" s="98" t="s">
         <v>149</v>
       </c>
@@ -10746,7 +10750,7 @@
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B44" s="101"/>
+      <c r="B44" s="104"/>
       <c r="C44" s="98" t="s">
         <v>155</v>
       </c>
@@ -10767,7 +10771,7 @@
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B45" s="100" t="s">
+      <c r="B45" s="103" t="s">
         <v>77</v>
       </c>
       <c r="C45" s="98" t="s">
@@ -10790,7 +10794,7 @@
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B46" s="101"/>
+      <c r="B46" s="104"/>
       <c r="C46" s="98" t="s">
         <v>149</v>
       </c>
@@ -10811,7 +10815,7 @@
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B47" s="101"/>
+      <c r="B47" s="104"/>
       <c r="C47" s="98" t="s">
         <v>155</v>
       </c>
@@ -10832,7 +10836,7 @@
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B48" s="100" t="s">
+      <c r="B48" s="103" t="s">
         <v>75</v>
       </c>
       <c r="C48" s="98" t="s">
@@ -10855,7 +10859,7 @@
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B49" s="101"/>
+      <c r="B49" s="104"/>
       <c r="C49" s="98" t="s">
         <v>149</v>
       </c>
@@ -10876,7 +10880,7 @@
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B50" s="101"/>
+      <c r="B50" s="104"/>
       <c r="C50" s="98" t="s">
         <v>155</v>
       </c>
@@ -10896,7 +10900,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="13" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B51" s="97" t="s">
         <v>148</v>
       </c>
@@ -10919,7 +10923,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="89" t="s">
         <v>235</v>
       </c>
@@ -10931,7 +10935,7 @@
       <c r="G53" s="89"/>
       <c r="H53" s="89"/>
     </row>
-    <row r="54" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="53" t="s">
         <v>234</v>
       </c>
@@ -10957,11 +10961,11 @@
         <v>76</v>
       </c>
     </row>
-    <row r="55" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="53" t="s">
         <v>237</v>
       </c>
-      <c r="B55" s="100" t="s">
+      <c r="B55" s="103" t="s">
         <v>104</v>
       </c>
       <c r="C55" s="98" t="s">
@@ -10989,7 +10993,7 @@
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B56" s="101"/>
+      <c r="B56" s="104"/>
       <c r="C56" s="98" t="s">
         <v>149</v>
       </c>
@@ -11015,7 +11019,7 @@
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B57" s="101"/>
+      <c r="B57" s="104"/>
       <c r="C57" s="98" t="s">
         <v>155</v>
       </c>
@@ -11041,7 +11045,7 @@
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B58" s="100" t="s">
+      <c r="B58" s="103" t="s">
         <v>78</v>
       </c>
       <c r="C58" s="98" t="s">
@@ -11069,7 +11073,7 @@
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B59" s="101"/>
+      <c r="B59" s="104"/>
       <c r="C59" s="98" t="s">
         <v>149</v>
       </c>
@@ -11095,7 +11099,7 @@
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B60" s="101"/>
+      <c r="B60" s="104"/>
       <c r="C60" s="98" t="s">
         <v>155</v>
       </c>
@@ -11121,7 +11125,7 @@
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B61" s="100" t="s">
+      <c r="B61" s="103" t="s">
         <v>74</v>
       </c>
       <c r="C61" s="98" t="s">
@@ -11149,7 +11153,7 @@
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B62" s="101"/>
+      <c r="B62" s="104"/>
       <c r="C62" s="98" t="s">
         <v>149</v>
       </c>
@@ -11175,7 +11179,7 @@
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B63" s="101"/>
+      <c r="B63" s="104"/>
       <c r="C63" s="98" t="s">
         <v>155</v>
       </c>
@@ -11201,7 +11205,7 @@
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B64" s="100" t="s">
+      <c r="B64" s="103" t="s">
         <v>77</v>
       </c>
       <c r="C64" s="98" t="s">
@@ -11229,7 +11233,7 @@
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B65" s="101"/>
+      <c r="B65" s="104"/>
       <c r="C65" s="98" t="s">
         <v>149</v>
       </c>
@@ -11255,7 +11259,7 @@
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B66" s="101"/>
+      <c r="B66" s="104"/>
       <c r="C66" s="98" t="s">
         <v>155</v>
       </c>
@@ -11281,7 +11285,7 @@
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B67" s="100" t="s">
+      <c r="B67" s="103" t="s">
         <v>75</v>
       </c>
       <c r="C67" s="98" t="s">
@@ -11309,7 +11313,7 @@
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B68" s="101"/>
+      <c r="B68" s="104"/>
       <c r="C68" s="98" t="s">
         <v>149</v>
       </c>
@@ -11335,7 +11339,7 @@
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B69" s="101"/>
+      <c r="B69" s="104"/>
       <c r="C69" s="98" t="s">
         <v>155</v>
       </c>
@@ -11360,7 +11364,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="70" spans="1:8" ht="13" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B70" s="97" t="s">
         <v>148</v>
       </c>
@@ -11395,11 +11399,11 @@
       <c r="G71" s="82"/>
       <c r="H71" s="82"/>
     </row>
-    <row r="72" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="53" t="s">
         <v>243</v>
       </c>
-      <c r="B72" s="100" t="s">
+      <c r="B72" s="103" t="s">
         <v>104</v>
       </c>
       <c r="C72" s="98" t="s">
@@ -11427,7 +11431,7 @@
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B73" s="101"/>
+      <c r="B73" s="104"/>
       <c r="C73" s="98" t="s">
         <v>149</v>
       </c>
@@ -11453,7 +11457,7 @@
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B74" s="101"/>
+      <c r="B74" s="104"/>
       <c r="C74" s="98" t="s">
         <v>155</v>
       </c>
@@ -11479,7 +11483,7 @@
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B75" s="100" t="s">
+      <c r="B75" s="103" t="s">
         <v>78</v>
       </c>
       <c r="C75" s="98" t="s">
@@ -11507,7 +11511,7 @@
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B76" s="101"/>
+      <c r="B76" s="104"/>
       <c r="C76" s="98" t="s">
         <v>149</v>
       </c>
@@ -11533,7 +11537,7 @@
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B77" s="101"/>
+      <c r="B77" s="104"/>
       <c r="C77" s="98" t="s">
         <v>155</v>
       </c>
@@ -11559,7 +11563,7 @@
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B78" s="100" t="s">
+      <c r="B78" s="103" t="s">
         <v>74</v>
       </c>
       <c r="C78" s="98" t="s">
@@ -11587,7 +11591,7 @@
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B79" s="101"/>
+      <c r="B79" s="104"/>
       <c r="C79" s="98" t="s">
         <v>149</v>
       </c>
@@ -11613,7 +11617,7 @@
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B80" s="101"/>
+      <c r="B80" s="104"/>
       <c r="C80" s="98" t="s">
         <v>155</v>
       </c>
@@ -11639,7 +11643,7 @@
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B81" s="100" t="s">
+      <c r="B81" s="103" t="s">
         <v>77</v>
       </c>
       <c r="C81" s="98" t="s">
@@ -11667,7 +11671,7 @@
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B82" s="101"/>
+      <c r="B82" s="104"/>
       <c r="C82" s="98" t="s">
         <v>149</v>
       </c>
@@ -11693,7 +11697,7 @@
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B83" s="101"/>
+      <c r="B83" s="104"/>
       <c r="C83" s="98" t="s">
         <v>155</v>
       </c>
@@ -11719,7 +11723,7 @@
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B84" s="100" t="s">
+      <c r="B84" s="103" t="s">
         <v>75</v>
       </c>
       <c r="C84" s="98" t="s">
@@ -11747,7 +11751,7 @@
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B85" s="101"/>
+      <c r="B85" s="104"/>
       <c r="C85" s="98" t="s">
         <v>149</v>
       </c>
@@ -11773,7 +11777,7 @@
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B86" s="101"/>
+      <c r="B86" s="104"/>
       <c r="C86" s="98" t="s">
         <v>155</v>
       </c>
@@ -11798,7 +11802,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="87" spans="1:8" ht="13" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B87" s="97" t="s">
         <v>148</v>
       </c>
@@ -11833,11 +11837,11 @@
       <c r="G88" s="82"/>
       <c r="H88" s="82"/>
     </row>
-    <row r="89" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" s="55" t="s">
         <v>240</v>
       </c>
-      <c r="B89" s="100" t="s">
+      <c r="B89" s="103" t="s">
         <v>104</v>
       </c>
       <c r="C89" s="98" t="s">
@@ -11865,7 +11869,7 @@
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B90" s="101"/>
+      <c r="B90" s="104"/>
       <c r="C90" s="98" t="s">
         <v>149</v>
       </c>
@@ -11891,7 +11895,7 @@
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B91" s="101"/>
+      <c r="B91" s="104"/>
       <c r="C91" s="98" t="s">
         <v>155</v>
       </c>
@@ -11917,7 +11921,7 @@
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B92" s="100" t="s">
+      <c r="B92" s="103" t="s">
         <v>78</v>
       </c>
       <c r="C92" s="98" t="s">
@@ -11945,7 +11949,7 @@
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B93" s="101"/>
+      <c r="B93" s="104"/>
       <c r="C93" s="98" t="s">
         <v>149</v>
       </c>
@@ -11971,7 +11975,7 @@
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B94" s="101"/>
+      <c r="B94" s="104"/>
       <c r="C94" s="98" t="s">
         <v>155</v>
       </c>
@@ -11997,7 +12001,7 @@
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B95" s="100" t="s">
+      <c r="B95" s="103" t="s">
         <v>74</v>
       </c>
       <c r="C95" s="98" t="s">
@@ -12025,7 +12029,7 @@
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B96" s="101"/>
+      <c r="B96" s="104"/>
       <c r="C96" s="98" t="s">
         <v>149</v>
       </c>
@@ -12051,7 +12055,7 @@
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B97" s="101"/>
+      <c r="B97" s="104"/>
       <c r="C97" s="98" t="s">
         <v>155</v>
       </c>
@@ -12077,7 +12081,7 @@
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B98" s="100" t="s">
+      <c r="B98" s="103" t="s">
         <v>77</v>
       </c>
       <c r="C98" s="98" t="s">
@@ -12105,7 +12109,7 @@
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B99" s="101"/>
+      <c r="B99" s="104"/>
       <c r="C99" s="98" t="s">
         <v>149</v>
       </c>
@@ -12131,7 +12135,7 @@
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B100" s="101"/>
+      <c r="B100" s="104"/>
       <c r="C100" s="98" t="s">
         <v>155</v>
       </c>
@@ -12157,7 +12161,7 @@
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B101" s="100" t="s">
+      <c r="B101" s="103" t="s">
         <v>75</v>
       </c>
       <c r="C101" s="98" t="s">
@@ -12185,7 +12189,7 @@
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B102" s="101"/>
+      <c r="B102" s="104"/>
       <c r="C102" s="98" t="s">
         <v>149</v>
       </c>
@@ -12211,7 +12215,7 @@
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B103" s="101"/>
+      <c r="B103" s="104"/>
       <c r="C103" s="98" t="s">
         <v>155</v>
       </c>
@@ -12236,7 +12240,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="104" spans="1:8" ht="13" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B104" s="97" t="s">
         <v>148</v>
       </c>
@@ -12264,7 +12268,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="106" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" s="89" t="s">
         <v>245</v>
       </c>
@@ -12276,7 +12280,7 @@
       <c r="G106" s="89"/>
       <c r="H106" s="89"/>
     </row>
-    <row r="107" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" s="53" t="s">
         <v>234</v>
       </c>
@@ -12302,11 +12306,11 @@
         <v>76</v>
       </c>
     </row>
-    <row r="108" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" s="53" t="s">
         <v>238</v>
       </c>
-      <c r="B108" s="100" t="s">
+      <c r="B108" s="103" t="s">
         <v>104</v>
       </c>
       <c r="C108" s="98" t="s">
@@ -12334,7 +12338,7 @@
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B109" s="101"/>
+      <c r="B109" s="104"/>
       <c r="C109" s="98" t="s">
         <v>149</v>
       </c>
@@ -12360,7 +12364,7 @@
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B110" s="101"/>
+      <c r="B110" s="104"/>
       <c r="C110" s="98" t="s">
         <v>155</v>
       </c>
@@ -12386,7 +12390,7 @@
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B111" s="100" t="s">
+      <c r="B111" s="103" t="s">
         <v>78</v>
       </c>
       <c r="C111" s="98" t="s">
@@ -12414,7 +12418,7 @@
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B112" s="101"/>
+      <c r="B112" s="104"/>
       <c r="C112" s="98" t="s">
         <v>149</v>
       </c>
@@ -12440,7 +12444,7 @@
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B113" s="101"/>
+      <c r="B113" s="104"/>
       <c r="C113" s="98" t="s">
         <v>155</v>
       </c>
@@ -12466,7 +12470,7 @@
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B114" s="100" t="s">
+      <c r="B114" s="103" t="s">
         <v>74</v>
       </c>
       <c r="C114" s="98" t="s">
@@ -12494,7 +12498,7 @@
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B115" s="101"/>
+      <c r="B115" s="104"/>
       <c r="C115" s="98" t="s">
         <v>149</v>
       </c>
@@ -12520,7 +12524,7 @@
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B116" s="101"/>
+      <c r="B116" s="104"/>
       <c r="C116" s="98" t="s">
         <v>155</v>
       </c>
@@ -12546,7 +12550,7 @@
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B117" s="100" t="s">
+      <c r="B117" s="103" t="s">
         <v>77</v>
       </c>
       <c r="C117" s="98" t="s">
@@ -12574,7 +12578,7 @@
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B118" s="101"/>
+      <c r="B118" s="104"/>
       <c r="C118" s="98" t="s">
         <v>149</v>
       </c>
@@ -12600,7 +12604,7 @@
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B119" s="101"/>
+      <c r="B119" s="104"/>
       <c r="C119" s="98" t="s">
         <v>155</v>
       </c>
@@ -12626,7 +12630,7 @@
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B120" s="100" t="s">
+      <c r="B120" s="103" t="s">
         <v>75</v>
       </c>
       <c r="C120" s="98" t="s">
@@ -12654,7 +12658,7 @@
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B121" s="101"/>
+      <c r="B121" s="104"/>
       <c r="C121" s="98" t="s">
         <v>149</v>
       </c>
@@ -12680,7 +12684,7 @@
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B122" s="101"/>
+      <c r="B122" s="104"/>
       <c r="C122" s="98" t="s">
         <v>155</v>
       </c>
@@ -12705,7 +12709,7 @@
         <v>1.05</v>
       </c>
     </row>
-    <row r="123" spans="1:8" ht="13" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B123" s="97" t="s">
         <v>148</v>
       </c>
@@ -12740,11 +12744,11 @@
       <c r="G124" s="82"/>
       <c r="H124" s="82"/>
     </row>
-    <row r="125" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125" s="53" t="s">
         <v>244</v>
       </c>
-      <c r="B125" s="100" t="s">
+      <c r="B125" s="103" t="s">
         <v>104</v>
       </c>
       <c r="C125" s="98" t="s">
@@ -12772,7 +12776,7 @@
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B126" s="101"/>
+      <c r="B126" s="104"/>
       <c r="C126" s="98" t="s">
         <v>149</v>
       </c>
@@ -12798,7 +12802,7 @@
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B127" s="101"/>
+      <c r="B127" s="104"/>
       <c r="C127" s="98" t="s">
         <v>155</v>
       </c>
@@ -12824,7 +12828,7 @@
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B128" s="100" t="s">
+      <c r="B128" s="103" t="s">
         <v>78</v>
       </c>
       <c r="C128" s="98" t="s">
@@ -12852,7 +12856,7 @@
       </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B129" s="101"/>
+      <c r="B129" s="104"/>
       <c r="C129" s="98" t="s">
         <v>149</v>
       </c>
@@ -12878,7 +12882,7 @@
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B130" s="101"/>
+      <c r="B130" s="104"/>
       <c r="C130" s="98" t="s">
         <v>155</v>
       </c>
@@ -12904,7 +12908,7 @@
       </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B131" s="100" t="s">
+      <c r="B131" s="103" t="s">
         <v>74</v>
       </c>
       <c r="C131" s="98" t="s">
@@ -12932,7 +12936,7 @@
       </c>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B132" s="101"/>
+      <c r="B132" s="104"/>
       <c r="C132" s="98" t="s">
         <v>149</v>
       </c>
@@ -12958,7 +12962,7 @@
       </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B133" s="101"/>
+      <c r="B133" s="104"/>
       <c r="C133" s="98" t="s">
         <v>155</v>
       </c>
@@ -12984,7 +12988,7 @@
       </c>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B134" s="100" t="s">
+      <c r="B134" s="103" t="s">
         <v>77</v>
       </c>
       <c r="C134" s="98" t="s">
@@ -13012,7 +13016,7 @@
       </c>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B135" s="101"/>
+      <c r="B135" s="104"/>
       <c r="C135" s="98" t="s">
         <v>149</v>
       </c>
@@ -13038,7 +13042,7 @@
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B136" s="101"/>
+      <c r="B136" s="104"/>
       <c r="C136" s="98" t="s">
         <v>155</v>
       </c>
@@ -13064,7 +13068,7 @@
       </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B137" s="100" t="s">
+      <c r="B137" s="103" t="s">
         <v>75</v>
       </c>
       <c r="C137" s="98" t="s">
@@ -13092,7 +13096,7 @@
       </c>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B138" s="101"/>
+      <c r="B138" s="104"/>
       <c r="C138" s="98" t="s">
         <v>149</v>
       </c>
@@ -13118,7 +13122,7 @@
       </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B139" s="101"/>
+      <c r="B139" s="104"/>
       <c r="C139" s="98" t="s">
         <v>155</v>
       </c>
@@ -13143,7 +13147,7 @@
         <v>1.05</v>
       </c>
     </row>
-    <row r="140" spans="1:8" ht="13" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B140" s="97" t="s">
         <v>148</v>
       </c>
@@ -13178,11 +13182,11 @@
       <c r="G141" s="82"/>
       <c r="H141" s="82"/>
     </row>
-    <row r="142" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A142" s="55" t="s">
         <v>241</v>
       </c>
-      <c r="B142" s="100" t="s">
+      <c r="B142" s="103" t="s">
         <v>104</v>
       </c>
       <c r="C142" s="98" t="s">
@@ -13210,7 +13214,7 @@
       </c>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B143" s="101"/>
+      <c r="B143" s="104"/>
       <c r="C143" s="98" t="s">
         <v>149</v>
       </c>
@@ -13236,7 +13240,7 @@
       </c>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B144" s="101"/>
+      <c r="B144" s="104"/>
       <c r="C144" s="98" t="s">
         <v>155</v>
       </c>
@@ -13262,7 +13266,7 @@
       </c>
     </row>
     <row r="145" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B145" s="100" t="s">
+      <c r="B145" s="103" t="s">
         <v>78</v>
       </c>
       <c r="C145" s="98" t="s">
@@ -13290,7 +13294,7 @@
       </c>
     </row>
     <row r="146" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B146" s="101"/>
+      <c r="B146" s="104"/>
       <c r="C146" s="98" t="s">
         <v>149</v>
       </c>
@@ -13316,7 +13320,7 @@
       </c>
     </row>
     <row r="147" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B147" s="101"/>
+      <c r="B147" s="104"/>
       <c r="C147" s="98" t="s">
         <v>155</v>
       </c>
@@ -13342,7 +13346,7 @@
       </c>
     </row>
     <row r="148" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B148" s="100" t="s">
+      <c r="B148" s="103" t="s">
         <v>74</v>
       </c>
       <c r="C148" s="98" t="s">
@@ -13370,7 +13374,7 @@
       </c>
     </row>
     <row r="149" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B149" s="101"/>
+      <c r="B149" s="104"/>
       <c r="C149" s="98" t="s">
         <v>149</v>
       </c>
@@ -13396,7 +13400,7 @@
       </c>
     </row>
     <row r="150" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B150" s="101"/>
+      <c r="B150" s="104"/>
       <c r="C150" s="98" t="s">
         <v>155</v>
       </c>
@@ -13422,7 +13426,7 @@
       </c>
     </row>
     <row r="151" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B151" s="100" t="s">
+      <c r="B151" s="103" t="s">
         <v>77</v>
       </c>
       <c r="C151" s="98" t="s">
@@ -13450,7 +13454,7 @@
       </c>
     </row>
     <row r="152" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B152" s="101"/>
+      <c r="B152" s="104"/>
       <c r="C152" s="98" t="s">
         <v>149</v>
       </c>
@@ -13476,7 +13480,7 @@
       </c>
     </row>
     <row r="153" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B153" s="101"/>
+      <c r="B153" s="104"/>
       <c r="C153" s="98" t="s">
         <v>155</v>
       </c>
@@ -13502,7 +13506,7 @@
       </c>
     </row>
     <row r="154" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B154" s="100" t="s">
+      <c r="B154" s="103" t="s">
         <v>75</v>
       </c>
       <c r="C154" s="98" t="s">
@@ -13530,7 +13534,7 @@
       </c>
     </row>
     <row r="155" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B155" s="101"/>
+      <c r="B155" s="104"/>
       <c r="C155" s="98" t="s">
         <v>149</v>
       </c>
@@ -13556,7 +13560,7 @@
       </c>
     </row>
     <row r="156" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B156" s="101"/>
+      <c r="B156" s="104"/>
       <c r="C156" s="98" t="s">
         <v>155</v>
       </c>
@@ -13581,7 +13585,7 @@
         <v>1.05</v>
       </c>
     </row>
-    <row r="157" spans="2:8" ht="13" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B157" s="97" t="s">
         <v>148</v>
       </c>
@@ -13612,6 +13616,42 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="E+xb8SGipTpdVsotnLlVrlIWDO5cvWWgPviGTFSAipqcICJVszWympDQKNOiPF8ybfHn0UV8K1wWQbXYRExDZQ==" saltValue="1CwroKRK7eIPVj7uOECOPw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="45">
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="B42:B44"/>
+    <mergeCell ref="B45:B47"/>
+    <mergeCell ref="B48:B50"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="B25:B27"/>
+    <mergeCell ref="B28:B30"/>
+    <mergeCell ref="B31:B33"/>
+    <mergeCell ref="B36:B38"/>
+    <mergeCell ref="B39:B41"/>
+    <mergeCell ref="B55:B57"/>
+    <mergeCell ref="B58:B60"/>
+    <mergeCell ref="B61:B63"/>
+    <mergeCell ref="B64:B66"/>
+    <mergeCell ref="B67:B69"/>
+    <mergeCell ref="B72:B74"/>
+    <mergeCell ref="B75:B77"/>
+    <mergeCell ref="B78:B80"/>
+    <mergeCell ref="B81:B83"/>
+    <mergeCell ref="B84:B86"/>
+    <mergeCell ref="B108:B110"/>
+    <mergeCell ref="B89:B91"/>
+    <mergeCell ref="B92:B94"/>
+    <mergeCell ref="B95:B97"/>
+    <mergeCell ref="B98:B100"/>
+    <mergeCell ref="B101:B103"/>
+    <mergeCell ref="B111:B113"/>
+    <mergeCell ref="B114:B116"/>
+    <mergeCell ref="B117:B119"/>
+    <mergeCell ref="B120:B122"/>
+    <mergeCell ref="B125:B127"/>
     <mergeCell ref="B145:B147"/>
     <mergeCell ref="B148:B150"/>
     <mergeCell ref="B151:B153"/>
@@ -13621,42 +13661,6 @@
     <mergeCell ref="B134:B136"/>
     <mergeCell ref="B137:B139"/>
     <mergeCell ref="B142:B144"/>
-    <mergeCell ref="B111:B113"/>
-    <mergeCell ref="B114:B116"/>
-    <mergeCell ref="B117:B119"/>
-    <mergeCell ref="B120:B122"/>
-    <mergeCell ref="B125:B127"/>
-    <mergeCell ref="B108:B110"/>
-    <mergeCell ref="B89:B91"/>
-    <mergeCell ref="B92:B94"/>
-    <mergeCell ref="B95:B97"/>
-    <mergeCell ref="B98:B100"/>
-    <mergeCell ref="B101:B103"/>
-    <mergeCell ref="B72:B74"/>
-    <mergeCell ref="B75:B77"/>
-    <mergeCell ref="B78:B80"/>
-    <mergeCell ref="B81:B83"/>
-    <mergeCell ref="B84:B86"/>
-    <mergeCell ref="B55:B57"/>
-    <mergeCell ref="B58:B60"/>
-    <mergeCell ref="B61:B63"/>
-    <mergeCell ref="B64:B66"/>
-    <mergeCell ref="B67:B69"/>
-    <mergeCell ref="B42:B44"/>
-    <mergeCell ref="B45:B47"/>
-    <mergeCell ref="B48:B50"/>
-    <mergeCell ref="B22:B24"/>
-    <mergeCell ref="B25:B27"/>
-    <mergeCell ref="B28:B30"/>
-    <mergeCell ref="B31:B33"/>
-    <mergeCell ref="B36:B38"/>
-    <mergeCell ref="B39:B41"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="B14:B16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -13674,23 +13678,23 @@
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.08984375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="16.109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.90625" style="98" customWidth="1"/>
-    <col min="2" max="2" width="34.08984375" style="98" customWidth="1"/>
-    <col min="3" max="3" width="11.36328125" style="98" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.90625" style="98" customWidth="1"/>
+    <col min="1" max="1" width="23.88671875" style="98" customWidth="1"/>
+    <col min="2" max="2" width="34.109375" style="98" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" style="98" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.88671875" style="98" customWidth="1"/>
     <col min="5" max="6" width="15" style="98" customWidth="1"/>
-    <col min="7" max="11" width="16.08984375" style="98" customWidth="1"/>
-    <col min="12" max="16384" width="16.08984375" style="98"/>
+    <col min="7" max="11" width="16.109375" style="98" customWidth="1"/>
+    <col min="12" max="16384" width="16.109375" style="98"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="65" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" s="65" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="56" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="75"/>
       <c r="C2" s="57" t="s">
         <v>58</v>
@@ -13705,7 +13709,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="53" t="s">
         <v>255</v>
       </c>
@@ -13789,7 +13793,7 @@
       <c r="E8" s="54"/>
       <c r="F8" s="54"/>
     </row>
-    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="53" t="s">
         <v>252</v>
       </c>
@@ -13812,7 +13816,7 @@
       <c r="E10" s="54"/>
       <c r="F10" s="54"/>
     </row>
-    <row r="11" spans="1:6" s="65" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" s="65" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="56" t="s">
         <v>261</v>
       </c>
@@ -13821,7 +13825,7 @@
       <c r="E11" s="64"/>
       <c r="F11" s="64"/>
     </row>
-    <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="53" t="s">
         <v>249</v>
       </c>
@@ -13881,7 +13885,7 @@
         <v>4.1900000000000004</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="53"/>
       <c r="B16" s="66"/>
       <c r="C16" s="67"/>
@@ -13889,7 +13893,7 @@
       <c r="E16" s="54"/>
       <c r="F16" s="54"/>
     </row>
-    <row r="17" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="53" t="s">
         <v>258</v>
       </c>
@@ -14038,7 +14042,7 @@
     <row r="26" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="66"/>
     </row>
-    <row r="27" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="89" t="s">
         <v>235</v>
       </c>
@@ -14048,12 +14052,12 @@
       <c r="E27" s="92"/>
       <c r="F27" s="92"/>
     </row>
-    <row r="28" spans="1:6" s="65" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" s="65" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="56" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="75"/>
       <c r="C29" s="57" t="s">
         <v>58</v>
@@ -14068,7 +14072,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="53" t="s">
         <v>256</v>
       </c>
@@ -14168,7 +14172,7 @@
       <c r="E35" s="54"/>
       <c r="F35" s="54"/>
     </row>
-    <row r="36" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="53" t="s">
         <v>253</v>
       </c>
@@ -14189,7 +14193,7 @@
         <v>1.071</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="56" t="s">
         <v>261</v>
       </c>
@@ -14199,7 +14203,7 @@
       <c r="E38" s="64"/>
       <c r="F38" s="64"/>
     </row>
-    <row r="39" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="53" t="s">
         <v>250</v>
       </c>
@@ -14271,7 +14275,7 @@
         <v>2.9330000000000003</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="53"/>
       <c r="B43" s="66"/>
       <c r="C43" s="67"/>
@@ -14279,7 +14283,7 @@
       <c r="E43" s="54"/>
       <c r="F43" s="54"/>
     </row>
-    <row r="44" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="53" t="s">
         <v>259</v>
       </c>
@@ -14457,7 +14461,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="89" t="s">
         <v>245</v>
       </c>
@@ -14467,12 +14471,12 @@
       <c r="E54" s="92"/>
       <c r="F54" s="92"/>
     </row>
-    <row r="55" spans="1:6" s="65" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" s="65" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="56" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B56" s="75"/>
       <c r="C56" s="57" t="s">
         <v>58</v>
@@ -14487,7 +14491,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="53" t="s">
         <v>257</v>
       </c>
@@ -14587,7 +14591,7 @@
       <c r="E62" s="54"/>
       <c r="F62" s="54"/>
     </row>
-    <row r="63" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="53" t="s">
         <v>254</v>
       </c>
@@ -14608,7 +14612,7 @@
         <v>1.9890000000000001</v>
       </c>
     </row>
-    <row r="65" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="56" t="s">
         <v>261</v>
       </c>
@@ -14618,7 +14622,7 @@
       <c r="E65" s="64"/>
       <c r="F65" s="64"/>
     </row>
-    <row r="66" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="53" t="s">
         <v>251</v>
       </c>
@@ -14690,7 +14694,7 @@
         <v>5.447000000000001</v>
       </c>
     </row>
-    <row r="70" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="53"/>
       <c r="B70" s="66"/>
       <c r="C70" s="67"/>
@@ -14698,7 +14702,7 @@
       <c r="E70" s="54"/>
       <c r="F70" s="54"/>
     </row>
-    <row r="71" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="53" t="s">
         <v>260</v>
       </c>
@@ -14894,24 +14898,24 @@
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.1796875" style="98" customWidth="1"/>
-    <col min="2" max="2" width="26.90625" style="98" customWidth="1"/>
-    <col min="3" max="3" width="18.36328125" style="98" customWidth="1"/>
-    <col min="4" max="8" width="14.81640625" style="98" customWidth="1"/>
-    <col min="9" max="12" width="15.36328125" style="98" bestFit="1" customWidth="1"/>
-    <col min="13" max="16" width="16.90625" style="98" bestFit="1" customWidth="1"/>
-    <col min="17" max="21" width="12.81640625" style="98" customWidth="1"/>
-    <col min="22" max="16384" width="12.81640625" style="98"/>
+    <col min="1" max="1" width="27.21875" style="98" customWidth="1"/>
+    <col min="2" max="2" width="26.88671875" style="98" customWidth="1"/>
+    <col min="3" max="3" width="18.33203125" style="98" customWidth="1"/>
+    <col min="4" max="8" width="14.77734375" style="98" customWidth="1"/>
+    <col min="9" max="12" width="15.33203125" style="98" bestFit="1" customWidth="1"/>
+    <col min="13" max="16" width="16.88671875" style="98" bestFit="1" customWidth="1"/>
+    <col min="17" max="21" width="12.77734375" style="98" customWidth="1"/>
+    <col min="22" max="16384" width="12.77734375" style="98"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="65" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" s="65" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="56" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="73" t="s">
         <v>230</v>
       </c>
@@ -14945,7 +14949,7 @@
       <c r="O2" s="72"/>
       <c r="P2" s="72"/>
     </row>
-    <row r="3" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="53"/>
       <c r="B3" s="98" t="s">
         <v>84</v>
@@ -15378,7 +15382,7 @@
       <c r="O17" s="73"/>
       <c r="P17" s="73"/>
     </row>
-    <row r="18" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C18" s="79" t="s">
         <v>272</v>
       </c>
@@ -15636,12 +15640,12 @@
       <c r="O26" s="73"/>
       <c r="P26" s="73"/>
     </row>
-    <row r="28" spans="1:16" s="65" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:16" s="65" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="56" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="29" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" s="73" t="s">
         <v>282</v>
       </c>
@@ -15675,7 +15679,7 @@
       <c r="O29" s="72"/>
       <c r="P29" s="72"/>
     </row>
-    <row r="30" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" s="53"/>
       <c r="B30" s="98" t="s">
         <v>84</v>
@@ -16370,12 +16374,12 @@
       <c r="C54" s="79"/>
       <c r="D54" s="79"/>
     </row>
-    <row r="55" spans="1:16" s="65" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:16" s="65" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="56" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="56" spans="1:16" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:16" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="73" t="s">
         <v>105</v>
       </c>
@@ -16403,7 +16407,7 @@
       <c r="O56" s="72"/>
       <c r="P56" s="72"/>
     </row>
-    <row r="57" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A57" s="53"/>
       <c r="B57" s="98" t="s">
         <v>81</v>
@@ -16549,12 +16553,12 @@
       <c r="C63" s="79"/>
       <c r="D63" s="79"/>
     </row>
-    <row r="64" spans="1:16" s="65" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:16" s="65" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="56" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="65" spans="1:16" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:16" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="73" t="s">
         <v>123</v>
       </c>
@@ -16588,7 +16592,7 @@
       <c r="O65" s="72"/>
       <c r="P65" s="72"/>
     </row>
-    <row r="66" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A66" s="77"/>
       <c r="B66" s="98" t="s">
         <v>93</v>
@@ -17624,12 +17628,12 @@
       <c r="O101" s="73"/>
       <c r="P101" s="73"/>
     </row>
-    <row r="103" spans="1:16" s="65" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:16" s="65" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A103" s="56" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="104" spans="1:16" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:16" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="73" t="s">
         <v>84</v>
       </c>
@@ -17663,7 +17667,7 @@
       <c r="O104" s="72"/>
       <c r="P104" s="72"/>
     </row>
-    <row r="105" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A105" s="53"/>
       <c r="C105" s="79" t="s">
         <v>124</v>
@@ -17776,13 +17780,13 @@
       <c r="O108" s="73"/>
       <c r="P108" s="73"/>
     </row>
-    <row r="110" spans="1:16" s="90" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:16" s="90" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A110" s="89" t="s">
         <v>235</v>
       </c>
       <c r="H110" s="89"/>
     </row>
-    <row r="111" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A111" s="56" t="s">
         <v>278</v>
       </c>
@@ -17794,7 +17798,7 @@
       <c r="G111" s="65"/>
       <c r="H111" s="65"/>
     </row>
-    <row r="112" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A112" s="73" t="s">
         <v>230</v>
       </c>
@@ -17820,7 +17824,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="113" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" s="53"/>
       <c r="B113" s="98" t="s">
         <v>84</v>
@@ -18439,7 +18443,7 @@
         <v>2.4079999999999999</v>
       </c>
     </row>
-    <row r="138" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A138" s="56" t="s">
         <v>279</v>
       </c>
@@ -18451,7 +18455,7 @@
       <c r="G138" s="65"/>
       <c r="H138" s="65"/>
     </row>
-    <row r="139" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A139" s="73" t="s">
         <v>282</v>
       </c>
@@ -18477,7 +18481,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="140" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A140" s="53"/>
       <c r="B140" s="98" t="s">
         <v>84</v>
@@ -19100,7 +19104,7 @@
       <c r="C164" s="79"/>
       <c r="D164" s="79"/>
     </row>
-    <row r="165" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A165" s="56" t="s">
         <v>276</v>
       </c>
@@ -19112,7 +19116,7 @@
       <c r="G165" s="65"/>
       <c r="H165" s="65"/>
     </row>
-    <row r="166" spans="1:8" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:8" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="73" t="s">
         <v>105</v>
       </c>
@@ -19136,7 +19140,7 @@
       </c>
       <c r="H166" s="72"/>
     </row>
-    <row r="167" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A167" s="53"/>
       <c r="B167" s="98" t="s">
         <v>81</v>
@@ -19282,7 +19286,7 @@
       <c r="C173" s="79"/>
       <c r="D173" s="79"/>
     </row>
-    <row r="174" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A174" s="56" t="s">
         <v>277</v>
       </c>
@@ -19294,7 +19298,7 @@
       <c r="G174" s="65"/>
       <c r="H174" s="65"/>
     </row>
-    <row r="175" spans="1:8" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:8" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="73" t="s">
         <v>123</v>
       </c>
@@ -19320,7 +19324,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="176" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A176" s="77"/>
       <c r="B176" s="98" t="s">
         <v>93</v>
@@ -20212,7 +20216,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="213" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A213" s="56" t="s">
         <v>280</v>
       </c>
@@ -20224,7 +20228,7 @@
       <c r="G213" s="65"/>
       <c r="H213" s="65"/>
     </row>
-    <row r="214" spans="1:9" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:9" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A214" s="73" t="s">
         <v>84</v>
       </c>
@@ -20250,7 +20254,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="215" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A215" s="53"/>
       <c r="C215" s="79" t="s">
         <v>124</v>
@@ -20347,13 +20351,13 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="220" spans="1:9" s="90" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:9" s="90" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A220" s="89" t="s">
         <v>245</v>
       </c>
       <c r="H220" s="89"/>
     </row>
-    <row r="221" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A221" s="56" t="s">
         <v>278</v>
       </c>
@@ -20366,7 +20370,7 @@
       <c r="H221" s="65"/>
       <c r="I221" s="65"/>
     </row>
-    <row r="222" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A222" s="73" t="s">
         <v>230</v>
       </c>
@@ -20393,7 +20397,7 @@
       </c>
       <c r="I222" s="72"/>
     </row>
-    <row r="223" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A223" s="53"/>
       <c r="B223" s="98" t="s">
         <v>84</v>
@@ -21036,7 +21040,7 @@
       </c>
       <c r="I246" s="73"/>
     </row>
-    <row r="248" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A248" s="56" t="s">
         <v>279</v>
       </c>
@@ -21049,7 +21053,7 @@
       <c r="H248" s="65"/>
       <c r="I248" s="65"/>
     </row>
-    <row r="249" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A249" s="73" t="s">
         <v>282</v>
       </c>
@@ -21076,7 +21080,7 @@
       </c>
       <c r="I249" s="72"/>
     </row>
-    <row r="250" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A250" s="53"/>
       <c r="B250" s="98" t="s">
         <v>84</v>
@@ -21723,7 +21727,7 @@
       <c r="C274" s="79"/>
       <c r="D274" s="79"/>
     </row>
-    <row r="275" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A275" s="56" t="s">
         <v>276</v>
       </c>
@@ -21736,7 +21740,7 @@
       <c r="H275" s="65"/>
       <c r="I275" s="65"/>
     </row>
-    <row r="276" spans="1:9" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:9" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A276" s="73" t="s">
         <v>105</v>
       </c>
@@ -21760,7 +21764,7 @@
       </c>
       <c r="H276" s="72"/>
     </row>
-    <row r="277" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A277" s="53"/>
       <c r="B277" s="98" t="s">
         <v>81</v>
@@ -21906,7 +21910,7 @@
       <c r="C283" s="79"/>
       <c r="D283" s="79"/>
     </row>
-    <row r="284" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A284" s="56" t="s">
         <v>277</v>
       </c>
@@ -21919,7 +21923,7 @@
       <c r="H284" s="65"/>
       <c r="I284" s="65"/>
     </row>
-    <row r="285" spans="1:9" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:9" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A285" s="73" t="s">
         <v>123</v>
       </c>
@@ -21946,7 +21950,7 @@
       </c>
       <c r="I285" s="72"/>
     </row>
-    <row r="286" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A286" s="77"/>
       <c r="B286" s="98" t="s">
         <v>93</v>
@@ -22874,7 +22878,7 @@
       </c>
       <c r="I321" s="73"/>
     </row>
-    <row r="323" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A323" s="56" t="s">
         <v>280</v>
       </c>
@@ -22887,7 +22891,7 @@
       <c r="H323" s="65"/>
       <c r="I323" s="65"/>
     </row>
-    <row r="324" spans="1:9" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:9" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A324" s="73" t="s">
         <v>84</v>
       </c>
@@ -22914,7 +22918,7 @@
       </c>
       <c r="I324" s="72"/>
     </row>
-    <row r="325" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A325" s="53"/>
       <c r="C325" s="79" t="s">
         <v>124</v>
@@ -23033,25 +23037,25 @@
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="44.90625" style="98" customWidth="1"/>
-    <col min="2" max="2" width="44.453125" style="98" customWidth="1"/>
-    <col min="3" max="3" width="17.81640625" style="98" customWidth="1"/>
-    <col min="4" max="4" width="17.54296875" style="98" customWidth="1"/>
-    <col min="5" max="5" width="17.1796875" style="98" customWidth="1"/>
+    <col min="1" max="1" width="44.88671875" style="98" customWidth="1"/>
+    <col min="2" max="2" width="44.44140625" style="98" customWidth="1"/>
+    <col min="3" max="3" width="17.77734375" style="98" customWidth="1"/>
+    <col min="4" max="4" width="17.5546875" style="98" customWidth="1"/>
+    <col min="5" max="5" width="17.21875" style="98" customWidth="1"/>
     <col min="6" max="6" width="15" style="98" customWidth="1"/>
-    <col min="7" max="7" width="13.6328125" style="98" customWidth="1"/>
-    <col min="8" max="12" width="12.81640625" style="98" customWidth="1"/>
-    <col min="13" max="16384" width="12.81640625" style="98"/>
+    <col min="7" max="7" width="13.6640625" style="98" customWidth="1"/>
+    <col min="8" max="12" width="12.77734375" style="98" customWidth="1"/>
+    <col min="13" max="16384" width="12.77734375" style="98"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="65" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" s="65" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="56" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="77" t="s">
         <v>208</v>
       </c>
@@ -23092,7 +23096,7 @@
         <v>174.7</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="53"/>
       <c r="B4" s="70" t="s">
         <v>286</v>
@@ -23113,7 +23117,7 @@
         <v>1.0249999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="59" t="s">
         <v>283</v>
       </c>
@@ -23206,12 +23210,12 @@
       <c r="F10" s="70"/>
       <c r="G10" s="70"/>
     </row>
-    <row r="11" spans="1:7" s="65" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" s="65" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="56" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="59"/>
       <c r="B12" s="66" t="s">
         <v>182</v>
@@ -23232,16 +23236,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="59"/>
       <c r="B13" s="66"/>
     </row>
-    <row r="14" spans="1:7" s="65" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" s="65" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="56" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="77" t="s">
         <v>282</v>
       </c>
@@ -23264,7 +23268,7 @@
         <v>1.0249999999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="53"/>
       <c r="B16" s="70" t="s">
         <v>291</v>
@@ -23285,7 +23289,7 @@
         <v>1.0249999999999999</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="77" t="s">
         <v>105</v>
       </c>
@@ -23309,12 +23313,12 @@
       </c>
     </row>
     <row r="18" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="19" spans="1:7" s="65" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" s="65" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="56" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="20" spans="1:7" s="59" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" s="59" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C20" s="53" t="s">
         <v>68</v>
       </c>
@@ -23345,12 +23349,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:7" s="89" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" s="89" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="89" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="56" t="s">
         <v>313</v>
       </c>
@@ -23361,7 +23365,7 @@
       <c r="F24" s="65"/>
       <c r="G24" s="65"/>
     </row>
-    <row r="25" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="77" t="s">
         <v>208</v>
       </c>
@@ -23406,7 +23410,7 @@
         <v>157.22999999999999</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="53"/>
       <c r="B27" s="70" t="s">
         <v>287</v>
@@ -23432,7 +23436,7 @@
         <v>0.92249999999999999</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="59" t="s">
         <v>284</v>
       </c>
@@ -23545,7 +23549,7 @@
       <c r="F33" s="70"/>
       <c r="G33" s="70"/>
     </row>
-    <row r="34" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="56" t="s">
         <v>308</v>
       </c>
@@ -23556,7 +23560,7 @@
       <c r="F34" s="65"/>
       <c r="G34" s="65"/>
     </row>
-    <row r="35" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="59"/>
       <c r="B35" s="66" t="s">
         <v>303</v>
@@ -23579,11 +23583,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="59"/>
       <c r="B36" s="66"/>
     </row>
-    <row r="37" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="56" t="s">
         <v>314</v>
       </c>
@@ -23594,7 +23598,7 @@
       <c r="F37" s="65"/>
       <c r="G37" s="65"/>
     </row>
-    <row r="38" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="77" t="s">
         <v>282</v>
       </c>
@@ -23622,7 +23626,7 @@
         <v>0.92249999999999999</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="53"/>
       <c r="B39" s="70" t="s">
         <v>292</v>
@@ -23648,7 +23652,7 @@
         <v>0.92249999999999999</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="77" t="s">
         <v>105</v>
       </c>
@@ -23676,7 +23680,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="56" t="s">
         <v>311</v>
       </c>
@@ -23687,7 +23691,7 @@
       <c r="F42" s="65"/>
       <c r="G42" s="65"/>
     </row>
-    <row r="43" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="59"/>
       <c r="B43" s="59"/>
       <c r="C43" s="53" t="s">
@@ -23725,12 +23729,12 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="46" spans="1:7" s="89" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" s="89" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="89" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="56" t="s">
         <v>313</v>
       </c>
@@ -23741,7 +23745,7 @@
       <c r="F47" s="65"/>
       <c r="G47" s="65"/>
     </row>
-    <row r="48" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="77" t="s">
         <v>208</v>
       </c>
@@ -23786,7 +23790,7 @@
         <v>183.435</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="53"/>
       <c r="B50" s="70" t="s">
         <v>288</v>
@@ -23812,7 +23816,7 @@
         <v>1.0762499999999999</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="59" t="s">
         <v>285</v>
       </c>
@@ -23925,7 +23929,7 @@
       <c r="F56" s="70"/>
       <c r="G56" s="70"/>
     </row>
-    <row r="57" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="56" t="s">
         <v>309</v>
       </c>
@@ -23936,7 +23940,7 @@
       <c r="F57" s="65"/>
       <c r="G57" s="65"/>
     </row>
-    <row r="58" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="59"/>
       <c r="B58" s="66" t="s">
         <v>304</v>
@@ -23959,11 +23963,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="59"/>
       <c r="B59" s="66"/>
     </row>
-    <row r="60" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="56" t="s">
         <v>314</v>
       </c>
@@ -23974,7 +23978,7 @@
       <c r="F60" s="65"/>
       <c r="G60" s="65"/>
     </row>
-    <row r="61" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="77" t="s">
         <v>282</v>
       </c>
@@ -24002,7 +24006,7 @@
         <v>1.0762499999999999</v>
       </c>
     </row>
-    <row r="62" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="53"/>
       <c r="B62" s="70" t="s">
         <v>293</v>
@@ -24028,7 +24032,7 @@
         <v>1.0762499999999999</v>
       </c>
     </row>
-    <row r="63" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="77" t="s">
         <v>105</v>
       </c>
@@ -24056,7 +24060,7 @@
         <v>1.05</v>
       </c>
     </row>
-    <row r="65" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="56" t="s">
         <v>312</v>
       </c>
@@ -24067,7 +24071,7 @@
       <c r="F65" s="65"/>
       <c r="G65" s="65"/>
     </row>
-    <row r="66" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="59"/>
       <c r="B66" s="59"/>
       <c r="C66" s="53" t="s">
@@ -24124,16 +24128,16 @@
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.08984375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="16.109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="52.1796875" style="98" customWidth="1"/>
-    <col min="2" max="6" width="16.08984375" style="98" customWidth="1"/>
-    <col min="7" max="7" width="17.1796875" style="98" customWidth="1"/>
-    <col min="8" max="13" width="16.08984375" style="98" customWidth="1"/>
-    <col min="14" max="16384" width="16.08984375" style="98"/>
+    <col min="1" max="1" width="52.21875" style="98" customWidth="1"/>
+    <col min="2" max="6" width="16.109375" style="98" customWidth="1"/>
+    <col min="7" max="7" width="17.21875" style="98" customWidth="1"/>
+    <col min="8" max="13" width="16.109375" style="98" customWidth="1"/>
+    <col min="14" max="16384" width="16.109375" style="98"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="71" t="s">
         <v>163</v>
       </c>
@@ -24379,12 +24383,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:6" s="89" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" s="89" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="89" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="71" t="s">
         <v>163</v>
       </c>
@@ -24678,12 +24682,12 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="30" spans="1:6" s="89" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" s="89" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="89" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="71" t="s">
         <v>163</v>
       </c>
@@ -24995,16 +24999,16 @@
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.54296875" style="98" customWidth="1"/>
-    <col min="2" max="2" width="58.90625" style="98" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.5546875" style="98" customWidth="1"/>
+    <col min="2" max="2" width="58.88671875" style="98" bestFit="1" customWidth="1"/>
     <col min="3" max="15" width="15" style="98" customWidth="1"/>
-    <col min="16" max="20" width="12.81640625" style="98" customWidth="1"/>
-    <col min="21" max="16384" width="12.81640625" style="98"/>
+    <col min="16" max="20" width="12.77734375" style="98" customWidth="1"/>
+    <col min="21" max="16384" width="12.77734375" style="98"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="53"/>
       <c r="B1" s="53"/>
       <c r="C1" s="58" t="s">
@@ -25047,7 +25051,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="53" t="s">
         <v>326</v>
       </c>
@@ -25492,7 +25496,7 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="66" t="s">
         <v>190</v>
       </c>
@@ -25624,7 +25628,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="13" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="53" t="s">
         <v>323</v>
       </c>
@@ -25806,12 +25810,12 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="23" spans="1:15" s="89" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:15" s="89" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="89" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="24" spans="1:15" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:15" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="53"/>
       <c r="B24" s="53"/>
       <c r="C24" s="58" t="s">
@@ -25854,7 +25858,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="25" spans="1:15" ht="13" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="53" t="s">
         <v>327</v>
       </c>
@@ -26600,7 +26604,7 @@
         <v>0.29700000000000004</v>
       </c>
     </row>
-    <row r="40" spans="1:15" ht="13" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" s="53" t="s">
         <v>324</v>
       </c>
@@ -26834,12 +26838,12 @@
         <v>0.81</v>
       </c>
     </row>
-    <row r="46" spans="1:15" s="89" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:15" s="89" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="89" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="47" spans="1:15" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:15" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="53"/>
       <c r="B47" s="53"/>
       <c r="C47" s="58" t="s">
@@ -26882,7 +26886,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="48" spans="1:15" ht="13" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" s="53" t="s">
         <v>328</v>
       </c>
@@ -27628,7 +27632,7 @@
         <v>0.34650000000000003</v>
       </c>
     </row>
-    <row r="63" spans="1:15" ht="13" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A63" s="53" t="s">
         <v>325</v>
       </c>
@@ -27880,16 +27884,16 @@
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.36328125" style="98" customWidth="1"/>
-    <col min="2" max="2" width="27.81640625" style="98" customWidth="1"/>
-    <col min="3" max="7" width="15.54296875" style="98" customWidth="1"/>
-    <col min="8" max="12" width="12.81640625" style="98" customWidth="1"/>
-    <col min="13" max="16384" width="12.81640625" style="98"/>
+    <col min="1" max="1" width="21.33203125" style="98" customWidth="1"/>
+    <col min="2" max="2" width="27.77734375" style="98" customWidth="1"/>
+    <col min="3" max="7" width="15.5546875" style="98" customWidth="1"/>
+    <col min="8" max="12" width="12.77734375" style="98" customWidth="1"/>
+    <col min="13" max="16384" width="12.77734375" style="98"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="53"/>
       <c r="B1" s="71"/>
       <c r="C1" s="53" t="s">
@@ -27908,7 +27912,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="53" t="s">
         <v>333</v>
       </c>
@@ -27933,7 +27937,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="53" t="s">
         <v>330</v>
       </c>
@@ -27964,12 +27968,12 @@
         <v>0.14299999999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="89" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" s="89" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="89" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="53"/>
       <c r="B8" s="71"/>
       <c r="C8" s="53" t="s">
@@ -27988,7 +27992,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="53" t="s">
         <v>334</v>
       </c>
@@ -28018,7 +28022,7 @@
         <v>0.189</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="53" t="s">
         <v>331</v>
       </c>
@@ -28054,12 +28058,12 @@
         <v>0.12869999999999998</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="89" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" s="89" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="89" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="53"/>
       <c r="B15" s="71"/>
       <c r="C15" s="53" t="s">
@@ -28078,7 +28082,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="53" t="s">
         <v>335</v>
       </c>
@@ -28108,7 +28112,7 @@
         <v>0.2205</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="53" t="s">
         <v>332</v>
       </c>
@@ -28162,21 +28166,21 @@
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="53" style="70" customWidth="1"/>
-    <col min="2" max="2" width="30.54296875" style="70" customWidth="1"/>
-    <col min="3" max="3" width="24.81640625" style="70" customWidth="1"/>
+    <col min="2" max="2" width="30.5546875" style="70" customWidth="1"/>
+    <col min="3" max="3" width="24.77734375" style="70" customWidth="1"/>
     <col min="4" max="4" width="15" style="98" customWidth="1"/>
-    <col min="5" max="5" width="13.6328125" style="98" customWidth="1"/>
-    <col min="6" max="6" width="14.453125" style="98" customWidth="1"/>
-    <col min="7" max="7" width="12.81640625" style="98" customWidth="1"/>
-    <col min="8" max="8" width="17.54296875" style="98" customWidth="1"/>
-    <col min="9" max="13" width="12.81640625" style="98" customWidth="1"/>
-    <col min="14" max="16384" width="12.81640625" style="98"/>
+    <col min="5" max="5" width="13.6640625" style="98" customWidth="1"/>
+    <col min="6" max="6" width="14.44140625" style="98" customWidth="1"/>
+    <col min="7" max="7" width="12.77734375" style="98" customWidth="1"/>
+    <col min="8" max="8" width="17.5546875" style="98" customWidth="1"/>
+    <col min="9" max="13" width="12.77734375" style="98" customWidth="1"/>
+    <col min="14" max="16384" width="12.77734375" style="98"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="53" t="s">
         <v>163</v>
       </c>
@@ -29359,14 +29363,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:8" s="90" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8" s="90" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="93" t="s">
         <v>329</v>
       </c>
       <c r="B55" s="94"/>
       <c r="C55" s="94"/>
     </row>
-    <row r="56" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="53" t="s">
         <v>163</v>
       </c>
@@ -30809,14 +30813,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:8" s="90" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:8" s="90" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A110" s="93" t="s">
         <v>336</v>
       </c>
       <c r="B110" s="94"/>
       <c r="C110" s="94"/>
     </row>
-    <row r="111" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" s="53" t="s">
         <v>163</v>
       </c>
@@ -32277,17 +32281,17 @@
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28" style="98" customWidth="1"/>
-    <col min="2" max="2" width="27.453125" style="98" customWidth="1"/>
-    <col min="3" max="3" width="23.6328125" style="98" customWidth="1"/>
-    <col min="4" max="7" width="17.1796875" style="98" customWidth="1"/>
-    <col min="8" max="12" width="12.81640625" style="98" customWidth="1"/>
-    <col min="13" max="16384" width="12.81640625" style="98"/>
+    <col min="2" max="2" width="27.44140625" style="98" customWidth="1"/>
+    <col min="3" max="3" width="23.6640625" style="98" customWidth="1"/>
+    <col min="4" max="7" width="17.21875" style="98" customWidth="1"/>
+    <col min="8" max="12" width="12.77734375" style="98" customWidth="1"/>
+    <col min="13" max="16384" width="12.77734375" style="98"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="71" t="s">
         <v>163</v>
       </c>
@@ -32435,12 +32439,12 @@
       </c>
       <c r="H7" s="79"/>
     </row>
-    <row r="9" spans="1:8" s="89" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" s="89" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="89" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="71" t="s">
         <v>163</v>
       </c>
@@ -32605,12 +32609,12 @@
         <v>0.54</v>
       </c>
     </row>
-    <row r="18" spans="1:7" s="89" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" s="89" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="89" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="71" t="s">
         <v>163</v>
       </c>
@@ -32792,14 +32796,14 @@
       <selection activeCell="C11" activeCellId="2" sqref="C35 C23:F23 C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.08984375" customWidth="1"/>
-    <col min="2" max="2" width="31.36328125" customWidth="1"/>
+    <col min="1" max="1" width="16.109375" customWidth="1"/>
+    <col min="2" max="2" width="31.33203125" customWidth="1"/>
     <col min="3" max="8" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="53" t="str">
         <f>"Porcentaje de muertes en el año de referencia ("&amp;start_year&amp;") atribuible a la causa"</f>
         <v>Porcentaje de muertes en el año de referencia (2021) atribuible a la causa</v>
@@ -32810,7 +32814,7 @@
       <c r="E1" s="20"/>
       <c r="F1" s="20"/>
     </row>
-    <row r="2" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -32877,7 +32881,7 @@
       <c r="B11" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="C11" s="103">
+      <c r="C11" s="101">
         <f>SUM(C3:C10)</f>
         <v>0</v>
       </c>
@@ -32893,7 +32897,7 @@
       <c r="G12" s="11"/>
       <c r="H12" s="11"/>
     </row>
-    <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="98" t="s">
         <v>83</v>
       </c>
@@ -32999,19 +33003,19 @@
       <c r="B23" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="C23" s="103">
+      <c r="C23" s="101">
         <f>SUM(C14:C22)</f>
         <v>0</v>
       </c>
-      <c r="D23" s="103">
+      <c r="D23" s="101">
         <f>SUM(D14:D22)</f>
         <v>0</v>
       </c>
-      <c r="E23" s="103">
+      <c r="E23" s="101">
         <f>SUM(E14:E22)</f>
         <v>0</v>
       </c>
-      <c r="F23" s="103">
+      <c r="F23" s="101">
         <f>SUM(F14:F22)</f>
         <v>0</v>
       </c>
@@ -33027,7 +33031,7 @@
       <c r="G24" s="11"/>
       <c r="H24" s="11"/>
     </row>
-    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>104</v>
       </c>
@@ -33101,7 +33105,7 @@
       <c r="B35" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="C35" s="103">
+      <c r="C35" s="101">
         <f>SUM(C26:C34)</f>
         <v>0</v>
       </c>
@@ -33124,13 +33128,13 @@
       <selection activeCell="C15" activeCellId="2" sqref="C2:G3 C8:G9 C15:O15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.453125" customWidth="1"/>
+    <col min="1" max="1" width="31.44140625" customWidth="1"/>
     <col min="2" max="2" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="30" t="str">
         <f>"Porcentaje de población en cada categoría en el año de referencia ("&amp;start_year&amp;")"</f>
         <v>Porcentaje de población en cada categoría en el año de referencia (2021)</v>
@@ -33161,23 +33165,23 @@
       <c r="B2" s="70" t="s">
         <v>111</v>
       </c>
-      <c r="C2" s="104" t="str">
+      <c r="C2" s="102" t="str">
         <f>IFERROR(1-_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(C4:C5), 0, 1) + 1, 0, 1, TRUE), "")</f>
         <v/>
       </c>
-      <c r="D2" s="104" t="str">
+      <c r="D2" s="102" t="str">
         <f>IFERROR(1-_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(D4:D5), 0, 1) + 1, 0, 1, TRUE), "")</f>
         <v/>
       </c>
-      <c r="E2" s="104" t="str">
+      <c r="E2" s="102" t="str">
         <f>IFERROR(1-_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(E4:E5), 0, 1) + 1, 0, 1, TRUE), "")</f>
         <v/>
       </c>
-      <c r="F2" s="104" t="str">
+      <c r="F2" s="102" t="str">
         <f>IFERROR(1-_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(F4:F5), 0, 1) + 1, 0, 1, TRUE), "")</f>
         <v/>
       </c>
-      <c r="G2" s="104" t="str">
+      <c r="G2" s="102" t="str">
         <f>IFERROR(1-_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(G4:G5), 0, 1) + 1, 0, 1, TRUE), "")</f>
         <v/>
       </c>
@@ -33186,23 +33190,23 @@
       <c r="B3" s="70" t="s">
         <v>108</v>
       </c>
-      <c r="C3" s="104" t="str">
+      <c r="C3" s="102" t="str">
         <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(C4:C5), 0, 1) + 1, 0, 1, TRUE) - SUM(C4:C5), "")</f>
         <v/>
       </c>
-      <c r="D3" s="104" t="str">
+      <c r="D3" s="102" t="str">
         <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(D4:D5), 0, 1) + 1, 0, 1, TRUE) - SUM(D4:D5), "")</f>
         <v/>
       </c>
-      <c r="E3" s="104" t="str">
+      <c r="E3" s="102" t="str">
         <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(E4:E5), 0, 1) + 1, 0, 1, TRUE) - SUM(E4:E5), "")</f>
         <v/>
       </c>
-      <c r="F3" s="104" t="str">
+      <c r="F3" s="102" t="str">
         <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(F4:F5), 0, 1) + 1, 0, 1, TRUE) - SUM(F4:F5), "")</f>
         <v/>
       </c>
-      <c r="G3" s="104" t="str">
+      <c r="G3" s="102" t="str">
         <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(G4:G5), 0, 1) + 1, 0, 1, TRUE) - SUM(G4:G5), "")</f>
         <v/>
       </c>
@@ -33250,23 +33254,23 @@
       <c r="B8" s="70" t="s">
         <v>112</v>
       </c>
-      <c r="C8" s="104" t="str">
+      <c r="C8" s="102" t="str">
         <f>IFERROR(1-_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(C10:C11), 0, 1) + 1, 0, 1, TRUE), "")</f>
         <v/>
       </c>
-      <c r="D8" s="104" t="str">
+      <c r="D8" s="102" t="str">
         <f>IFERROR(1-_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(D10:D11), 0, 1) + 1, 0, 1, TRUE), "")</f>
         <v/>
       </c>
-      <c r="E8" s="104" t="str">
+      <c r="E8" s="102" t="str">
         <f>IFERROR(1-_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(E10:E11), 0, 1) + 1, 0, 1, TRUE), "")</f>
         <v/>
       </c>
-      <c r="F8" s="104" t="str">
+      <c r="F8" s="102" t="str">
         <f>IFERROR(1-_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(F10:F11), 0, 1) + 1, 0, 1, TRUE), "")</f>
         <v/>
       </c>
-      <c r="G8" s="104" t="str">
+      <c r="G8" s="102" t="str">
         <f>IFERROR(1-_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(G10:G11), 0, 1) + 1, 0, 1, TRUE), "")</f>
         <v/>
       </c>
@@ -33275,23 +33279,23 @@
       <c r="B9" s="70" t="s">
         <v>109</v>
       </c>
-      <c r="C9" s="104" t="str">
+      <c r="C9" s="102" t="str">
         <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(C10:C11), 0, 1) + 1, 0, 1, TRUE) - SUM(C10:C11), "")</f>
         <v/>
       </c>
-      <c r="D9" s="104" t="str">
+      <c r="D9" s="102" t="str">
         <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(D10:D11), 0, 1) + 1, 0, 1, TRUE) - SUM(D10:D11), "")</f>
         <v/>
       </c>
-      <c r="E9" s="104" t="str">
+      <c r="E9" s="102" t="str">
         <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(E10:E11), 0, 1) + 1, 0, 1, TRUE) - SUM(E10:E11), "")</f>
         <v/>
       </c>
-      <c r="F9" s="104" t="str">
+      <c r="F9" s="102" t="str">
         <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(F10:F11), 0, 1) + 1, 0, 1, TRUE) - SUM(F10:F11), "")</f>
         <v/>
       </c>
-      <c r="G9" s="104" t="str">
+      <c r="G9" s="102" t="str">
         <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(G10:G11), 0, 1) + 1, 0, 1, TRUE) - SUM(G10:G11), "")</f>
         <v/>
       </c>
@@ -33396,55 +33400,55 @@
       <c r="B15" s="66" t="s">
         <v>118</v>
       </c>
-      <c r="C15" s="104">
+      <c r="C15" s="102">
         <f t="shared" ref="C15:O15" si="0">iron_deficiency_anaemia*C14</f>
         <v>0</v>
       </c>
-      <c r="D15" s="104">
+      <c r="D15" s="102">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E15" s="104">
+      <c r="E15" s="102">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F15" s="104">
+      <c r="F15" s="102">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G15" s="104">
+      <c r="G15" s="102">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H15" s="104">
+      <c r="H15" s="102">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I15" s="104">
+      <c r="I15" s="102">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J15" s="104">
+      <c r="J15" s="102">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K15" s="104">
+      <c r="K15" s="102">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L15" s="104">
+      <c r="L15" s="102">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M15" s="104">
+      <c r="M15" s="102">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N15" s="104">
+      <c r="N15" s="102">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O15" s="104">
+      <c r="O15" s="102">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -33481,13 +33485,13 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.90625" customWidth="1"/>
-    <col min="2" max="7" width="13.453125" customWidth="1"/>
+    <col min="1" max="1" width="28.88671875" customWidth="1"/>
+    <col min="2" max="7" width="13.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="30" t="str">
         <f>"Porcentaje de niños en cada categoría en el año de referencia ("&amp;start_year&amp;")"</f>
         <v>Porcentaje de niños en cada categoría en el año de referencia (2021)</v>
@@ -33548,23 +33552,23 @@
       <c r="B5" s="79" t="s">
         <v>125</v>
       </c>
-      <c r="C5" s="104">
+      <c r="C5" s="102">
         <f>1-C2-C3-C4</f>
         <v>1</v>
       </c>
-      <c r="D5" s="104">
+      <c r="D5" s="102">
         <f t="shared" ref="D5:G5" si="0">1-D2-D3-D4</f>
         <v>1</v>
       </c>
-      <c r="E5" s="104">
+      <c r="E5" s="102">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="F5" s="104">
+      <c r="F5" s="102">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G5" s="104">
+      <c r="G5" s="102">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -33587,13 +33591,13 @@
       <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="37" customWidth="1"/>
-    <col min="2" max="2" width="29.453125" customWidth="1"/>
+    <col min="2" max="2" width="29.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="53" t="s">
         <v>135</v>
       </c>
@@ -33813,13 +33817,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.36328125" customWidth="1"/>
+    <col min="1" max="1" width="36.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="53" t="s">
         <v>147</v>
       </c>
@@ -33889,19 +33893,19 @@
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="D19" sqref="D19:D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17" style="98" customWidth="1"/>
-    <col min="2" max="2" width="19.08984375" style="98" customWidth="1"/>
-    <col min="3" max="3" width="13.453125" style="98" customWidth="1"/>
-    <col min="4" max="8" width="11.453125" style="98" customWidth="1"/>
-    <col min="9" max="16384" width="11.453125" style="98"/>
+    <col min="2" max="2" width="19.109375" style="98" customWidth="1"/>
+    <col min="3" max="3" width="13.44140625" style="98" customWidth="1"/>
+    <col min="4" max="8" width="11.44140625" style="98" customWidth="1"/>
+    <col min="9" max="16384" width="11.44140625" style="98"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="26" t="s">
         <v>154</v>
       </c>
@@ -33918,7 +33922,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="25" t="s">
         <v>151</v>
       </c>
@@ -33936,8 +33940,8 @@
       <c r="B3" s="23" t="s">
         <v>78</v>
       </c>
-      <c r="C3" s="43" t="b">
-        <v>1</v>
+      <c r="C3" s="43" t="s">
+        <v>5</v>
       </c>
       <c r="D3" s="43"/>
       <c r="E3" s="28" t="str">
@@ -33949,8 +33953,8 @@
       <c r="B4" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="C4" s="43" t="b">
-        <v>1</v>
+      <c r="C4" s="43" t="s">
+        <v>5</v>
       </c>
       <c r="D4" s="43"/>
       <c r="E4" s="28" t="str">
@@ -33962,8 +33966,8 @@
       <c r="B5" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="C5" s="43" t="b">
-        <v>1</v>
+      <c r="C5" s="43" t="s">
+        <v>5</v>
       </c>
       <c r="D5" s="43"/>
       <c r="E5" s="28" t="str">
@@ -33975,8 +33979,8 @@
       <c r="B6" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="C6" s="43" t="b">
-        <v>1</v>
+      <c r="C6" s="43" t="s">
+        <v>5</v>
       </c>
       <c r="D6" s="43"/>
       <c r="E6" s="28" t="str">
@@ -33992,7 +33996,7 @@
       <c r="D7" s="21"/>
       <c r="E7" s="43"/>
     </row>
-    <row r="9" spans="1:5" ht="13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="25" t="s">
         <v>152</v>
       </c>
@@ -34000,9 +34004,7 @@
         <v>104</v>
       </c>
       <c r="C9" s="43"/>
-      <c r="D9" s="43" t="b">
-        <v>0</v>
-      </c>
+      <c r="D9" s="43"/>
       <c r="E9" s="28" t="str">
         <f>IF(E$7="","",E$7)</f>
         <v/>
@@ -34013,7 +34015,9 @@
         <v>78</v>
       </c>
       <c r="C10" s="43"/>
-      <c r="D10" s="43"/>
+      <c r="D10" s="43" t="s">
+        <v>5</v>
+      </c>
       <c r="E10" s="28" t="str">
         <f>IF(E$7="","",E$7)</f>
         <v/>
@@ -34024,7 +34028,9 @@
         <v>74</v>
       </c>
       <c r="C11" s="43"/>
-      <c r="D11" s="43"/>
+      <c r="D11" s="43" t="s">
+        <v>5</v>
+      </c>
       <c r="E11" s="28" t="str">
         <f>IF(E$7="","",E$7)</f>
         <v/>
@@ -34035,7 +34041,9 @@
         <v>77</v>
       </c>
       <c r="C12" s="43"/>
-      <c r="D12" s="43"/>
+      <c r="D12" s="43" t="s">
+        <v>5</v>
+      </c>
       <c r="E12" s="28" t="str">
         <f>IF(E$7="","",E$7)</f>
         <v/>
@@ -34046,7 +34054,9 @@
         <v>75</v>
       </c>
       <c r="C13" s="43"/>
-      <c r="D13" s="43"/>
+      <c r="D13" s="43" t="s">
+        <v>5</v>
+      </c>
       <c r="E13" s="28" t="str">
         <f>IF(E$7="","",E$7)</f>
         <v/>
@@ -34058,11 +34068,9 @@
       </c>
       <c r="C14" s="22"/>
       <c r="D14" s="21"/>
-      <c r="E14" s="43" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="13" x14ac:dyDescent="0.3">
+      <c r="E14" s="43"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="25" t="s">
         <v>153</v>
       </c>
@@ -34070,9 +34078,7 @@
         <v>104</v>
       </c>
       <c r="C16" s="43"/>
-      <c r="D16" s="43" t="s">
-        <v>5</v>
-      </c>
+      <c r="D16" s="43"/>
       <c r="E16" s="28" t="str">
         <f>IF(E$7="","",E$7)</f>
         <v/>
@@ -34109,9 +34115,7 @@
         <v>77</v>
       </c>
       <c r="C19" s="43"/>
-      <c r="D19" s="43" t="s">
-        <v>5</v>
-      </c>
+      <c r="D19" s="43"/>
       <c r="E19" s="28" t="str">
         <f>IF(E$7="","",E$7)</f>
         <v/>
@@ -34122,9 +34126,7 @@
         <v>75</v>
       </c>
       <c r="C20" s="43"/>
-      <c r="D20" s="43" t="s">
-        <v>5</v>
-      </c>
+      <c r="D20" s="43"/>
       <c r="E20" s="28" t="str">
         <f>IF(E$7="","",E$7)</f>
         <v/>
@@ -34156,15 +34158,15 @@
       <selection activeCell="D2" sqref="D2:D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.6328125" customWidth="1"/>
-    <col min="2" max="2" width="15.453125" customWidth="1"/>
-    <col min="3" max="3" width="17.453125" customWidth="1"/>
-    <col min="4" max="4" width="12.90625" customWidth="1"/>
+    <col min="1" max="1" width="15.6640625" customWidth="1"/>
+    <col min="2" max="2" width="15.44140625" customWidth="1"/>
+    <col min="3" max="3" width="17.44140625" customWidth="1"/>
+    <col min="4" max="4" width="12.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="73" t="s">
         <v>0</v>
       </c>
@@ -34178,7 +34180,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>163</v>
       </c>
@@ -34190,7 +34192,7 @@
       </c>
       <c r="D2" s="43"/>
     </row>
-    <row r="3" spans="1:4" ht="13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>160</v>
       </c>

--- a/inputs/es/Optima_template.xlsx
+++ b/inputs/es/Optima_template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nick.scott\Desktop\GitHub\Nutrition\inputs\es\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\modeling\Nutrition\inputs\es\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90B7D8BC-DE01-4965-850A-ACEFC2B3214E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A848D037-A6DF-40ED-9625-0A944EF0D0BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-15225" yWindow="-18120" windowWidth="29040" windowHeight="17640" tabRatio="961" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="961" firstSheet="4" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Entradas de población-año base" sheetId="1" r:id="rId1"/>
@@ -2310,7 +2310,7 @@
   </sheetPr>
   <dimension ref="A1:E63"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
@@ -3494,7 +3494,7 @@
   </sheetPr>
   <dimension ref="A1:C20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
@@ -13616,12 +13616,36 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="E+xb8SGipTpdVsotnLlVrlIWDO5cvWWgPviGTFSAipqcICJVszWympDQKNOiPF8ybfHn0UV8K1wWQbXYRExDZQ==" saltValue="1CwroKRK7eIPVj7uOECOPw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="45">
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="B145:B147"/>
+    <mergeCell ref="B148:B150"/>
+    <mergeCell ref="B151:B153"/>
+    <mergeCell ref="B154:B156"/>
+    <mergeCell ref="B128:B130"/>
+    <mergeCell ref="B131:B133"/>
+    <mergeCell ref="B134:B136"/>
+    <mergeCell ref="B137:B139"/>
+    <mergeCell ref="B142:B144"/>
+    <mergeCell ref="B111:B113"/>
+    <mergeCell ref="B114:B116"/>
+    <mergeCell ref="B117:B119"/>
+    <mergeCell ref="B120:B122"/>
+    <mergeCell ref="B125:B127"/>
+    <mergeCell ref="B108:B110"/>
+    <mergeCell ref="B89:B91"/>
+    <mergeCell ref="B92:B94"/>
+    <mergeCell ref="B95:B97"/>
+    <mergeCell ref="B98:B100"/>
+    <mergeCell ref="B101:B103"/>
+    <mergeCell ref="B72:B74"/>
+    <mergeCell ref="B75:B77"/>
+    <mergeCell ref="B78:B80"/>
+    <mergeCell ref="B81:B83"/>
+    <mergeCell ref="B84:B86"/>
+    <mergeCell ref="B55:B57"/>
+    <mergeCell ref="B58:B60"/>
+    <mergeCell ref="B61:B63"/>
+    <mergeCell ref="B64:B66"/>
+    <mergeCell ref="B67:B69"/>
     <mergeCell ref="B42:B44"/>
     <mergeCell ref="B45:B47"/>
     <mergeCell ref="B48:B50"/>
@@ -13631,36 +13655,12 @@
     <mergeCell ref="B31:B33"/>
     <mergeCell ref="B36:B38"/>
     <mergeCell ref="B39:B41"/>
-    <mergeCell ref="B55:B57"/>
-    <mergeCell ref="B58:B60"/>
-    <mergeCell ref="B61:B63"/>
-    <mergeCell ref="B64:B66"/>
-    <mergeCell ref="B67:B69"/>
-    <mergeCell ref="B72:B74"/>
-    <mergeCell ref="B75:B77"/>
-    <mergeCell ref="B78:B80"/>
-    <mergeCell ref="B81:B83"/>
-    <mergeCell ref="B84:B86"/>
-    <mergeCell ref="B108:B110"/>
-    <mergeCell ref="B89:B91"/>
-    <mergeCell ref="B92:B94"/>
-    <mergeCell ref="B95:B97"/>
-    <mergeCell ref="B98:B100"/>
-    <mergeCell ref="B101:B103"/>
-    <mergeCell ref="B111:B113"/>
-    <mergeCell ref="B114:B116"/>
-    <mergeCell ref="B117:B119"/>
-    <mergeCell ref="B120:B122"/>
-    <mergeCell ref="B125:B127"/>
-    <mergeCell ref="B145:B147"/>
-    <mergeCell ref="B148:B150"/>
-    <mergeCell ref="B151:B153"/>
-    <mergeCell ref="B154:B156"/>
-    <mergeCell ref="B128:B130"/>
-    <mergeCell ref="B131:B133"/>
-    <mergeCell ref="B134:B136"/>
-    <mergeCell ref="B137:B139"/>
-    <mergeCell ref="B142:B144"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="B14:B16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -28162,8 +28162,8 @@
   </sheetPr>
   <dimension ref="A1:H163"/>
   <sheetViews>
-    <sheetView topLeftCell="A100" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView topLeftCell="A31" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:H53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -28223,13 +28223,13 @@
         <v>0</v>
       </c>
       <c r="F2" s="86">
-        <v>0.33500000000000002</v>
+        <v>0.39473684210526322</v>
       </c>
       <c r="G2" s="86">
-        <v>0.33500000000000002</v>
+        <v>0.39473684210526322</v>
       </c>
       <c r="H2" s="86">
-        <v>0.33500000000000002</v>
+        <v>0.39473684210526322</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -28243,13 +28243,13 @@
         <v>0</v>
       </c>
       <c r="F3" s="86">
-        <v>0.53134328358208949</v>
+        <v>0.30769230769230765</v>
       </c>
       <c r="G3" s="86">
-        <v>0.53134328358208949</v>
+        <v>0.30769230769230765</v>
       </c>
       <c r="H3" s="86">
-        <v>0.53134328358208949</v>
+        <v>0.30769230769230765</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -28263,13 +28263,13 @@
         <v>0</v>
       </c>
       <c r="F4" s="86">
-        <v>0.38507462686567179</v>
+        <v>0.38507462686567184</v>
       </c>
       <c r="G4" s="86">
-        <v>0.38507462686567179</v>
+        <v>0.38507462686567184</v>
       </c>
       <c r="H4" s="86">
-        <v>0.38507462686567179</v>
+        <v>0.38507462686567184</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -28309,10 +28309,10 @@
         <v>0</v>
       </c>
       <c r="F6" s="86">
-        <v>0.25970149253731339</v>
+        <v>0.25970149253731345</v>
       </c>
       <c r="G6" s="86">
-        <v>0.25970149253731339</v>
+        <v>0.25970149253731345</v>
       </c>
       <c r="H6" s="86">
         <v>0</v>
@@ -28352,10 +28352,10 @@
         <v>0</v>
       </c>
       <c r="F8" s="86">
-        <v>0.25970149253731339</v>
+        <v>0.25970149253731345</v>
       </c>
       <c r="G8" s="86">
-        <v>0.25970149253731339</v>
+        <v>0.25970149253731345</v>
       </c>
       <c r="H8" s="86">
         <v>0</v>
@@ -28398,10 +28398,10 @@
         <v>0</v>
       </c>
       <c r="F10" s="86">
-        <v>0.25970149253731339</v>
+        <v>0.25970149253731345</v>
       </c>
       <c r="G10" s="86">
-        <v>0.25970149253731339</v>
+        <v>0.25970149253731345</v>
       </c>
       <c r="H10" s="86">
         <v>0</v>
@@ -28441,10 +28441,10 @@
         <v>0</v>
       </c>
       <c r="F12" s="86">
-        <v>0.25970149253731339</v>
+        <v>0.25970149253731345</v>
       </c>
       <c r="G12" s="86">
-        <v>0.25970149253731339</v>
+        <v>0.25970149253731345</v>
       </c>
       <c r="H12" s="86">
         <v>0</v>
@@ -28487,10 +28487,10 @@
         <v>0</v>
       </c>
       <c r="F14" s="86">
-        <v>0.25970149253731339</v>
+        <v>0.25970149253731345</v>
       </c>
       <c r="G14" s="86">
-        <v>0.25970149253731339</v>
+        <v>0.25970149253731345</v>
       </c>
       <c r="H14" s="86">
         <v>0</v>
@@ -28530,10 +28530,10 @@
         <v>0</v>
       </c>
       <c r="F16" s="86">
-        <v>0.25970149253731339</v>
+        <v>0.25970149253731345</v>
       </c>
       <c r="G16" s="86">
-        <v>0.25970149253731339</v>
+        <v>0.25970149253731345</v>
       </c>
       <c r="H16" s="86">
         <v>0</v>
@@ -28576,7 +28576,7 @@
         <v>0</v>
       </c>
       <c r="F18" s="86">
-        <v>0.33500000000000002</v>
+        <v>0.7</v>
       </c>
       <c r="G18" s="86">
         <v>0.62</v>
@@ -28619,7 +28619,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="86">
-        <v>0.33500000000000002</v>
+        <v>0.84</v>
       </c>
       <c r="G20" s="86">
         <v>0.62</v>
@@ -28639,13 +28639,13 @@
         <v>337</v>
       </c>
       <c r="D21" s="86">
-        <v>0.7</v>
+        <v>0.28260869565217389</v>
       </c>
       <c r="E21" s="86">
         <v>0</v>
       </c>
       <c r="F21" s="86">
-        <v>0.33500000000000002</v>
+        <v>0</v>
       </c>
       <c r="G21" s="86">
         <v>0</v>
@@ -28665,7 +28665,7 @@
         <v>0</v>
       </c>
       <c r="F22" s="86">
-        <v>0.33500000000000002</v>
+        <v>0</v>
       </c>
       <c r="G22" s="86">
         <v>0</v>
@@ -28685,13 +28685,13 @@
         <v>337</v>
       </c>
       <c r="D23" s="86">
-        <v>0.7</v>
+        <v>0.28260869565217389</v>
       </c>
       <c r="E23" s="86">
         <v>0</v>
       </c>
       <c r="F23" s="86">
-        <v>0.33500000000000002</v>
+        <v>0</v>
       </c>
       <c r="G23" s="86">
         <v>0</v>
@@ -28711,7 +28711,7 @@
         <v>0</v>
       </c>
       <c r="F24" s="86">
-        <v>0.33500000000000002</v>
+        <v>0</v>
       </c>
       <c r="G24" s="86">
         <v>0</v>
@@ -28731,13 +28731,13 @@
         <v>337</v>
       </c>
       <c r="D25" s="86">
-        <v>0.7</v>
+        <v>0.28260869565217389</v>
       </c>
       <c r="E25" s="86">
         <v>0</v>
       </c>
       <c r="F25" s="86">
-        <v>0.33500000000000002</v>
+        <v>0</v>
       </c>
       <c r="G25" s="86">
         <v>0</v>
@@ -28757,7 +28757,7 @@
         <v>0</v>
       </c>
       <c r="F26" s="86">
-        <v>0.33500000000000002</v>
+        <v>0</v>
       </c>
       <c r="G26" s="86">
         <v>0</v>
@@ -28783,7 +28783,7 @@
         <v>1</v>
       </c>
       <c r="F27" s="86">
-        <v>0.33500000000000002</v>
+        <v>1</v>
       </c>
       <c r="G27" s="86">
         <v>1</v>
@@ -28803,7 +28803,7 @@
         <v>0</v>
       </c>
       <c r="F28" s="86">
-        <v>0.33500000000000002</v>
+        <v>0</v>
       </c>
       <c r="G28" s="86">
         <v>0</v>
@@ -28823,7 +28823,7 @@
         <v>0</v>
       </c>
       <c r="F29" s="86">
-        <v>0.33500000000000002</v>
+        <v>0</v>
       </c>
       <c r="G29" s="86">
         <v>0</v>
@@ -28849,7 +28849,7 @@
         <v>1</v>
       </c>
       <c r="F30" s="86">
-        <v>0.33500000000000002</v>
+        <v>1</v>
       </c>
       <c r="G30" s="86">
         <v>1</v>
@@ -28869,7 +28869,7 @@
         <v>0</v>
       </c>
       <c r="F31" s="86">
-        <v>0.33500000000000002</v>
+        <v>0</v>
       </c>
       <c r="G31" s="86">
         <v>0</v>
@@ -28889,7 +28889,7 @@
         <v>0</v>
       </c>
       <c r="F32" s="86">
-        <v>0.33500000000000002</v>
+        <v>0</v>
       </c>
       <c r="G32" s="86">
         <v>0</v>
@@ -28915,7 +28915,7 @@
         <v>1</v>
       </c>
       <c r="F33" s="86">
-        <v>0.33500000000000002</v>
+        <v>1</v>
       </c>
       <c r="G33" s="86">
         <v>1</v>
@@ -28935,7 +28935,7 @@
         <v>0</v>
       </c>
       <c r="F34" s="86">
-        <v>0.33500000000000002</v>
+        <v>0</v>
       </c>
       <c r="G34" s="86">
         <v>0</v>
@@ -28955,7 +28955,7 @@
         <v>0</v>
       </c>
       <c r="F35" s="86">
-        <v>0.33500000000000002</v>
+        <v>0</v>
       </c>
       <c r="G35" s="86">
         <v>0</v>
@@ -28981,7 +28981,7 @@
         <v>1</v>
       </c>
       <c r="F36" s="86">
-        <v>0.33500000000000002</v>
+        <v>1</v>
       </c>
       <c r="G36" s="86">
         <v>1</v>
@@ -29001,7 +29001,7 @@
         <v>0</v>
       </c>
       <c r="F37" s="86">
-        <v>0.33500000000000002</v>
+        <v>0</v>
       </c>
       <c r="G37" s="86">
         <v>0</v>
@@ -29021,7 +29021,7 @@
         <v>0</v>
       </c>
       <c r="F38" s="86">
-        <v>0.33500000000000002</v>
+        <v>0</v>
       </c>
       <c r="G38" s="86">
         <v>0</v>
@@ -29047,7 +29047,7 @@
         <v>1</v>
       </c>
       <c r="F39" s="86">
-        <v>0.33500000000000002</v>
+        <v>1</v>
       </c>
       <c r="G39" s="86">
         <v>1</v>
@@ -29067,7 +29067,7 @@
         <v>0</v>
       </c>
       <c r="F40" s="86">
-        <v>0.33500000000000002</v>
+        <v>0</v>
       </c>
       <c r="G40" s="86">
         <v>0</v>
@@ -29087,7 +29087,7 @@
         <v>0</v>
       </c>
       <c r="F41" s="86">
-        <v>0.33500000000000002</v>
+        <v>0</v>
       </c>
       <c r="G41" s="86">
         <v>0</v>
@@ -29113,7 +29113,7 @@
         <v>0.3</v>
       </c>
       <c r="F42" s="86">
-        <v>0.33500000000000002</v>
+        <v>0.3</v>
       </c>
       <c r="G42" s="86">
         <v>0.3</v>
@@ -29133,7 +29133,7 @@
         <v>0.5</v>
       </c>
       <c r="F43" s="86">
-        <v>0.33500000000000002</v>
+        <v>0.5</v>
       </c>
       <c r="G43" s="86">
         <v>0.5</v>
@@ -29153,7 +29153,7 @@
         <v>0.65</v>
       </c>
       <c r="F44" s="86">
-        <v>0.33500000000000002</v>
+        <v>0.65</v>
       </c>
       <c r="G44" s="86">
         <v>0.65</v>
@@ -29176,7 +29176,7 @@
         <v>0.3</v>
       </c>
       <c r="F45" s="86">
-        <v>0.33500000000000002</v>
+        <v>0.3</v>
       </c>
       <c r="G45" s="86">
         <v>0.3</v>
@@ -29196,7 +29196,7 @@
         <v>0.49</v>
       </c>
       <c r="F46" s="86">
-        <v>0.33500000000000002</v>
+        <v>0.49</v>
       </c>
       <c r="G46" s="86">
         <v>0.49</v>
@@ -29216,7 +29216,7 @@
         <v>0.52</v>
       </c>
       <c r="F47" s="86">
-        <v>0.33500000000000002</v>
+        <v>0.52</v>
       </c>
       <c r="G47" s="86">
         <v>0.52</v>
@@ -29242,7 +29242,7 @@
         <v>0.88</v>
       </c>
       <c r="F48" s="86">
-        <v>0.33500000000000002</v>
+        <v>0.88</v>
       </c>
       <c r="G48" s="86">
         <v>0.88</v>
@@ -29256,19 +29256,19 @@
         <v>339</v>
       </c>
       <c r="D49" s="86">
-        <v>0.93</v>
+        <v>0.78409090909090906</v>
       </c>
       <c r="E49" s="86">
-        <v>0.93</v>
+        <v>0.78409090909090906</v>
       </c>
       <c r="F49" s="86">
-        <v>0.33500000000000002</v>
+        <v>0.78409090909090906</v>
       </c>
       <c r="G49" s="86">
-        <v>0.93</v>
+        <v>0.78409090909090906</v>
       </c>
       <c r="H49" s="86">
-        <v>0.93</v>
+        <v>0.78409090909090906</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
@@ -29282,19 +29282,19 @@
         <v>337</v>
       </c>
       <c r="D50" s="86">
-        <v>1</v>
+        <v>0.88372093023255816</v>
       </c>
       <c r="E50" s="86">
-        <v>1</v>
+        <v>0.88372093023255816</v>
       </c>
       <c r="F50" s="86">
-        <v>0.33500000000000002</v>
+        <v>0.88372093023255816</v>
       </c>
       <c r="G50" s="86">
-        <v>1</v>
+        <v>0.88372093023255816</v>
       </c>
       <c r="H50" s="86">
-        <v>1</v>
+        <v>0.88372093023255816</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
@@ -29308,7 +29308,7 @@
         <v>0.86</v>
       </c>
       <c r="F51" s="86">
-        <v>0.33500000000000002</v>
+        <v>0.86</v>
       </c>
       <c r="G51" s="86">
         <v>0.86</v>
@@ -29334,7 +29334,7 @@
         <v>0.57999999999999996</v>
       </c>
       <c r="F52" s="86">
-        <v>0.33500000000000002</v>
+        <v>0</v>
       </c>
       <c r="G52" s="86">
         <v>0</v>
@@ -29354,7 +29354,7 @@
         <v>0.51</v>
       </c>
       <c r="F53" s="86">
-        <v>0.33500000000000002</v>
+        <v>0</v>
       </c>
       <c r="G53" s="86">
         <v>0</v>
@@ -29416,15 +29416,15 @@
       </c>
       <c r="F57" s="86">
         <f t="shared" si="0"/>
-        <v>0.30150000000000005</v>
+        <v>0.35526315789473689</v>
       </c>
       <c r="G57" s="86">
         <f t="shared" si="0"/>
-        <v>0.30150000000000005</v>
+        <v>0.35526315789473689</v>
       </c>
       <c r="H57" s="86">
         <f t="shared" si="0"/>
-        <v>0.30150000000000005</v>
+        <v>0.35526315789473689</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
@@ -29441,15 +29441,15 @@
       </c>
       <c r="F58" s="86">
         <f t="shared" si="0"/>
-        <v>0.47820895522388057</v>
+        <v>0.27692307692307688</v>
       </c>
       <c r="G58" s="86">
         <f t="shared" si="0"/>
-        <v>0.47820895522388057</v>
+        <v>0.27692307692307688</v>
       </c>
       <c r="H58" s="86">
         <f t="shared" si="0"/>
-        <v>0.47820895522388057</v>
+        <v>0.27692307692307688</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
@@ -29466,15 +29466,15 @@
       </c>
       <c r="F59" s="86">
         <f t="shared" si="0"/>
-        <v>0.3465671641791046</v>
+        <v>0.34656716417910466</v>
       </c>
       <c r="G59" s="86">
         <f t="shared" si="0"/>
-        <v>0.3465671641791046</v>
+        <v>0.34656716417910466</v>
       </c>
       <c r="H59" s="86">
         <f t="shared" si="0"/>
-        <v>0.3465671641791046</v>
+        <v>0.34656716417910466</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
@@ -29522,11 +29522,11 @@
       </c>
       <c r="F61" s="86">
         <f t="shared" si="0"/>
-        <v>0.23373134328358205</v>
+        <v>0.23373134328358211</v>
       </c>
       <c r="G61" s="86">
         <f t="shared" si="0"/>
-        <v>0.23373134328358205</v>
+        <v>0.23373134328358211</v>
       </c>
       <c r="H61" s="86">
         <f t="shared" si="0"/>
@@ -29575,11 +29575,11 @@
       </c>
       <c r="F63" s="86">
         <f t="shared" si="0"/>
-        <v>0.23373134328358205</v>
+        <v>0.23373134328358211</v>
       </c>
       <c r="G63" s="86">
         <f t="shared" si="0"/>
-        <v>0.23373134328358205</v>
+        <v>0.23373134328358211</v>
       </c>
       <c r="H63" s="86">
         <f t="shared" si="0"/>
@@ -29631,11 +29631,11 @@
       </c>
       <c r="F65" s="86">
         <f t="shared" si="0"/>
-        <v>0.23373134328358205</v>
+        <v>0.23373134328358211</v>
       </c>
       <c r="G65" s="86">
         <f t="shared" si="0"/>
-        <v>0.23373134328358205</v>
+        <v>0.23373134328358211</v>
       </c>
       <c r="H65" s="86">
         <f t="shared" si="0"/>
@@ -29684,11 +29684,11 @@
       </c>
       <c r="F67" s="86">
         <f t="shared" si="1"/>
-        <v>0.23373134328358205</v>
+        <v>0.23373134328358211</v>
       </c>
       <c r="G67" s="86">
         <f t="shared" si="1"/>
-        <v>0.23373134328358205</v>
+        <v>0.23373134328358211</v>
       </c>
       <c r="H67" s="86">
         <f t="shared" si="1"/>
@@ -29740,11 +29740,11 @@
       </c>
       <c r="F69" s="86">
         <f t="shared" si="1"/>
-        <v>0.23373134328358205</v>
+        <v>0.23373134328358211</v>
       </c>
       <c r="G69" s="86">
         <f t="shared" si="1"/>
-        <v>0.23373134328358205</v>
+        <v>0.23373134328358211</v>
       </c>
       <c r="H69" s="86">
         <f t="shared" si="1"/>
@@ -29793,11 +29793,11 @@
       </c>
       <c r="F71" s="86">
         <f t="shared" si="1"/>
-        <v>0.23373134328358205</v>
+        <v>0.23373134328358211</v>
       </c>
       <c r="G71" s="86">
         <f t="shared" si="1"/>
-        <v>0.23373134328358205</v>
+        <v>0.23373134328358211</v>
       </c>
       <c r="H71" s="86">
         <f t="shared" si="1"/>
@@ -29849,7 +29849,7 @@
       </c>
       <c r="F73" s="86">
         <f t="shared" si="1"/>
-        <v>0.30150000000000005</v>
+        <v>0.63</v>
       </c>
       <c r="G73" s="86">
         <f t="shared" si="1"/>
@@ -29902,7 +29902,7 @@
       </c>
       <c r="F75" s="86">
         <f t="shared" si="1"/>
-        <v>0.30150000000000005</v>
+        <v>0.75600000000000001</v>
       </c>
       <c r="G75" s="86">
         <f t="shared" si="1"/>
@@ -29925,7 +29925,7 @@
       </c>
       <c r="D76" s="86">
         <f t="shared" si="1"/>
-        <v>0.63</v>
+        <v>0.2543478260869565</v>
       </c>
       <c r="E76" s="86">
         <f t="shared" si="1"/>
@@ -29933,7 +29933,7 @@
       </c>
       <c r="F76" s="86">
         <f t="shared" si="1"/>
-        <v>0.30150000000000005</v>
+        <v>0</v>
       </c>
       <c r="G76" s="86">
         <f t="shared" si="1"/>
@@ -29958,7 +29958,7 @@
       </c>
       <c r="F77" s="86">
         <f t="shared" si="2"/>
-        <v>0.30150000000000005</v>
+        <v>0</v>
       </c>
       <c r="G77" s="86">
         <f t="shared" si="2"/>
@@ -29981,7 +29981,7 @@
       </c>
       <c r="D78" s="86">
         <f t="shared" si="2"/>
-        <v>0.63</v>
+        <v>0.2543478260869565</v>
       </c>
       <c r="E78" s="86">
         <f t="shared" si="2"/>
@@ -29989,7 +29989,7 @@
       </c>
       <c r="F78" s="86">
         <f t="shared" si="2"/>
-        <v>0.30150000000000005</v>
+        <v>0</v>
       </c>
       <c r="G78" s="86">
         <f t="shared" si="2"/>
@@ -30014,7 +30014,7 @@
       </c>
       <c r="F79" s="86">
         <f t="shared" si="2"/>
-        <v>0.30150000000000005</v>
+        <v>0</v>
       </c>
       <c r="G79" s="86">
         <f t="shared" si="2"/>
@@ -30037,7 +30037,7 @@
       </c>
       <c r="D80" s="86">
         <f t="shared" si="2"/>
-        <v>0.63</v>
+        <v>0.2543478260869565</v>
       </c>
       <c r="E80" s="86">
         <f t="shared" si="2"/>
@@ -30045,7 +30045,7 @@
       </c>
       <c r="F80" s="86">
         <f t="shared" si="2"/>
-        <v>0.30150000000000005</v>
+        <v>0</v>
       </c>
       <c r="G80" s="86">
         <f t="shared" si="2"/>
@@ -30070,7 +30070,7 @@
       </c>
       <c r="F81" s="86">
         <f t="shared" si="2"/>
-        <v>0.30150000000000005</v>
+        <v>0</v>
       </c>
       <c r="G81" s="86">
         <f t="shared" si="2"/>
@@ -30101,7 +30101,7 @@
       </c>
       <c r="F82" s="86">
         <f t="shared" si="2"/>
-        <v>0.30150000000000005</v>
+        <v>0.9</v>
       </c>
       <c r="G82" s="86">
         <f t="shared" si="2"/>
@@ -30126,7 +30126,7 @@
       </c>
       <c r="F83" s="86">
         <f t="shared" si="2"/>
-        <v>0.30150000000000005</v>
+        <v>0</v>
       </c>
       <c r="G83" s="86">
         <f t="shared" si="2"/>
@@ -30151,7 +30151,7 @@
       </c>
       <c r="F84" s="86">
         <f t="shared" si="2"/>
-        <v>0.30150000000000005</v>
+        <v>0</v>
       </c>
       <c r="G84" s="86">
         <f t="shared" si="2"/>
@@ -30182,7 +30182,7 @@
       </c>
       <c r="F85" s="86">
         <f t="shared" si="2"/>
-        <v>0.30150000000000005</v>
+        <v>0.9</v>
       </c>
       <c r="G85" s="86">
         <f t="shared" si="2"/>
@@ -30207,7 +30207,7 @@
       </c>
       <c r="F86" s="86">
         <f t="shared" si="2"/>
-        <v>0.30150000000000005</v>
+        <v>0</v>
       </c>
       <c r="G86" s="86">
         <f t="shared" si="2"/>
@@ -30232,7 +30232,7 @@
       </c>
       <c r="F87" s="86">
         <f t="shared" si="3"/>
-        <v>0.30150000000000005</v>
+        <v>0</v>
       </c>
       <c r="G87" s="86">
         <f t="shared" si="3"/>
@@ -30263,7 +30263,7 @@
       </c>
       <c r="F88" s="86">
         <f t="shared" si="3"/>
-        <v>0.30150000000000005</v>
+        <v>0.9</v>
       </c>
       <c r="G88" s="86">
         <f t="shared" si="3"/>
@@ -30288,7 +30288,7 @@
       </c>
       <c r="F89" s="86">
         <f t="shared" si="3"/>
-        <v>0.30150000000000005</v>
+        <v>0</v>
       </c>
       <c r="G89" s="86">
         <f t="shared" si="3"/>
@@ -30313,7 +30313,7 @@
       </c>
       <c r="F90" s="86">
         <f t="shared" si="3"/>
-        <v>0.30150000000000005</v>
+        <v>0</v>
       </c>
       <c r="G90" s="86">
         <f t="shared" si="3"/>
@@ -30344,7 +30344,7 @@
       </c>
       <c r="F91" s="86">
         <f t="shared" si="3"/>
-        <v>0.30150000000000005</v>
+        <v>0.9</v>
       </c>
       <c r="G91" s="86">
         <f t="shared" si="3"/>
@@ -30369,7 +30369,7 @@
       </c>
       <c r="F92" s="86">
         <f t="shared" si="3"/>
-        <v>0.30150000000000005</v>
+        <v>0</v>
       </c>
       <c r="G92" s="86">
         <f t="shared" si="3"/>
@@ -30394,7 +30394,7 @@
       </c>
       <c r="F93" s="86">
         <f t="shared" si="3"/>
-        <v>0.30150000000000005</v>
+        <v>0</v>
       </c>
       <c r="G93" s="86">
         <f t="shared" si="3"/>
@@ -30425,7 +30425,7 @@
       </c>
       <c r="F94" s="86">
         <f t="shared" si="3"/>
-        <v>0.30150000000000005</v>
+        <v>0.9</v>
       </c>
       <c r="G94" s="86">
         <f t="shared" si="3"/>
@@ -30450,7 +30450,7 @@
       </c>
       <c r="F95" s="86">
         <f t="shared" si="3"/>
-        <v>0.30150000000000005</v>
+        <v>0</v>
       </c>
       <c r="G95" s="86">
         <f t="shared" si="3"/>
@@ -30475,7 +30475,7 @@
       </c>
       <c r="F96" s="86">
         <f t="shared" si="3"/>
-        <v>0.30150000000000005</v>
+        <v>0</v>
       </c>
       <c r="G96" s="86">
         <f t="shared" si="3"/>
@@ -30506,7 +30506,7 @@
       </c>
       <c r="F97" s="86">
         <f t="shared" si="4"/>
-        <v>0.30150000000000005</v>
+        <v>0.27</v>
       </c>
       <c r="G97" s="86">
         <f t="shared" si="4"/>
@@ -30531,7 +30531,7 @@
       </c>
       <c r="F98" s="86">
         <f t="shared" si="4"/>
-        <v>0.30150000000000005</v>
+        <v>0.45</v>
       </c>
       <c r="G98" s="86">
         <f t="shared" si="4"/>
@@ -30556,7 +30556,7 @@
       </c>
       <c r="F99" s="86">
         <f t="shared" si="4"/>
-        <v>0.30150000000000005</v>
+        <v>0.58500000000000008</v>
       </c>
       <c r="G99" s="86">
         <f t="shared" si="4"/>
@@ -30584,7 +30584,7 @@
       </c>
       <c r="F100" s="86">
         <f t="shared" si="4"/>
-        <v>0.30150000000000005</v>
+        <v>0.27</v>
       </c>
       <c r="G100" s="86">
         <f t="shared" si="4"/>
@@ -30609,7 +30609,7 @@
       </c>
       <c r="F101" s="86">
         <f t="shared" si="4"/>
-        <v>0.30150000000000005</v>
+        <v>0.441</v>
       </c>
       <c r="G101" s="86">
         <f t="shared" si="4"/>
@@ -30634,7 +30634,7 @@
       </c>
       <c r="F102" s="86">
         <f t="shared" si="4"/>
-        <v>0.30150000000000005</v>
+        <v>0.46800000000000003</v>
       </c>
       <c r="G102" s="86">
         <f t="shared" si="4"/>
@@ -30665,7 +30665,7 @@
       </c>
       <c r="F103" s="86">
         <f t="shared" si="4"/>
-        <v>0.30150000000000005</v>
+        <v>0.79200000000000004</v>
       </c>
       <c r="G103" s="86">
         <f t="shared" si="4"/>
@@ -30682,23 +30682,23 @@
       </c>
       <c r="D104" s="86">
         <f t="shared" si="4"/>
-        <v>0.83700000000000008</v>
+        <v>0.70568181818181819</v>
       </c>
       <c r="E104" s="86">
         <f t="shared" si="4"/>
-        <v>0.83700000000000008</v>
+        <v>0.70568181818181819</v>
       </c>
       <c r="F104" s="86">
         <f t="shared" si="4"/>
-        <v>0.30150000000000005</v>
+        <v>0.70568181818181819</v>
       </c>
       <c r="G104" s="86">
         <f t="shared" si="4"/>
-        <v>0.83700000000000008</v>
+        <v>0.70568181818181819</v>
       </c>
       <c r="H104" s="86">
         <f t="shared" si="4"/>
-        <v>0.83700000000000008</v>
+        <v>0.70568181818181819</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">
@@ -30713,23 +30713,23 @@
       </c>
       <c r="D105" s="86">
         <f t="shared" si="4"/>
-        <v>0.9</v>
+        <v>0.79534883720930238</v>
       </c>
       <c r="E105" s="86">
         <f t="shared" si="4"/>
-        <v>0.9</v>
+        <v>0.79534883720930238</v>
       </c>
       <c r="F105" s="86">
         <f t="shared" si="4"/>
-        <v>0.30150000000000005</v>
+        <v>0.79534883720930238</v>
       </c>
       <c r="G105" s="86">
         <f t="shared" si="4"/>
-        <v>0.9</v>
+        <v>0.79534883720930238</v>
       </c>
       <c r="H105" s="86">
         <f t="shared" si="4"/>
-        <v>0.9</v>
+        <v>0.79534883720930238</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.25">
@@ -30746,7 +30746,7 @@
       </c>
       <c r="F106" s="86">
         <f t="shared" si="4"/>
-        <v>0.30150000000000005</v>
+        <v>0.77400000000000002</v>
       </c>
       <c r="G106" s="86">
         <f t="shared" si="4"/>
@@ -30777,7 +30777,7 @@
       </c>
       <c r="F107" s="86">
         <f t="shared" si="5"/>
-        <v>0.30150000000000005</v>
+        <v>0</v>
       </c>
       <c r="G107" s="86">
         <f t="shared" si="5"/>
@@ -30802,7 +30802,7 @@
       </c>
       <c r="F108" s="86">
         <f t="shared" si="5"/>
-        <v>0.30150000000000005</v>
+        <v>0</v>
       </c>
       <c r="G108" s="86">
         <f t="shared" si="5"/>
@@ -30866,15 +30866,15 @@
       </c>
       <c r="F112" s="86">
         <f t="shared" si="6"/>
-        <v>0.35175000000000006</v>
+        <v>0.41447368421052638</v>
       </c>
       <c r="G112" s="86">
         <f t="shared" si="6"/>
-        <v>0.35175000000000006</v>
+        <v>0.41447368421052638</v>
       </c>
       <c r="H112" s="86">
         <f t="shared" si="6"/>
-        <v>0.35175000000000006</v>
+        <v>0.41447368421052638</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
@@ -30891,15 +30891,15 @@
       </c>
       <c r="F113" s="86">
         <f t="shared" si="6"/>
-        <v>0.55791044776119403</v>
+        <v>0.32307692307692304</v>
       </c>
       <c r="G113" s="86">
         <f t="shared" si="6"/>
-        <v>0.55791044776119403</v>
+        <v>0.32307692307692304</v>
       </c>
       <c r="H113" s="86">
         <f t="shared" si="6"/>
-        <v>0.55791044776119403</v>
+        <v>0.32307692307692304</v>
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.25">
@@ -30916,15 +30916,15 @@
       </c>
       <c r="F114" s="86">
         <f t="shared" si="6"/>
-        <v>0.40432835820895541</v>
+        <v>0.40432835820895546</v>
       </c>
       <c r="G114" s="86">
         <f t="shared" si="6"/>
-        <v>0.40432835820895541</v>
+        <v>0.40432835820895546</v>
       </c>
       <c r="H114" s="86">
         <f t="shared" si="6"/>
-        <v>0.40432835820895541</v>
+        <v>0.40432835820895546</v>
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.25">
@@ -30972,11 +30972,11 @@
       </c>
       <c r="F116" s="86">
         <f t="shared" si="6"/>
-        <v>0.27268656716417905</v>
+        <v>0.27268656716417916</v>
       </c>
       <c r="G116" s="86">
         <f t="shared" si="6"/>
-        <v>0.27268656716417905</v>
+        <v>0.27268656716417916</v>
       </c>
       <c r="H116" s="86">
         <f t="shared" si="6"/>
@@ -31025,11 +31025,11 @@
       </c>
       <c r="F118" s="86">
         <f t="shared" si="6"/>
-        <v>0.27268656716417905</v>
+        <v>0.27268656716417916</v>
       </c>
       <c r="G118" s="86">
         <f t="shared" si="6"/>
-        <v>0.27268656716417905</v>
+        <v>0.27268656716417916</v>
       </c>
       <c r="H118" s="86">
         <f t="shared" si="6"/>
@@ -31081,11 +31081,11 @@
       </c>
       <c r="F120" s="86">
         <f t="shared" si="6"/>
-        <v>0.27268656716417905</v>
+        <v>0.27268656716417916</v>
       </c>
       <c r="G120" s="86">
         <f t="shared" si="6"/>
-        <v>0.27268656716417905</v>
+        <v>0.27268656716417916</v>
       </c>
       <c r="H120" s="86">
         <f t="shared" si="6"/>
@@ -31134,11 +31134,11 @@
       </c>
       <c r="F122" s="86">
         <f t="shared" si="7"/>
-        <v>0.27268656716417905</v>
+        <v>0.27268656716417916</v>
       </c>
       <c r="G122" s="86">
         <f t="shared" si="7"/>
-        <v>0.27268656716417905</v>
+        <v>0.27268656716417916</v>
       </c>
       <c r="H122" s="86">
         <f t="shared" si="7"/>
@@ -31190,11 +31190,11 @@
       </c>
       <c r="F124" s="86">
         <f t="shared" si="7"/>
-        <v>0.27268656716417905</v>
+        <v>0.27268656716417916</v>
       </c>
       <c r="G124" s="86">
         <f t="shared" si="7"/>
-        <v>0.27268656716417905</v>
+        <v>0.27268656716417916</v>
       </c>
       <c r="H124" s="86">
         <f t="shared" si="7"/>
@@ -31243,11 +31243,11 @@
       </c>
       <c r="F126" s="86">
         <f t="shared" si="7"/>
-        <v>0.27268656716417905</v>
+        <v>0.27268656716417916</v>
       </c>
       <c r="G126" s="86">
         <f t="shared" si="7"/>
-        <v>0.27268656716417905</v>
+        <v>0.27268656716417916</v>
       </c>
       <c r="H126" s="86">
         <f t="shared" si="7"/>
@@ -31299,7 +31299,7 @@
       </c>
       <c r="F128" s="86">
         <f t="shared" si="7"/>
-        <v>0.35175000000000006</v>
+        <v>0.73499999999999999</v>
       </c>
       <c r="G128" s="86">
         <f t="shared" si="7"/>
@@ -31352,7 +31352,7 @@
       </c>
       <c r="F130" s="86">
         <f t="shared" si="7"/>
-        <v>0.35175000000000006</v>
+        <v>0.88200000000000001</v>
       </c>
       <c r="G130" s="86">
         <f t="shared" si="7"/>
@@ -31375,7 +31375,7 @@
       </c>
       <c r="D131" s="86">
         <f t="shared" si="7"/>
-        <v>0.73499999999999999</v>
+        <v>0.29673913043478262</v>
       </c>
       <c r="E131" s="86">
         <f t="shared" si="7"/>
@@ -31383,7 +31383,7 @@
       </c>
       <c r="F131" s="86">
         <f t="shared" si="7"/>
-        <v>0.35175000000000006</v>
+        <v>0</v>
       </c>
       <c r="G131" s="86">
         <f t="shared" si="7"/>
@@ -31408,7 +31408,7 @@
       </c>
       <c r="F132" s="86">
         <f t="shared" si="8"/>
-        <v>0.35175000000000006</v>
+        <v>0</v>
       </c>
       <c r="G132" s="86">
         <f t="shared" si="8"/>
@@ -31431,7 +31431,7 @@
       </c>
       <c r="D133" s="86">
         <f t="shared" si="8"/>
-        <v>0.73499999999999999</v>
+        <v>0.29673913043478262</v>
       </c>
       <c r="E133" s="86">
         <f t="shared" si="8"/>
@@ -31439,7 +31439,7 @@
       </c>
       <c r="F133" s="86">
         <f t="shared" si="8"/>
-        <v>0.35175000000000006</v>
+        <v>0</v>
       </c>
       <c r="G133" s="86">
         <f t="shared" si="8"/>
@@ -31464,7 +31464,7 @@
       </c>
       <c r="F134" s="86">
         <f t="shared" si="8"/>
-        <v>0.35175000000000006</v>
+        <v>0</v>
       </c>
       <c r="G134" s="86">
         <f t="shared" si="8"/>
@@ -31487,7 +31487,7 @@
       </c>
       <c r="D135" s="86">
         <f t="shared" si="8"/>
-        <v>0.73499999999999999</v>
+        <v>0.29673913043478262</v>
       </c>
       <c r="E135" s="86">
         <f t="shared" si="8"/>
@@ -31495,7 +31495,7 @@
       </c>
       <c r="F135" s="86">
         <f t="shared" si="8"/>
-        <v>0.35175000000000006</v>
+        <v>0</v>
       </c>
       <c r="G135" s="86">
         <f t="shared" si="8"/>
@@ -31520,7 +31520,7 @@
       </c>
       <c r="F136" s="86">
         <f t="shared" si="8"/>
-        <v>0.35175000000000006</v>
+        <v>0</v>
       </c>
       <c r="G136" s="86">
         <f t="shared" si="8"/>
@@ -31551,7 +31551,7 @@
       </c>
       <c r="F137" s="86">
         <f t="shared" si="8"/>
-        <v>0.35175000000000006</v>
+        <v>1.05</v>
       </c>
       <c r="G137" s="86">
         <f t="shared" si="8"/>
@@ -31576,7 +31576,7 @@
       </c>
       <c r="F138" s="86">
         <f t="shared" si="8"/>
-        <v>0.35175000000000006</v>
+        <v>0</v>
       </c>
       <c r="G138" s="86">
         <f t="shared" si="8"/>
@@ -31601,7 +31601,7 @@
       </c>
       <c r="F139" s="86">
         <f t="shared" si="8"/>
-        <v>0.35175000000000006</v>
+        <v>0</v>
       </c>
       <c r="G139" s="86">
         <f t="shared" si="8"/>
@@ -31632,7 +31632,7 @@
       </c>
       <c r="F140" s="86">
         <f t="shared" si="8"/>
-        <v>0.35175000000000006</v>
+        <v>1.05</v>
       </c>
       <c r="G140" s="86">
         <f t="shared" si="8"/>
@@ -31657,7 +31657,7 @@
       </c>
       <c r="F141" s="86">
         <f t="shared" si="8"/>
-        <v>0.35175000000000006</v>
+        <v>0</v>
       </c>
       <c r="G141" s="86">
         <f t="shared" si="8"/>
@@ -31682,7 +31682,7 @@
       </c>
       <c r="F142" s="86">
         <f t="shared" si="9"/>
-        <v>0.35175000000000006</v>
+        <v>0</v>
       </c>
       <c r="G142" s="86">
         <f t="shared" si="9"/>
@@ -31713,7 +31713,7 @@
       </c>
       <c r="F143" s="86">
         <f t="shared" si="9"/>
-        <v>0.35175000000000006</v>
+        <v>1.05</v>
       </c>
       <c r="G143" s="86">
         <f t="shared" si="9"/>
@@ -31738,7 +31738,7 @@
       </c>
       <c r="F144" s="86">
         <f t="shared" si="9"/>
-        <v>0.35175000000000006</v>
+        <v>0</v>
       </c>
       <c r="G144" s="86">
         <f t="shared" si="9"/>
@@ -31763,7 +31763,7 @@
       </c>
       <c r="F145" s="86">
         <f t="shared" si="9"/>
-        <v>0.35175000000000006</v>
+        <v>0</v>
       </c>
       <c r="G145" s="86">
         <f t="shared" si="9"/>
@@ -31794,7 +31794,7 @@
       </c>
       <c r="F146" s="86">
         <f t="shared" si="9"/>
-        <v>0.35175000000000006</v>
+        <v>1.05</v>
       </c>
       <c r="G146" s="86">
         <f t="shared" si="9"/>
@@ -31819,7 +31819,7 @@
       </c>
       <c r="F147" s="86">
         <f t="shared" si="9"/>
-        <v>0.35175000000000006</v>
+        <v>0</v>
       </c>
       <c r="G147" s="86">
         <f t="shared" si="9"/>
@@ -31844,7 +31844,7 @@
       </c>
       <c r="F148" s="86">
         <f t="shared" si="9"/>
-        <v>0.35175000000000006</v>
+        <v>0</v>
       </c>
       <c r="G148" s="86">
         <f t="shared" si="9"/>
@@ -31875,7 +31875,7 @@
       </c>
       <c r="F149" s="86">
         <f t="shared" si="9"/>
-        <v>0.35175000000000006</v>
+        <v>1.05</v>
       </c>
       <c r="G149" s="86">
         <f t="shared" si="9"/>
@@ -31900,7 +31900,7 @@
       </c>
       <c r="F150" s="86">
         <f t="shared" si="9"/>
-        <v>0.35175000000000006</v>
+        <v>0</v>
       </c>
       <c r="G150" s="86">
         <f t="shared" si="9"/>
@@ -31925,7 +31925,7 @@
       </c>
       <c r="F151" s="86">
         <f t="shared" si="9"/>
-        <v>0.35175000000000006</v>
+        <v>0</v>
       </c>
       <c r="G151" s="86">
         <f t="shared" si="9"/>
@@ -31956,7 +31956,7 @@
       </c>
       <c r="F152" s="86">
         <f t="shared" si="10"/>
-        <v>0.35175000000000006</v>
+        <v>0.315</v>
       </c>
       <c r="G152" s="86">
         <f t="shared" si="10"/>
@@ -31981,7 +31981,7 @@
       </c>
       <c r="F153" s="86">
         <f t="shared" si="10"/>
-        <v>0.35175000000000006</v>
+        <v>0.52500000000000002</v>
       </c>
       <c r="G153" s="86">
         <f t="shared" si="10"/>
@@ -32006,7 +32006,7 @@
       </c>
       <c r="F154" s="86">
         <f t="shared" si="10"/>
-        <v>0.35175000000000006</v>
+        <v>0.68250000000000011</v>
       </c>
       <c r="G154" s="86">
         <f t="shared" si="10"/>
@@ -32034,7 +32034,7 @@
       </c>
       <c r="F155" s="86">
         <f t="shared" si="10"/>
-        <v>0.35175000000000006</v>
+        <v>0.315</v>
       </c>
       <c r="G155" s="86">
         <f t="shared" si="10"/>
@@ -32059,7 +32059,7 @@
       </c>
       <c r="F156" s="86">
         <f t="shared" si="10"/>
-        <v>0.35175000000000006</v>
+        <v>0.51449999999999996</v>
       </c>
       <c r="G156" s="86">
         <f t="shared" si="10"/>
@@ -32084,7 +32084,7 @@
       </c>
       <c r="F157" s="86">
         <f t="shared" si="10"/>
-        <v>0.35175000000000006</v>
+        <v>0.54600000000000004</v>
       </c>
       <c r="G157" s="86">
         <f t="shared" si="10"/>
@@ -32115,7 +32115,7 @@
       </c>
       <c r="F158" s="86">
         <f t="shared" si="10"/>
-        <v>0.35175000000000006</v>
+        <v>0.92400000000000004</v>
       </c>
       <c r="G158" s="86">
         <f t="shared" si="10"/>
@@ -32132,23 +32132,23 @@
       </c>
       <c r="D159" s="86">
         <f t="shared" si="10"/>
-        <v>0.97650000000000015</v>
+        <v>0.8232954545454545</v>
       </c>
       <c r="E159" s="86">
         <f t="shared" si="10"/>
-        <v>0.97650000000000015</v>
+        <v>0.8232954545454545</v>
       </c>
       <c r="F159" s="86">
         <f t="shared" si="10"/>
-        <v>0.35175000000000006</v>
+        <v>0.8232954545454545</v>
       </c>
       <c r="G159" s="86">
         <f t="shared" si="10"/>
-        <v>0.97650000000000015</v>
+        <v>0.8232954545454545</v>
       </c>
       <c r="H159" s="86">
         <f t="shared" si="10"/>
-        <v>0.97650000000000015</v>
+        <v>0.8232954545454545</v>
       </c>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.25">
@@ -32163,23 +32163,23 @@
       </c>
       <c r="D160" s="86">
         <f t="shared" si="10"/>
-        <v>1.05</v>
+        <v>0.9279069767441861</v>
       </c>
       <c r="E160" s="86">
         <f t="shared" si="10"/>
-        <v>1.05</v>
+        <v>0.9279069767441861</v>
       </c>
       <c r="F160" s="86">
         <f t="shared" si="10"/>
-        <v>0.35175000000000006</v>
+        <v>0.9279069767441861</v>
       </c>
       <c r="G160" s="86">
         <f t="shared" si="10"/>
-        <v>1.05</v>
+        <v>0.9279069767441861</v>
       </c>
       <c r="H160" s="86">
         <f t="shared" si="10"/>
-        <v>1.05</v>
+        <v>0.9279069767441861</v>
       </c>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.25">
@@ -32196,7 +32196,7 @@
       </c>
       <c r="F161" s="86">
         <f t="shared" si="10"/>
-        <v>0.35175000000000006</v>
+        <v>0.90300000000000002</v>
       </c>
       <c r="G161" s="86">
         <f t="shared" si="10"/>
@@ -32227,7 +32227,7 @@
       </c>
       <c r="F162" s="86">
         <f t="shared" si="11"/>
-        <v>0.35175000000000006</v>
+        <v>0</v>
       </c>
       <c r="G162" s="86">
         <f t="shared" si="11"/>
@@ -32252,7 +32252,7 @@
       </c>
       <c r="F163" s="86">
         <f t="shared" si="11"/>
-        <v>0.35175000000000006</v>
+        <v>0</v>
       </c>
       <c r="G163" s="86">
         <f t="shared" si="11"/>

--- a/inputs/es/Optima_template.xlsx
+++ b/inputs/es/Optima_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\romesh\projects\nutrition\inputs\es\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B44886F8-C4C3-455B-BE90-7456A034E6A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EFE3081E-07F0-4323-B6B8-D36C08848B47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2760" yWindow="6840" windowWidth="31920" windowHeight="14040" tabRatio="961" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -410,7 +410,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2093" uniqueCount="338">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2093" uniqueCount="341">
   <si>
     <t>Field</t>
   </si>
@@ -610,9 +610,6 @@
     <t>Estimación de mujeres embarazadas</t>
   </si>
   <si>
-    <t>Mujeres en edad reproductiva no embarazadas</t>
-  </si>
-  <si>
     <t>Número de nacimientos</t>
   </si>
   <si>
@@ -631,7 +628,10 @@
     <t>WRA: 40-49 años (mujeres en edad reproductiva)</t>
   </si>
   <si>
-    <t>Año</t>
+    <t>mujeres en edad reproductiva no embarazadas</t>
+  </si>
+  <si>
+    <t>año</t>
   </si>
   <si>
     <t>1-5 meses</t>
@@ -1045,6 +1045,9 @@
     <t>Población general</t>
   </si>
   <si>
+    <t>Mujeres en edad reproductiva no embarazadas</t>
+  </si>
+  <si>
     <t>Curva con costo marginal decreciente</t>
   </si>
   <si>
@@ -1372,7 +1375,10 @@
     <t>Suplementos nutricionales a base de lípidos en pequeñas cantidades - superior</t>
   </si>
   <si>
-    <t>Fracción afectada</t>
+    <t>fracción afectada</t>
+  </si>
+  <si>
+    <t>efectividad</t>
   </si>
   <si>
     <t>Razón de momios de ser anémico cuando está cubierto por la intervención</t>
@@ -1417,6 +1423,9 @@
     <t>Límite superior</t>
   </si>
   <si>
+    <t>Fracción afectada</t>
+  </si>
+  <si>
     <t>Efectividad en incidencia</t>
   </si>
   <si>
@@ -1437,7 +1446,7 @@
     <numFmt numFmtId="167" formatCode="0.0%"/>
     <numFmt numFmtId="168" formatCode="0.0"/>
   </numFmts>
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1553,12 +1562,6 @@
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="8"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -1704,7 +1707,7 @@
     <xf numFmtId="9" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="109">
+  <cellXfs count="108">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1950,9 +1953,6 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="7" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2719,7 +2719,7 @@
       <c r="A63" s="52"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="WwfD7AagcszwkzXXj/fX6p0CkdfXOvkKxog2dceq8Ko99ZH2yMri6D/dZzfW3Ij4n5b6pgzTat4eqB2R7gfQkw==" saltValue="W0uvCX/x29VFLOO9BmOYjg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="a0GA+lcnX48U8ZaSzREg4C4ExRCnJM2FyUN9iS3rccdH7w4spP/Z3Y1WVP1zxxGUpe7zlOEP4y09aW+TS8TT0g==" saltValue="F6kiR0yiUyrYNzsxeoc5aQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
@@ -3497,7 +3497,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="wMrXGDELR1AoT1JxW5F/nwEg6YsW3EVXzrVCspKKeKvjnvD58CdToF8UAPMee+CSDZLR5Td4tixMAMuhZ5E1fg==" saltValue="0hMZlIhOuyd8lYB16/AM9A==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="vSYqPpNS3aP4HXkfaqTTs+cHjV1hnhFAq8G93btYSUuZcsnBRWENI42+Tjpt/J/AP56aMr2aXSwLh5HP15ivfg==" saltValue="dnWeFGgZMgTbbPGPvaNmTg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
@@ -3647,7 +3647,7 @@
       <c r="C20" s="45"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="hCViztUdyN/ryNEvvBypDnHsgJFJ+41qEZ1/x9I2FfwYeiHOcpWnyoCZwRRC4uC1qurfgnN64n2ecdlxh7HZxg==" saltValue="a7omYPgd3lfJipPNYedplw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="nJRZFAgJe1mKstBtJbXhSgY0VF88NNX39dJro6BGc+DfLRGQviwjZLCKvY5rqmdUuWIimnIH8X1p+JUyezOlhw==" saltValue="vufIJ0FNmGsLoJuSpFTBZw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <legacyDrawing r:id="rId1"/>
@@ -3748,7 +3748,7 @@
       <c r="A19" s="23"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="lNVEAsj/OweDN6LB5S7vFpmHhWOCy1u2ZoDP072EToxqSrFkvEQPyn7u2WG16cdOnrDL4PXKI78zIRPd/3qy6A==" saltValue="pVo89Y7HkyH/c7+kFt0dWw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="ViAQ+yKqItMuoqD4W44CNAd+fN3ArAEihW8aiiHi8Po9typYcF2YN10akf4p3zjreF6LQCzUTi6fhmAyOyIfcw==" saltValue="TK86Ri2jTeWJ3AjupTX6Fw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -3863,7 +3863,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="RirK/C6/Doo3pkIXnL+pR3jXIMB9lZg/Q5kTaAhVHJUaA1TEjTicjmJf9OgZB87gF+dz/wbWZb8o6Erac1B5kQ==" saltValue="lbPEAGiEvPYhNb/UAEeIDA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="sTj8cOfvRPciyfc+a+9mNz7X/tyOUqVMntHMPhoCTDJ8a74s9+YRl7FQyLovjw9CjJT6eFlL6OLTiZlfm40qPQ==" saltValue="kCgTDMXNwdxldSvUgqmbGQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -3927,16 +3927,16 @@
         <v>116</v>
       </c>
       <c r="L1" s="52" t="s">
+        <v>68</v>
+      </c>
+      <c r="M1" s="52" t="s">
         <v>69</v>
       </c>
-      <c r="M1" s="52" t="s">
+      <c r="N1" s="52" t="s">
         <v>70</v>
       </c>
-      <c r="N1" s="52" t="s">
+      <c r="O1" s="52" t="s">
         <v>71</v>
-      </c>
-      <c r="O1" s="52" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4883,7 +4883,7 @@
     </row>
     <row r="24" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="52" t="s">
-        <v>66</v>
+        <v>211</v>
       </c>
       <c r="B24" s="65" t="s">
         <v>170</v>
@@ -5624,7 +5624,7 @@
       <c r="B40" s="17"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="Yg7j0JHELsG37g1e6RujTdMYdcEmTvOptMNsk7VB21R71Ux4WwrDmjTqMb3I6qxHq3kGO+Eg0OtHB88+AIeROA==" saltValue="3SjzkjvpQSrGVSuQASUXyg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="BsgjDBZONG7l3XDtp8b2IfK6skO2r4Iio9XmpGhXxTfN6JZBYB1gINj4G7nQTxf3ObLJpeT+tuWyxwDYssbl1g==" saltValue="0x5aRQbjSBF+oMGEN6WaPw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -5645,21 +5645,21 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="96" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="96" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" s="96" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="uQCn9s0FJ+rvfn2B7ieUDUJ4Xl80AyNTUWftaDnYYuhKsDSyqTul1JVlaWcrmdFVsy+Wq9Qte4MiEx0vna4IlA==" saltValue="5VwgW3ZGJRyu5Jx5T4mk7A==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="qreYGA8o1klRMWzTsEfkS9rgiJHf20999nlHRLRVOKDxtsrdNyhCjlsEM5m2ps1eJZPqstbpaOTr9SMsMfFuiw==" saltValue="dbvMTFyIEw5gDDkwaKMXfA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -5687,24 +5687,24 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="52" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B1" s="52" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C1" s="52" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D1" s="52" t="s">
         <v>145</v>
       </c>
       <c r="E1" s="52" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="18" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B2" s="18">
         <v>0.9</v>
@@ -5722,7 +5722,7 @@
     </row>
     <row r="3" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="18" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B3" s="18">
         <v>1</v>
@@ -5740,7 +5740,7 @@
     </row>
     <row r="4" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="18" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B4" s="18">
         <v>1</v>
@@ -5758,7 +5758,7 @@
     </row>
     <row r="5" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="18" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B5" s="18">
         <v>1</v>
@@ -5776,7 +5776,7 @@
     </row>
     <row r="6" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="18" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B6" s="18">
         <v>1</v>
@@ -5794,7 +5794,7 @@
     </row>
     <row r="7" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="18" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B7" s="18">
         <v>0.93</v>
@@ -5812,7 +5812,7 @@
     </row>
     <row r="8" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="18" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B8" s="18">
         <v>0.5</v>
@@ -5830,7 +5830,7 @@
     </row>
     <row r="9" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="18" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B9" s="18">
         <v>0.5</v>
@@ -5848,7 +5848,7 @@
     </row>
     <row r="10" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="18" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B10" s="18">
         <v>0.98</v>
@@ -5865,7 +5865,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="QWEZbLVDW5dQM5Z/C50AaQdHHYoiuojzo04b4D4IOWSLK3bfuBUcq0/Rx3KnqrmTiCqrnlU4veOafxCnPbBX/Q==" saltValue="V144a2CBaVchtDk2M6kVEg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="RWwuiZdyG2qCo49AM4c3ZXh75J48ijMTq12N9BV98hgaH6ETnDKAK+mmznzAIKcOUv7lgGnvCv4fU7tSGWZXKg==" saltValue="LHbLbhBal9nLLTdfgMVPOA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
@@ -5932,16 +5932,16 @@
         <v>116</v>
       </c>
       <c r="L1" s="52" t="s">
+        <v>68</v>
+      </c>
+      <c r="M1" s="52" t="s">
         <v>69</v>
       </c>
-      <c r="M1" s="52" t="s">
+      <c r="N1" s="52" t="s">
         <v>70</v>
       </c>
-      <c r="N1" s="52" t="s">
+      <c r="O1" s="52" t="s">
         <v>71</v>
-      </c>
-      <c r="O1" s="52" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6997,7 +6997,7 @@
     </row>
     <row r="27" spans="1:16" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="52" t="s">
-        <v>66</v>
+        <v>211</v>
       </c>
       <c r="B27" s="69" t="s">
         <v>170</v>
@@ -7680,7 +7680,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="l2KwoJHPAlXyAyWJVG36hNB6MMrVyyXk/iziFSSLPxO1vnkF39st42DcUOWQY4irmM9R8Du/14lk3ohkoiPtig==" saltValue="ogcGs2P0sfrm4/Qk6L1tXA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="3HhyHGUfTx28tBPfIkxL9alkbXUTsPQ0XGNzmJExPrVi2ajD+ZUY+EruAj7CFmfWAVKTF8T8MgpS0PQBzYMytg==" saltValue="ZRQMfktORF5zplRpvw1fnQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -7717,16 +7717,16 @@
         <v>163</v>
       </c>
       <c r="B1" s="96" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C1" s="96" t="s">
         <v>105</v>
       </c>
       <c r="D1" s="96" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="E1" s="96" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="F1" s="96" t="s">
         <v>123</v>
@@ -7738,13 +7738,13 @@
         <v>37</v>
       </c>
       <c r="I1" s="96" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="J1" s="96" t="s">
         <v>22</v>
       </c>
       <c r="K1" s="96" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
@@ -8448,7 +8448,7 @@
       <c r="K39" s="82"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="eByumjz4Dsu6jXtll7XAkkdFE8di8QQ/Zl+6FeYPQ7q47wHnbTa0gzYu85XnItO65ilNsPcK2IbXgwuHHVcfYA==" saltValue="ItUyCFhNn7c/kTu4ri286w==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="KM63V+rb8tSl8hTjgPSRHueezat4xIwz54oDcK2tl0/m6XQhkZmpw3pBaKnYdZKjon20U2jEB3hVwFJfMOCBIA==" saltValue="/I85KO3qQ+awmDyGZKYuRg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -8482,19 +8482,19 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="52" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B1" s="96" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C1" s="96" t="s">
         <v>105</v>
       </c>
       <c r="D1" s="96" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="E1" s="96" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="F1" s="96" t="s">
         <v>123</v>
@@ -8506,13 +8506,13 @@
         <v>37</v>
       </c>
       <c r="I1" s="96" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="J1" s="96" t="s">
         <v>22</v>
       </c>
       <c r="K1" s="96" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
@@ -8746,7 +8746,7 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="96" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B11" s="82"/>
       <c r="C11" s="82" t="s">
@@ -8767,7 +8767,7 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="96" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B12" s="82"/>
       <c r="C12" s="82" t="s">
@@ -8786,7 +8786,7 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="96" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B13" s="82"/>
       <c r="C13" s="82" t="s">
@@ -8805,7 +8805,7 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="96" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B14" s="82"/>
       <c r="C14" s="82" t="s">
@@ -8823,7 +8823,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="VGMQA9yNHVPQiCe263ftGkbl6THAbLbytKrilzTmNbSd/7I1+lk/2nEg6yBFuaUP5J/rwZXbkNCQpdpYX9wRkQ==" saltValue="TQrQUGaT3hOCMgNbbR6nUA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="mcPA417iWo21OSg2JFCbhz9oJW1LrwiPZdR4kLvs2yFYAaSTPdZm89K1RYKyS0ecLEbuDpnd+BIFoMx7LlVcEg==" saltValue="ktKImOSWaw7Mbj+Buhcc0A==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -8852,28 +8852,28 @@
         <v>73</v>
       </c>
       <c r="B1" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="G1" s="10" t="s">
         <v>67</v>
-      </c>
-      <c r="C1" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="E1" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="F1" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="G1" s="10" t="s">
-        <v>68</v>
       </c>
       <c r="H1" s="10" t="s">
         <v>65</v>
       </c>
       <c r="I1" s="10" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -9813,7 +9813,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="/YqkxJ0LSEHFfuBRPrHwbarTk/ZFIAD2dhNX/RyZUdrwXyTMVoZ8CF6cPypMfSaDzWOMFcEMmlFFIoeCqF5wVg==" saltValue="1HsALJY1Sxx5RmlCpDWtFw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="4xnjo26euRv8sT+LnZjq/hbiwzB3Jez/Ox4OFHxElY2lgq8CPZid/Ig26WQHOUtC6eh8K+W6VaU/McPAu/Ltrg==" saltValue="48aGRBiKMgNBbVfRXx10wQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <conditionalFormatting sqref="B2:I16 B18:I40 B17:C17 E17:I17">
     <cfRule type="expression" dxfId="0" priority="9">
       <formula>$A2=""</formula>
@@ -9846,7 +9846,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="52" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B1" s="52" t="s">
         <v>156</v>
@@ -9872,9 +9872,9 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="52" t="s">
-        <v>235</v>
-      </c>
-      <c r="B2" s="107" t="s">
+        <v>236</v>
+      </c>
+      <c r="B2" s="106" t="s">
         <v>104</v>
       </c>
       <c r="C2" s="96" t="s">
@@ -9897,7 +9897,7 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B3" s="108"/>
+      <c r="B3" s="107"/>
       <c r="C3" s="96" t="s">
         <v>149</v>
       </c>
@@ -9919,7 +9919,7 @@
       <c r="J3" s="53"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B4" s="108"/>
+      <c r="B4" s="107"/>
       <c r="C4" s="96" t="s">
         <v>155</v>
       </c>
@@ -9941,7 +9941,7 @@
       <c r="J4" s="53"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B5" s="107" t="s">
+      <c r="B5" s="106" t="s">
         <v>78</v>
       </c>
       <c r="C5" s="96" t="s">
@@ -9965,7 +9965,7 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B6" s="108"/>
+      <c r="B6" s="107"/>
       <c r="C6" s="96" t="s">
         <v>149</v>
       </c>
@@ -9986,7 +9986,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B7" s="108"/>
+      <c r="B7" s="107"/>
       <c r="C7" s="96" t="s">
         <v>155</v>
       </c>
@@ -10007,7 +10007,7 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B8" s="107" t="s">
+      <c r="B8" s="106" t="s">
         <v>74</v>
       </c>
       <c r="C8" s="96" t="s">
@@ -10030,7 +10030,7 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B9" s="108"/>
+      <c r="B9" s="107"/>
       <c r="C9" s="96" t="s">
         <v>149</v>
       </c>
@@ -10051,7 +10051,7 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B10" s="108"/>
+      <c r="B10" s="107"/>
       <c r="C10" s="96" t="s">
         <v>155</v>
       </c>
@@ -10072,7 +10072,7 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B11" s="107" t="s">
+      <c r="B11" s="106" t="s">
         <v>77</v>
       </c>
       <c r="C11" s="96" t="s">
@@ -10095,7 +10095,7 @@
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B12" s="108"/>
+      <c r="B12" s="107"/>
       <c r="C12" s="96" t="s">
         <v>149</v>
       </c>
@@ -10116,7 +10116,7 @@
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B13" s="108"/>
+      <c r="B13" s="107"/>
       <c r="C13" s="96" t="s">
         <v>155</v>
       </c>
@@ -10137,7 +10137,7 @@
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B14" s="107" t="s">
+      <c r="B14" s="106" t="s">
         <v>75</v>
       </c>
       <c r="C14" s="96" t="s">
@@ -10160,7 +10160,7 @@
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B15" s="108"/>
+      <c r="B15" s="107"/>
       <c r="C15" s="96" t="s">
         <v>149</v>
       </c>
@@ -10181,7 +10181,7 @@
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B16" s="108"/>
+      <c r="B16" s="107"/>
       <c r="C16" s="96" t="s">
         <v>155</v>
       </c>
@@ -10233,9 +10233,9 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="52" t="s">
-        <v>241</v>
-      </c>
-      <c r="B19" s="107" t="s">
+        <v>242</v>
+      </c>
+      <c r="B19" s="106" t="s">
         <v>104</v>
       </c>
       <c r="C19" s="96" t="s">
@@ -10258,7 +10258,7 @@
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B20" s="108"/>
+      <c r="B20" s="107"/>
       <c r="C20" s="96" t="s">
         <v>149</v>
       </c>
@@ -10279,7 +10279,7 @@
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B21" s="108"/>
+      <c r="B21" s="107"/>
       <c r="C21" s="96" t="s">
         <v>155</v>
       </c>
@@ -10300,7 +10300,7 @@
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B22" s="107" t="s">
+      <c r="B22" s="106" t="s">
         <v>78</v>
       </c>
       <c r="C22" s="96" t="s">
@@ -10323,7 +10323,7 @@
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B23" s="108"/>
+      <c r="B23" s="107"/>
       <c r="C23" s="96" t="s">
         <v>149</v>
       </c>
@@ -10344,7 +10344,7 @@
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B24" s="108"/>
+      <c r="B24" s="107"/>
       <c r="C24" s="96" t="s">
         <v>155</v>
       </c>
@@ -10365,7 +10365,7 @@
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B25" s="107" t="s">
+      <c r="B25" s="106" t="s">
         <v>74</v>
       </c>
       <c r="C25" s="96" t="s">
@@ -10388,7 +10388,7 @@
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B26" s="108"/>
+      <c r="B26" s="107"/>
       <c r="C26" s="96" t="s">
         <v>149</v>
       </c>
@@ -10409,7 +10409,7 @@
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B27" s="108"/>
+      <c r="B27" s="107"/>
       <c r="C27" s="96" t="s">
         <v>155</v>
       </c>
@@ -10430,7 +10430,7 @@
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B28" s="107" t="s">
+      <c r="B28" s="106" t="s">
         <v>77</v>
       </c>
       <c r="C28" s="96" t="s">
@@ -10453,7 +10453,7 @@
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B29" s="108"/>
+      <c r="B29" s="107"/>
       <c r="C29" s="96" t="s">
         <v>149</v>
       </c>
@@ -10474,7 +10474,7 @@
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B30" s="108"/>
+      <c r="B30" s="107"/>
       <c r="C30" s="96" t="s">
         <v>155</v>
       </c>
@@ -10495,7 +10495,7 @@
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B31" s="107" t="s">
+      <c r="B31" s="106" t="s">
         <v>75</v>
       </c>
       <c r="C31" s="96" t="s">
@@ -10518,7 +10518,7 @@
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B32" s="108"/>
+      <c r="B32" s="107"/>
       <c r="C32" s="96" t="s">
         <v>149</v>
       </c>
@@ -10539,7 +10539,7 @@
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B33" s="108"/>
+      <c r="B33" s="107"/>
       <c r="C33" s="96" t="s">
         <v>155</v>
       </c>
@@ -10591,9 +10591,9 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" s="54" t="s">
-        <v>238</v>
-      </c>
-      <c r="B36" s="107" t="s">
+        <v>239</v>
+      </c>
+      <c r="B36" s="106" t="s">
         <v>104</v>
       </c>
       <c r="C36" s="96" t="s">
@@ -10616,7 +10616,7 @@
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B37" s="108"/>
+      <c r="B37" s="107"/>
       <c r="C37" s="96" t="s">
         <v>149</v>
       </c>
@@ -10637,7 +10637,7 @@
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B38" s="108"/>
+      <c r="B38" s="107"/>
       <c r="C38" s="96" t="s">
         <v>155</v>
       </c>
@@ -10658,7 +10658,7 @@
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B39" s="107" t="s">
+      <c r="B39" s="106" t="s">
         <v>78</v>
       </c>
       <c r="C39" s="96" t="s">
@@ -10681,7 +10681,7 @@
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B40" s="108"/>
+      <c r="B40" s="107"/>
       <c r="C40" s="96" t="s">
         <v>149</v>
       </c>
@@ -10702,7 +10702,7 @@
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B41" s="108"/>
+      <c r="B41" s="107"/>
       <c r="C41" s="96" t="s">
         <v>155</v>
       </c>
@@ -10723,7 +10723,7 @@
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B42" s="107" t="s">
+      <c r="B42" s="106" t="s">
         <v>74</v>
       </c>
       <c r="C42" s="96" t="s">
@@ -10746,7 +10746,7 @@
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B43" s="108"/>
+      <c r="B43" s="107"/>
       <c r="C43" s="96" t="s">
         <v>149</v>
       </c>
@@ -10767,7 +10767,7 @@
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B44" s="108"/>
+      <c r="B44" s="107"/>
       <c r="C44" s="96" t="s">
         <v>155</v>
       </c>
@@ -10788,7 +10788,7 @@
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B45" s="107" t="s">
+      <c r="B45" s="106" t="s">
         <v>77</v>
       </c>
       <c r="C45" s="96" t="s">
@@ -10811,7 +10811,7 @@
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B46" s="108"/>
+      <c r="B46" s="107"/>
       <c r="C46" s="96" t="s">
         <v>149</v>
       </c>
@@ -10832,7 +10832,7 @@
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B47" s="108"/>
+      <c r="B47" s="107"/>
       <c r="C47" s="96" t="s">
         <v>155</v>
       </c>
@@ -10853,7 +10853,7 @@
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B48" s="107" t="s">
+      <c r="B48" s="106" t="s">
         <v>75</v>
       </c>
       <c r="C48" s="96" t="s">
@@ -10876,7 +10876,7 @@
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B49" s="108"/>
+      <c r="B49" s="107"/>
       <c r="C49" s="96" t="s">
         <v>149</v>
       </c>
@@ -10897,7 +10897,7 @@
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B50" s="108"/>
+      <c r="B50" s="107"/>
       <c r="C50" s="96" t="s">
         <v>155</v>
       </c>
@@ -10942,7 +10942,7 @@
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" s="88" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B53" s="88"/>
       <c r="C53" s="88"/>
@@ -10954,7 +10954,7 @@
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54" s="52" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B54" s="52" t="s">
         <v>156</v>
@@ -10980,9 +10980,9 @@
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55" s="52" t="s">
-        <v>236</v>
-      </c>
-      <c r="B55" s="107" t="s">
+        <v>237</v>
+      </c>
+      <c r="B55" s="106" t="s">
         <v>104</v>
       </c>
       <c r="C55" s="96" t="s">
@@ -11010,7 +11010,7 @@
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B56" s="108"/>
+      <c r="B56" s="107"/>
       <c r="C56" s="96" t="s">
         <v>149</v>
       </c>
@@ -11036,7 +11036,7 @@
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B57" s="108"/>
+      <c r="B57" s="107"/>
       <c r="C57" s="96" t="s">
         <v>155</v>
       </c>
@@ -11062,7 +11062,7 @@
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B58" s="107" t="s">
+      <c r="B58" s="106" t="s">
         <v>78</v>
       </c>
       <c r="C58" s="96" t="s">
@@ -11090,7 +11090,7 @@
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B59" s="108"/>
+      <c r="B59" s="107"/>
       <c r="C59" s="96" t="s">
         <v>149</v>
       </c>
@@ -11116,7 +11116,7 @@
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B60" s="108"/>
+      <c r="B60" s="107"/>
       <c r="C60" s="96" t="s">
         <v>155</v>
       </c>
@@ -11142,7 +11142,7 @@
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B61" s="107" t="s">
+      <c r="B61" s="106" t="s">
         <v>74</v>
       </c>
       <c r="C61" s="96" t="s">
@@ -11170,7 +11170,7 @@
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B62" s="108"/>
+      <c r="B62" s="107"/>
       <c r="C62" s="96" t="s">
         <v>149</v>
       </c>
@@ -11196,7 +11196,7 @@
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B63" s="108"/>
+      <c r="B63" s="107"/>
       <c r="C63" s="96" t="s">
         <v>155</v>
       </c>
@@ -11222,7 +11222,7 @@
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B64" s="107" t="s">
+      <c r="B64" s="106" t="s">
         <v>77</v>
       </c>
       <c r="C64" s="96" t="s">
@@ -11250,7 +11250,7 @@
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B65" s="108"/>
+      <c r="B65" s="107"/>
       <c r="C65" s="96" t="s">
         <v>149</v>
       </c>
@@ -11276,7 +11276,7 @@
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B66" s="108"/>
+      <c r="B66" s="107"/>
       <c r="C66" s="96" t="s">
         <v>155</v>
       </c>
@@ -11302,7 +11302,7 @@
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B67" s="107" t="s">
+      <c r="B67" s="106" t="s">
         <v>75</v>
       </c>
       <c r="C67" s="96" t="s">
@@ -11330,7 +11330,7 @@
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B68" s="108"/>
+      <c r="B68" s="107"/>
       <c r="C68" s="96" t="s">
         <v>149</v>
       </c>
@@ -11356,7 +11356,7 @@
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B69" s="108"/>
+      <c r="B69" s="107"/>
       <c r="C69" s="96" t="s">
         <v>155</v>
       </c>
@@ -11418,9 +11418,9 @@
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A72" s="52" t="s">
-        <v>242</v>
-      </c>
-      <c r="B72" s="107" t="s">
+        <v>243</v>
+      </c>
+      <c r="B72" s="106" t="s">
         <v>104</v>
       </c>
       <c r="C72" s="96" t="s">
@@ -11448,7 +11448,7 @@
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B73" s="108"/>
+      <c r="B73" s="107"/>
       <c r="C73" s="96" t="s">
         <v>149</v>
       </c>
@@ -11474,7 +11474,7 @@
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B74" s="108"/>
+      <c r="B74" s="107"/>
       <c r="C74" s="96" t="s">
         <v>155</v>
       </c>
@@ -11500,7 +11500,7 @@
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B75" s="107" t="s">
+      <c r="B75" s="106" t="s">
         <v>78</v>
       </c>
       <c r="C75" s="96" t="s">
@@ -11528,7 +11528,7 @@
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B76" s="108"/>
+      <c r="B76" s="107"/>
       <c r="C76" s="96" t="s">
         <v>149</v>
       </c>
@@ -11554,7 +11554,7 @@
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B77" s="108"/>
+      <c r="B77" s="107"/>
       <c r="C77" s="96" t="s">
         <v>155</v>
       </c>
@@ -11580,7 +11580,7 @@
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B78" s="107" t="s">
+      <c r="B78" s="106" t="s">
         <v>74</v>
       </c>
       <c r="C78" s="96" t="s">
@@ -11608,7 +11608,7 @@
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B79" s="108"/>
+      <c r="B79" s="107"/>
       <c r="C79" s="96" t="s">
         <v>149</v>
       </c>
@@ -11634,7 +11634,7 @@
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B80" s="108"/>
+      <c r="B80" s="107"/>
       <c r="C80" s="96" t="s">
         <v>155</v>
       </c>
@@ -11660,7 +11660,7 @@
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B81" s="107" t="s">
+      <c r="B81" s="106" t="s">
         <v>77</v>
       </c>
       <c r="C81" s="96" t="s">
@@ -11688,7 +11688,7 @@
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B82" s="108"/>
+      <c r="B82" s="107"/>
       <c r="C82" s="96" t="s">
         <v>149</v>
       </c>
@@ -11714,7 +11714,7 @@
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B83" s="108"/>
+      <c r="B83" s="107"/>
       <c r="C83" s="96" t="s">
         <v>155</v>
       </c>
@@ -11740,7 +11740,7 @@
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B84" s="107" t="s">
+      <c r="B84" s="106" t="s">
         <v>75</v>
       </c>
       <c r="C84" s="96" t="s">
@@ -11768,7 +11768,7 @@
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B85" s="108"/>
+      <c r="B85" s="107"/>
       <c r="C85" s="96" t="s">
         <v>149</v>
       </c>
@@ -11794,7 +11794,7 @@
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B86" s="108"/>
+      <c r="B86" s="107"/>
       <c r="C86" s="96" t="s">
         <v>155</v>
       </c>
@@ -11856,9 +11856,9 @@
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A89" s="54" t="s">
-        <v>239</v>
-      </c>
-      <c r="B89" s="107" t="s">
+        <v>240</v>
+      </c>
+      <c r="B89" s="106" t="s">
         <v>104</v>
       </c>
       <c r="C89" s="96" t="s">
@@ -11886,7 +11886,7 @@
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B90" s="108"/>
+      <c r="B90" s="107"/>
       <c r="C90" s="96" t="s">
         <v>149</v>
       </c>
@@ -11912,7 +11912,7 @@
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B91" s="108"/>
+      <c r="B91" s="107"/>
       <c r="C91" s="96" t="s">
         <v>155</v>
       </c>
@@ -11938,7 +11938,7 @@
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B92" s="107" t="s">
+      <c r="B92" s="106" t="s">
         <v>78</v>
       </c>
       <c r="C92" s="96" t="s">
@@ -11966,7 +11966,7 @@
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B93" s="108"/>
+      <c r="B93" s="107"/>
       <c r="C93" s="96" t="s">
         <v>149</v>
       </c>
@@ -11992,7 +11992,7 @@
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B94" s="108"/>
+      <c r="B94" s="107"/>
       <c r="C94" s="96" t="s">
         <v>155</v>
       </c>
@@ -12018,7 +12018,7 @@
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B95" s="107" t="s">
+      <c r="B95" s="106" t="s">
         <v>74</v>
       </c>
       <c r="C95" s="96" t="s">
@@ -12046,7 +12046,7 @@
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B96" s="108"/>
+      <c r="B96" s="107"/>
       <c r="C96" s="96" t="s">
         <v>149</v>
       </c>
@@ -12072,7 +12072,7 @@
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B97" s="108"/>
+      <c r="B97" s="107"/>
       <c r="C97" s="96" t="s">
         <v>155</v>
       </c>
@@ -12098,7 +12098,7 @@
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B98" s="107" t="s">
+      <c r="B98" s="106" t="s">
         <v>77</v>
       </c>
       <c r="C98" s="96" t="s">
@@ -12126,7 +12126,7 @@
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B99" s="108"/>
+      <c r="B99" s="107"/>
       <c r="C99" s="96" t="s">
         <v>149</v>
       </c>
@@ -12152,7 +12152,7 @@
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B100" s="108"/>
+      <c r="B100" s="107"/>
       <c r="C100" s="96" t="s">
         <v>155</v>
       </c>
@@ -12178,7 +12178,7 @@
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B101" s="107" t="s">
+      <c r="B101" s="106" t="s">
         <v>75</v>
       </c>
       <c r="C101" s="96" t="s">
@@ -12206,7 +12206,7 @@
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B102" s="108"/>
+      <c r="B102" s="107"/>
       <c r="C102" s="96" t="s">
         <v>149</v>
       </c>
@@ -12232,7 +12232,7 @@
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B103" s="108"/>
+      <c r="B103" s="107"/>
       <c r="C103" s="96" t="s">
         <v>155</v>
       </c>
@@ -12287,7 +12287,7 @@
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A106" s="88" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B106" s="88"/>
       <c r="C106" s="88"/>
@@ -12299,7 +12299,7 @@
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A107" s="52" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B107" s="52" t="s">
         <v>156</v>
@@ -12325,9 +12325,9 @@
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A108" s="52" t="s">
-        <v>237</v>
-      </c>
-      <c r="B108" s="107" t="s">
+        <v>238</v>
+      </c>
+      <c r="B108" s="106" t="s">
         <v>104</v>
       </c>
       <c r="C108" s="96" t="s">
@@ -12355,7 +12355,7 @@
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B109" s="108"/>
+      <c r="B109" s="107"/>
       <c r="C109" s="96" t="s">
         <v>149</v>
       </c>
@@ -12381,7 +12381,7 @@
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B110" s="108"/>
+      <c r="B110" s="107"/>
       <c r="C110" s="96" t="s">
         <v>155</v>
       </c>
@@ -12407,7 +12407,7 @@
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B111" s="107" t="s">
+      <c r="B111" s="106" t="s">
         <v>78</v>
       </c>
       <c r="C111" s="96" t="s">
@@ -12435,7 +12435,7 @@
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B112" s="108"/>
+      <c r="B112" s="107"/>
       <c r="C112" s="96" t="s">
         <v>149</v>
       </c>
@@ -12461,7 +12461,7 @@
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B113" s="108"/>
+      <c r="B113" s="107"/>
       <c r="C113" s="96" t="s">
         <v>155</v>
       </c>
@@ -12487,7 +12487,7 @@
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B114" s="107" t="s">
+      <c r="B114" s="106" t="s">
         <v>74</v>
       </c>
       <c r="C114" s="96" t="s">
@@ -12515,7 +12515,7 @@
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B115" s="108"/>
+      <c r="B115" s="107"/>
       <c r="C115" s="96" t="s">
         <v>149</v>
       </c>
@@ -12541,7 +12541,7 @@
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B116" s="108"/>
+      <c r="B116" s="107"/>
       <c r="C116" s="96" t="s">
         <v>155</v>
       </c>
@@ -12567,7 +12567,7 @@
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B117" s="107" t="s">
+      <c r="B117" s="106" t="s">
         <v>77</v>
       </c>
       <c r="C117" s="96" t="s">
@@ -12595,7 +12595,7 @@
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B118" s="108"/>
+      <c r="B118" s="107"/>
       <c r="C118" s="96" t="s">
         <v>149</v>
       </c>
@@ -12621,7 +12621,7 @@
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B119" s="108"/>
+      <c r="B119" s="107"/>
       <c r="C119" s="96" t="s">
         <v>155</v>
       </c>
@@ -12647,7 +12647,7 @@
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B120" s="107" t="s">
+      <c r="B120" s="106" t="s">
         <v>75</v>
       </c>
       <c r="C120" s="96" t="s">
@@ -12675,7 +12675,7 @@
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B121" s="108"/>
+      <c r="B121" s="107"/>
       <c r="C121" s="96" t="s">
         <v>149</v>
       </c>
@@ -12701,7 +12701,7 @@
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B122" s="108"/>
+      <c r="B122" s="107"/>
       <c r="C122" s="96" t="s">
         <v>155</v>
       </c>
@@ -12763,9 +12763,9 @@
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A125" s="52" t="s">
-        <v>243</v>
-      </c>
-      <c r="B125" s="107" t="s">
+        <v>244</v>
+      </c>
+      <c r="B125" s="106" t="s">
         <v>104</v>
       </c>
       <c r="C125" s="96" t="s">
@@ -12793,7 +12793,7 @@
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B126" s="108"/>
+      <c r="B126" s="107"/>
       <c r="C126" s="96" t="s">
         <v>149</v>
       </c>
@@ -12819,7 +12819,7 @@
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B127" s="108"/>
+      <c r="B127" s="107"/>
       <c r="C127" s="96" t="s">
         <v>155</v>
       </c>
@@ -12845,7 +12845,7 @@
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B128" s="107" t="s">
+      <c r="B128" s="106" t="s">
         <v>78</v>
       </c>
       <c r="C128" s="96" t="s">
@@ -12873,7 +12873,7 @@
       </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B129" s="108"/>
+      <c r="B129" s="107"/>
       <c r="C129" s="96" t="s">
         <v>149</v>
       </c>
@@ -12899,7 +12899,7 @@
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B130" s="108"/>
+      <c r="B130" s="107"/>
       <c r="C130" s="96" t="s">
         <v>155</v>
       </c>
@@ -12925,7 +12925,7 @@
       </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B131" s="107" t="s">
+      <c r="B131" s="106" t="s">
         <v>74</v>
       </c>
       <c r="C131" s="96" t="s">
@@ -12953,7 +12953,7 @@
       </c>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B132" s="108"/>
+      <c r="B132" s="107"/>
       <c r="C132" s="96" t="s">
         <v>149</v>
       </c>
@@ -12979,7 +12979,7 @@
       </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B133" s="108"/>
+      <c r="B133" s="107"/>
       <c r="C133" s="96" t="s">
         <v>155</v>
       </c>
@@ -13005,7 +13005,7 @@
       </c>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B134" s="107" t="s">
+      <c r="B134" s="106" t="s">
         <v>77</v>
       </c>
       <c r="C134" s="96" t="s">
@@ -13033,7 +13033,7 @@
       </c>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B135" s="108"/>
+      <c r="B135" s="107"/>
       <c r="C135" s="96" t="s">
         <v>149</v>
       </c>
@@ -13059,7 +13059,7 @@
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B136" s="108"/>
+      <c r="B136" s="107"/>
       <c r="C136" s="96" t="s">
         <v>155</v>
       </c>
@@ -13085,7 +13085,7 @@
       </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B137" s="107" t="s">
+      <c r="B137" s="106" t="s">
         <v>75</v>
       </c>
       <c r="C137" s="96" t="s">
@@ -13113,7 +13113,7 @@
       </c>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B138" s="108"/>
+      <c r="B138" s="107"/>
       <c r="C138" s="96" t="s">
         <v>149</v>
       </c>
@@ -13139,7 +13139,7 @@
       </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B139" s="108"/>
+      <c r="B139" s="107"/>
       <c r="C139" s="96" t="s">
         <v>155</v>
       </c>
@@ -13201,9 +13201,9 @@
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A142" s="54" t="s">
-        <v>240</v>
-      </c>
-      <c r="B142" s="107" t="s">
+        <v>241</v>
+      </c>
+      <c r="B142" s="106" t="s">
         <v>104</v>
       </c>
       <c r="C142" s="96" t="s">
@@ -13231,7 +13231,7 @@
       </c>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B143" s="108"/>
+      <c r="B143" s="107"/>
       <c r="C143" s="96" t="s">
         <v>149</v>
       </c>
@@ -13257,7 +13257,7 @@
       </c>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B144" s="108"/>
+      <c r="B144" s="107"/>
       <c r="C144" s="96" t="s">
         <v>155</v>
       </c>
@@ -13283,7 +13283,7 @@
       </c>
     </row>
     <row r="145" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B145" s="107" t="s">
+      <c r="B145" s="106" t="s">
         <v>78</v>
       </c>
       <c r="C145" s="96" t="s">
@@ -13311,7 +13311,7 @@
       </c>
     </row>
     <row r="146" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B146" s="108"/>
+      <c r="B146" s="107"/>
       <c r="C146" s="96" t="s">
         <v>149</v>
       </c>
@@ -13337,7 +13337,7 @@
       </c>
     </row>
     <row r="147" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B147" s="108"/>
+      <c r="B147" s="107"/>
       <c r="C147" s="96" t="s">
         <v>155</v>
       </c>
@@ -13363,7 +13363,7 @@
       </c>
     </row>
     <row r="148" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B148" s="107" t="s">
+      <c r="B148" s="106" t="s">
         <v>74</v>
       </c>
       <c r="C148" s="96" t="s">
@@ -13391,7 +13391,7 @@
       </c>
     </row>
     <row r="149" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B149" s="108"/>
+      <c r="B149" s="107"/>
       <c r="C149" s="96" t="s">
         <v>149</v>
       </c>
@@ -13417,7 +13417,7 @@
       </c>
     </row>
     <row r="150" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B150" s="108"/>
+      <c r="B150" s="107"/>
       <c r="C150" s="96" t="s">
         <v>155</v>
       </c>
@@ -13443,7 +13443,7 @@
       </c>
     </row>
     <row r="151" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B151" s="107" t="s">
+      <c r="B151" s="106" t="s">
         <v>77</v>
       </c>
       <c r="C151" s="96" t="s">
@@ -13471,7 +13471,7 @@
       </c>
     </row>
     <row r="152" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B152" s="108"/>
+      <c r="B152" s="107"/>
       <c r="C152" s="96" t="s">
         <v>149</v>
       </c>
@@ -13497,7 +13497,7 @@
       </c>
     </row>
     <row r="153" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B153" s="108"/>
+      <c r="B153" s="107"/>
       <c r="C153" s="96" t="s">
         <v>155</v>
       </c>
@@ -13523,7 +13523,7 @@
       </c>
     </row>
     <row r="154" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B154" s="107" t="s">
+      <c r="B154" s="106" t="s">
         <v>75</v>
       </c>
       <c r="C154" s="96" t="s">
@@ -13551,7 +13551,7 @@
       </c>
     </row>
     <row r="155" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B155" s="108"/>
+      <c r="B155" s="107"/>
       <c r="C155" s="96" t="s">
         <v>149</v>
       </c>
@@ -13577,7 +13577,7 @@
       </c>
     </row>
     <row r="156" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B156" s="108"/>
+      <c r="B156" s="107"/>
       <c r="C156" s="96" t="s">
         <v>155</v>
       </c>
@@ -13631,7 +13631,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="/QNJVkUTyF8j7M2jXuJiFjAfr7iEO72Wpsafp8NzpjvCu5mJdVz96jxWKTIlddktvBP2uT5Y0oqBuM4f/0/Tng==" saltValue="+x+qj/RCvsARZyYaz/h3vg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="7JDiJv56lLpuy8fbrxz9fkJYjdIoVEZcObQzxMO4POSwkVKhz3GXx0MyrzXx9JnU0W7q85JyOKdHvBgnvD4ucw==" saltValue="aF506CSTWjUiE110p4x/RA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="45">
     <mergeCell ref="B145:B147"/>
     <mergeCell ref="B148:B150"/>
@@ -13708,7 +13708,7 @@
   <sheetData>
     <row r="1" spans="1:6" s="64" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="55" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -13728,7 +13728,7 @@
     </row>
     <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="52" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B3" s="58"/>
       <c r="C3" s="59"/>
@@ -13812,7 +13812,7 @@
     </row>
     <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="52" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C9" s="84">
         <v>1</v>
@@ -13835,7 +13835,7 @@
     </row>
     <row r="11" spans="1:6" s="64" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="55" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C11" s="62"/>
       <c r="D11" s="63"/>
@@ -13844,7 +13844,7 @@
     </row>
     <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="52" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C12" s="61"/>
       <c r="D12" s="53"/>
@@ -13853,7 +13853,7 @@
     </row>
     <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="65" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C13" s="84">
         <v>1</v>
@@ -13912,7 +13912,7 @@
     </row>
     <row r="17" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="52" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B17" s="58"/>
       <c r="C17" s="67"/>
@@ -14061,7 +14061,7 @@
     </row>
     <row r="27" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="88" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B27" s="89"/>
       <c r="C27" s="90"/>
@@ -14071,7 +14071,7 @@
     </row>
     <row r="28" spans="1:6" s="64" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="55" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -14091,7 +14091,7 @@
     </row>
     <row r="30" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="52" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B30" s="58"/>
       <c r="C30" s="59"/>
@@ -14191,7 +14191,7 @@
     </row>
     <row r="36" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="52" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C36" s="87">
         <f>C9*0.7</f>
@@ -14212,7 +14212,7 @@
     </row>
     <row r="38" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="55" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B38" s="64"/>
       <c r="C38" s="62"/>
@@ -14222,7 +14222,7 @@
     </row>
     <row r="39" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="52" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C39" s="61"/>
       <c r="D39" s="53"/>
@@ -14231,7 +14231,7 @@
     </row>
     <row r="40" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B40" s="65" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C40" s="87">
         <f t="shared" ref="C40:F42" si="1">C13*0.7</f>
@@ -14252,7 +14252,7 @@
     </row>
     <row r="41" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B41" s="65" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C41" s="87">
         <f t="shared" si="1"/>
@@ -14273,7 +14273,7 @@
     </row>
     <row r="42" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B42" s="65" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C42" s="87">
         <f t="shared" si="1"/>
@@ -14302,7 +14302,7 @@
     </row>
     <row r="44" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="52" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B44" s="58"/>
       <c r="C44" s="67"/>
@@ -14480,7 +14480,7 @@
     </row>
     <row r="54" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="88" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B54" s="89"/>
       <c r="C54" s="90"/>
@@ -14490,7 +14490,7 @@
     </row>
     <row r="55" spans="1:6" s="64" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="55" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -14510,7 +14510,7 @@
     </row>
     <row r="57" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="52" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B57" s="58"/>
       <c r="C57" s="59"/>
@@ -14610,7 +14610,7 @@
     </row>
     <row r="63" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="52" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C63" s="87">
         <f>C9*1.3</f>
@@ -14631,7 +14631,7 @@
     </row>
     <row r="65" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="55" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B65" s="64"/>
       <c r="C65" s="62"/>
@@ -14641,7 +14641,7 @@
     </row>
     <row r="66" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="52" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C66" s="61"/>
       <c r="D66" s="53"/>
@@ -14650,7 +14650,7 @@
     </row>
     <row r="67" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B67" s="65" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C67" s="87">
         <f t="shared" ref="C67:F69" si="4">C13*1.3</f>
@@ -14671,7 +14671,7 @@
     </row>
     <row r="68" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B68" s="65" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C68" s="87">
         <f t="shared" si="4"/>
@@ -14692,7 +14692,7 @@
     </row>
     <row r="69" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B69" s="65" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C69" s="87">
         <f t="shared" si="4"/>
@@ -14721,7 +14721,7 @@
     </row>
     <row r="71" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="52" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B71" s="58"/>
       <c r="C71" s="67"/>
@@ -14898,7 +14898,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="XnrIXrd5Pz/FgKW8p7JE3gS0EpB9sk8HIb9gZbd5sJPDVvLRG4D1/RE4AKn5QRooi6G23CiTyD4Tm9jRaOQo/g==" saltValue="mSiNvVOknnF8G6vc1AH5nw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="KkcrIHb2cfqyq37F9m9FFa1dtYNJ1zk3QmB63c1TGt6KaXzTZr/4ql5G+cgJwZjytVIJ43jCSDO9hEW9ZwsUWQ==" saltValue="Nm4sVHonV12xuiLHsrdxAw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -14929,18 +14929,18 @@
   <sheetData>
     <row r="1" spans="1:16" s="64" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="55" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="72" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B2" s="70" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C2" s="70" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D2" s="57" t="s">
         <v>78</v>
@@ -15000,7 +15000,7 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C4" s="78" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D4" s="85">
         <v>1</v>
@@ -15028,7 +15028,7 @@
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C5" s="78" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D5" s="85">
         <v>1</v>
@@ -15056,7 +15056,7 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C6" s="78" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D6" s="85">
         <v>1</v>
@@ -15115,7 +15115,7 @@
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="78" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D8" s="85">
         <v>1</v>
@@ -15143,7 +15143,7 @@
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="78" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D9" s="85">
         <v>1</v>
@@ -15171,7 +15171,7 @@
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="78" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D10" s="85">
         <v>1</v>
@@ -15230,7 +15230,7 @@
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="78" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D12" s="85">
         <v>1</v>
@@ -15258,7 +15258,7 @@
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="78" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D13" s="85">
         <v>1</v>
@@ -15286,7 +15286,7 @@
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="78" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D14" s="85">
         <v>1</v>
@@ -15345,7 +15345,7 @@
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C16" s="78" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D16" s="85">
         <v>1</v>
@@ -15373,7 +15373,7 @@
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C17" s="78" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D17" s="85">
         <v>1</v>
@@ -15401,7 +15401,7 @@
     </row>
     <row r="18" spans="1:16" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C18" s="78" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D18" s="85">
         <v>1</v>
@@ -15460,7 +15460,7 @@
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C20" s="78" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D20" s="85">
         <v>1</v>
@@ -15488,7 +15488,7 @@
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C21" s="78" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D21" s="85">
         <v>1</v>
@@ -15516,7 +15516,7 @@
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C22" s="78" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D22" s="85">
         <v>1</v>
@@ -15575,7 +15575,7 @@
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C24" s="78" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D24" s="85">
         <v>1</v>
@@ -15603,7 +15603,7 @@
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C25" s="78" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D25" s="85">
         <v>1</v>
@@ -15631,7 +15631,7 @@
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C26" s="78" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D26" s="85">
         <v>1</v>
@@ -15659,18 +15659,18 @@
     </row>
     <row r="28" spans="1:16" s="64" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="55" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A29" s="72" t="s">
+        <v>282</v>
+      </c>
+      <c r="B29" s="52" t="s">
+        <v>270</v>
+      </c>
+      <c r="C29" s="52" t="s">
         <v>281</v>
-      </c>
-      <c r="B29" s="52" t="s">
-        <v>269</v>
-      </c>
-      <c r="C29" s="52" t="s">
-        <v>280</v>
       </c>
       <c r="D29" s="57" t="s">
         <v>78</v>
@@ -15730,7 +15730,7 @@
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C31" s="78" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D31" s="85">
         <v>1</v>
@@ -15845,7 +15845,7 @@
     </row>
     <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="78" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D35" s="85">
         <v>1</v>
@@ -15960,7 +15960,7 @@
     </row>
     <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="78" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D39" s="85">
         <v>1</v>
@@ -16075,7 +16075,7 @@
     </row>
     <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="78" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D43" s="85">
         <v>1</v>
@@ -16190,7 +16190,7 @@
     </row>
     <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="78" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D47" s="85">
         <v>1</v>
@@ -16305,7 +16305,7 @@
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C51" s="78" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D51" s="85">
         <v>1</v>
@@ -16393,7 +16393,7 @@
     </row>
     <row r="55" spans="1:16" s="64" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A55" s="55" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="56" spans="1:16" ht="26.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -16401,10 +16401,10 @@
         <v>105</v>
       </c>
       <c r="B56" s="52" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C56" s="74" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D56" s="57" t="s">
         <v>113</v>
@@ -16430,7 +16430,7 @@
         <v>81</v>
       </c>
       <c r="C57" s="78" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D57" s="84">
         <v>1</v>
@@ -16452,7 +16452,7 @@
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C58" s="78" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D58" s="85">
         <v>10.675000000000001</v>
@@ -16477,7 +16477,7 @@
         <v>89</v>
       </c>
       <c r="C59" s="78" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D59" s="84">
         <v>1</v>
@@ -16499,7 +16499,7 @@
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C60" s="78" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D60" s="85">
         <v>10.675000000000001</v>
@@ -16524,7 +16524,7 @@
         <v>103</v>
       </c>
       <c r="C61" s="78" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D61" s="84">
         <v>1</v>
@@ -16546,7 +16546,7 @@
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C62" s="78" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D62" s="85">
         <v>10.675000000000001</v>
@@ -16572,7 +16572,7 @@
     </row>
     <row r="64" spans="1:16" s="64" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A64" s="55" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="65" spans="1:16" ht="26.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -16580,10 +16580,10 @@
         <v>123</v>
       </c>
       <c r="B65" s="52" t="s">
+        <v>270</v>
+      </c>
+      <c r="C65" s="74" t="s">
         <v>269</v>
-      </c>
-      <c r="C65" s="74" t="s">
-        <v>268</v>
       </c>
       <c r="D65" s="57" t="s">
         <v>78</v>
@@ -17647,7 +17647,7 @@
     </row>
     <row r="103" spans="1:16" s="64" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A103" s="55" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="104" spans="1:16" ht="26.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -17658,7 +17658,7 @@
         <v>125</v>
       </c>
       <c r="C104" s="74" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D104" s="57" t="s">
         <v>78</v>
@@ -17799,13 +17799,13 @@
     </row>
     <row r="110" spans="1:16" s="89" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A110" s="88" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="H110" s="88"/>
     </row>
     <row r="111" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A111" s="55" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B111" s="64"/>
       <c r="C111" s="64"/>
@@ -17817,13 +17817,13 @@
     </row>
     <row r="112" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A112" s="72" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B112" s="70" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C112" s="70" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D112" s="57" t="s">
         <v>78</v>
@@ -17872,7 +17872,7 @@
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C114" s="78" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D114" s="87">
         <f t="shared" si="0"/>
@@ -17897,7 +17897,7 @@
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C115" s="78" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D115" s="87">
         <f t="shared" si="0"/>
@@ -17922,7 +17922,7 @@
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C116" s="78" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D116" s="87">
         <f t="shared" si="0"/>
@@ -17975,7 +17975,7 @@
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C118" s="78" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D118" s="87">
         <f t="shared" si="0"/>
@@ -18000,7 +18000,7 @@
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C119" s="78" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D119" s="87">
         <f t="shared" si="0"/>
@@ -18025,7 +18025,7 @@
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C120" s="78" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D120" s="87">
         <f t="shared" si="0"/>
@@ -18078,7 +18078,7 @@
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C122" s="78" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D122" s="87">
         <f t="shared" si="0"/>
@@ -18103,7 +18103,7 @@
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C123" s="78" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D123" s="87">
         <f t="shared" ref="D123:H132" si="1">D13*0.8</f>
@@ -18128,7 +18128,7 @@
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C124" s="78" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D124" s="87">
         <f t="shared" si="1"/>
@@ -18181,7 +18181,7 @@
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C126" s="78" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D126" s="87">
         <f t="shared" si="1"/>
@@ -18206,7 +18206,7 @@
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C127" s="78" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D127" s="87">
         <f t="shared" si="1"/>
@@ -18231,7 +18231,7 @@
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C128" s="78" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D128" s="87">
         <f t="shared" si="1"/>
@@ -18284,7 +18284,7 @@
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C130" s="78" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D130" s="87">
         <f t="shared" si="1"/>
@@ -18309,7 +18309,7 @@
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C131" s="78" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D131" s="87">
         <f t="shared" si="1"/>
@@ -18334,7 +18334,7 @@
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C132" s="78" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D132" s="87">
         <f t="shared" si="1"/>
@@ -18387,7 +18387,7 @@
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C134" s="78" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D134" s="87">
         <f t="shared" si="2"/>
@@ -18412,7 +18412,7 @@
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C135" s="78" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D135" s="87">
         <f t="shared" si="2"/>
@@ -18437,7 +18437,7 @@
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C136" s="78" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D136" s="87">
         <f t="shared" si="2"/>
@@ -18462,7 +18462,7 @@
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A138" s="55" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B138" s="64"/>
       <c r="C138" s="64"/>
@@ -18474,13 +18474,13 @@
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A139" s="72" t="s">
+        <v>282</v>
+      </c>
+      <c r="B139" s="52" t="s">
+        <v>270</v>
+      </c>
+      <c r="C139" s="52" t="s">
         <v>281</v>
-      </c>
-      <c r="B139" s="52" t="s">
-        <v>269</v>
-      </c>
-      <c r="C139" s="52" t="s">
-        <v>280</v>
       </c>
       <c r="D139" s="57" t="s">
         <v>78</v>
@@ -18529,7 +18529,7 @@
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C141" s="78" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D141" s="87">
         <f t="shared" si="3"/>
@@ -18632,7 +18632,7 @@
     </row>
     <row r="145" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C145" s="78" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D145" s="87">
         <f t="shared" si="3"/>
@@ -18735,7 +18735,7 @@
     </row>
     <row r="149" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C149" s="78" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D149" s="87">
         <f t="shared" si="3"/>
@@ -18838,7 +18838,7 @@
     </row>
     <row r="153" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C153" s="78" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D153" s="87">
         <f t="shared" si="4"/>
@@ -18941,7 +18941,7 @@
     </row>
     <row r="157" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C157" s="78" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D157" s="87">
         <f t="shared" si="4"/>
@@ -19044,7 +19044,7 @@
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C161" s="78" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D161" s="87">
         <f t="shared" si="5"/>
@@ -19123,7 +19123,7 @@
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A165" s="55" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B165" s="64"/>
       <c r="C165" s="64"/>
@@ -19138,10 +19138,10 @@
         <v>105</v>
       </c>
       <c r="B166" s="52" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C166" s="74" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D166" s="57" t="s">
         <v>113</v>
@@ -19163,7 +19163,7 @@
         <v>81</v>
       </c>
       <c r="C167" s="78" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D167" s="87">
         <f t="shared" ref="D167:G172" si="6">D57*0.7</f>
@@ -19185,7 +19185,7 @@
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C168" s="78" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D168" s="87">
         <f t="shared" si="6"/>
@@ -19210,7 +19210,7 @@
         <v>89</v>
       </c>
       <c r="C169" s="78" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D169" s="87">
         <f t="shared" si="6"/>
@@ -19232,7 +19232,7 @@
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C170" s="78" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D170" s="87">
         <f t="shared" si="6"/>
@@ -19257,7 +19257,7 @@
         <v>103</v>
       </c>
       <c r="C171" s="78" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D171" s="87">
         <f t="shared" si="6"/>
@@ -19279,7 +19279,7 @@
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C172" s="78" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D172" s="87">
         <f t="shared" si="6"/>
@@ -19305,7 +19305,7 @@
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A174" s="55" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B174" s="64"/>
       <c r="C174" s="64"/>
@@ -19320,10 +19320,10 @@
         <v>123</v>
       </c>
       <c r="B175" s="52" t="s">
+        <v>270</v>
+      </c>
+      <c r="C175" s="74" t="s">
         <v>269</v>
-      </c>
-      <c r="C175" s="74" t="s">
-        <v>268</v>
       </c>
       <c r="D175" s="57" t="s">
         <v>78</v>
@@ -20235,7 +20235,7 @@
     </row>
     <row r="213" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A213" s="55" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B213" s="64"/>
       <c r="C213" s="64"/>
@@ -20253,7 +20253,7 @@
         <v>125</v>
       </c>
       <c r="C214" s="74" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D214" s="57" t="s">
         <v>78</v>
@@ -20370,13 +20370,13 @@
     </row>
     <row r="220" spans="1:9" s="89" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A220" s="88" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="H220" s="88"/>
     </row>
     <row r="221" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A221" s="55" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B221" s="64"/>
       <c r="C221" s="64"/>
@@ -20389,13 +20389,13 @@
     </row>
     <row r="222" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A222" s="72" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B222" s="70" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C222" s="70" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D222" s="57" t="s">
         <v>78</v>
@@ -20446,7 +20446,7 @@
     </row>
     <row r="224" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C224" s="78" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D224" s="87">
         <f t="shared" si="10"/>
@@ -20472,7 +20472,7 @@
     </row>
     <row r="225" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C225" s="78" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D225" s="87">
         <f t="shared" si="10"/>
@@ -20498,7 +20498,7 @@
     </row>
     <row r="226" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C226" s="78" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D226" s="87">
         <f t="shared" si="10"/>
@@ -20553,7 +20553,7 @@
     </row>
     <row r="228" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C228" s="78" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D228" s="87">
         <f t="shared" si="10"/>
@@ -20579,7 +20579,7 @@
     </row>
     <row r="229" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C229" s="78" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D229" s="87">
         <f t="shared" si="10"/>
@@ -20605,7 +20605,7 @@
     </row>
     <row r="230" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C230" s="78" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D230" s="87">
         <f t="shared" si="10"/>
@@ -20660,7 +20660,7 @@
     </row>
     <row r="232" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C232" s="78" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D232" s="87">
         <f t="shared" si="10"/>
@@ -20686,7 +20686,7 @@
     </row>
     <row r="233" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C233" s="78" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D233" s="87">
         <f t="shared" ref="D233:H242" si="11">D13*1.2</f>
@@ -20712,7 +20712,7 @@
     </row>
     <row r="234" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C234" s="78" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D234" s="87">
         <f t="shared" si="11"/>
@@ -20767,7 +20767,7 @@
     </row>
     <row r="236" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C236" s="78" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D236" s="87">
         <f t="shared" si="11"/>
@@ -20793,7 +20793,7 @@
     </row>
     <row r="237" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C237" s="78" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D237" s="87">
         <f t="shared" si="11"/>
@@ -20819,7 +20819,7 @@
     </row>
     <row r="238" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C238" s="78" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D238" s="87">
         <f t="shared" si="11"/>
@@ -20874,7 +20874,7 @@
     </row>
     <row r="240" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C240" s="78" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D240" s="87">
         <f t="shared" si="11"/>
@@ -20900,7 +20900,7 @@
     </row>
     <row r="241" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C241" s="78" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D241" s="87">
         <f t="shared" si="11"/>
@@ -20926,7 +20926,7 @@
     </row>
     <row r="242" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C242" s="78" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D242" s="87">
         <f t="shared" si="11"/>
@@ -20981,7 +20981,7 @@
     </row>
     <row r="244" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C244" s="78" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D244" s="87">
         <f t="shared" si="12"/>
@@ -21007,7 +21007,7 @@
     </row>
     <row r="245" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C245" s="78" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D245" s="87">
         <f t="shared" si="12"/>
@@ -21033,7 +21033,7 @@
     </row>
     <row r="246" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C246" s="78" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D246" s="87">
         <f t="shared" si="12"/>
@@ -21059,7 +21059,7 @@
     </row>
     <row r="248" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A248" s="55" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B248" s="64"/>
       <c r="C248" s="64"/>
@@ -21072,13 +21072,13 @@
     </row>
     <row r="249" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A249" s="72" t="s">
+        <v>282</v>
+      </c>
+      <c r="B249" s="52" t="s">
+        <v>270</v>
+      </c>
+      <c r="C249" s="52" t="s">
         <v>281</v>
-      </c>
-      <c r="B249" s="52" t="s">
-        <v>269</v>
-      </c>
-      <c r="C249" s="52" t="s">
-        <v>280</v>
       </c>
       <c r="D249" s="57" t="s">
         <v>78</v>
@@ -21129,7 +21129,7 @@
     </row>
     <row r="251" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C251" s="78" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D251" s="87">
         <f t="shared" si="13"/>
@@ -21236,7 +21236,7 @@
     </row>
     <row r="255" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C255" s="78" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D255" s="87">
         <f t="shared" si="13"/>
@@ -21343,7 +21343,7 @@
     </row>
     <row r="259" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C259" s="78" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D259" s="87">
         <f t="shared" si="13"/>
@@ -21450,7 +21450,7 @@
     </row>
     <row r="263" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C263" s="78" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D263" s="87">
         <f t="shared" si="14"/>
@@ -21557,7 +21557,7 @@
     </row>
     <row r="267" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C267" s="78" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D267" s="87">
         <f t="shared" si="14"/>
@@ -21664,7 +21664,7 @@
     </row>
     <row r="271" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C271" s="78" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D271" s="87">
         <f t="shared" si="15"/>
@@ -21746,7 +21746,7 @@
     </row>
     <row r="275" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A275" s="55" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B275" s="64"/>
       <c r="C275" s="64"/>
@@ -21762,10 +21762,10 @@
         <v>105</v>
       </c>
       <c r="B276" s="52" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C276" s="74" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D276" s="57" t="s">
         <v>113</v>
@@ -21787,7 +21787,7 @@
         <v>81</v>
       </c>
       <c r="C277" s="78" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D277" s="87">
         <f t="shared" ref="D277:G282" si="16">D57*1.2</f>
@@ -21809,7 +21809,7 @@
     </row>
     <row r="278" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C278" s="78" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D278" s="87">
         <f t="shared" si="16"/>
@@ -21834,7 +21834,7 @@
         <v>89</v>
       </c>
       <c r="C279" s="78" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D279" s="87">
         <f t="shared" si="16"/>
@@ -21856,7 +21856,7 @@
     </row>
     <row r="280" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C280" s="78" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D280" s="87">
         <f t="shared" si="16"/>
@@ -21881,7 +21881,7 @@
         <v>103</v>
       </c>
       <c r="C281" s="78" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D281" s="87">
         <f t="shared" si="16"/>
@@ -21903,7 +21903,7 @@
     </row>
     <row r="282" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C282" s="78" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D282" s="87">
         <f t="shared" si="16"/>
@@ -21929,7 +21929,7 @@
     </row>
     <row r="284" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A284" s="55" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B284" s="64"/>
       <c r="C284" s="64"/>
@@ -21945,10 +21945,10 @@
         <v>123</v>
       </c>
       <c r="B285" s="52" t="s">
+        <v>270</v>
+      </c>
+      <c r="C285" s="74" t="s">
         <v>269</v>
-      </c>
-      <c r="C285" s="74" t="s">
-        <v>268</v>
       </c>
       <c r="D285" s="57" t="s">
         <v>78</v>
@@ -22897,7 +22897,7 @@
     </row>
     <row r="323" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A323" s="55" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B323" s="64"/>
       <c r="C323" s="64"/>
@@ -22916,7 +22916,7 @@
         <v>125</v>
       </c>
       <c r="C324" s="74" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D324" s="57" t="s">
         <v>78</v>
@@ -23037,7 +23037,7 @@
       <c r="I328" s="72"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="4qV6LkvCkgi0IJKUm2TrcpBaH7/1DrdC7nQw5iuT6/VnUaDSJIxfgYTNa3sD1p6XMrTgK34leZhZiZnsTq2gmg==" saltValue="RW6Qgy4NFOWtPDaVD5KkFA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="bKWwMbzZ5xkgRJe/u8cGXz5n3b502wj6du9MGrKHu3p3VkfwP+HvvgfShthOmqJCQq58xHq/Dtnlrgw+XXldng==" saltValue="uxnhcTJeFqqFakQLuflkdw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -23069,7 +23069,7 @@
   <sheetData>
     <row r="1" spans="1:7" s="64" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="55" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -23095,7 +23095,7 @@
     </row>
     <row r="3" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="65" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C3" s="85" t="s">
         <v>8</v>
@@ -23116,7 +23116,7 @@
     <row r="4" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="52"/>
       <c r="B4" s="69" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C4" s="85">
         <v>1.0249999999999999</v>
@@ -23136,7 +23136,7 @@
     </row>
     <row r="5" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="58" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -23229,7 +23229,7 @@
     </row>
     <row r="11" spans="1:7" s="64" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="55" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -23259,15 +23259,15 @@
     </row>
     <row r="14" spans="1:7" s="64" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="55" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="76" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B15" s="69" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C15" s="85">
         <v>1.0249999999999999</v>
@@ -23288,7 +23288,7 @@
     <row r="16" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="52"/>
       <c r="B16" s="69" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C16" s="85">
         <v>1.0249999999999999</v>
@@ -23311,7 +23311,7 @@
         <v>105</v>
       </c>
       <c r="B17" s="65" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C17" s="85">
         <v>1</v>
@@ -23332,21 +23332,21 @@
     <row r="18" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="19" spans="1:7" s="64" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="55" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="20" spans="1:7" s="58" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C20" s="52" t="s">
+        <v>68</v>
+      </c>
+      <c r="D20" s="52" t="s">
         <v>69</v>
       </c>
-      <c r="D20" s="52" t="s">
+      <c r="E20" s="52" t="s">
         <v>70</v>
       </c>
-      <c r="E20" s="52" t="s">
+      <c r="F20" s="52" t="s">
         <v>71</v>
-      </c>
-      <c r="F20" s="52" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
@@ -23368,12 +23368,12 @@
     </row>
     <row r="23" spans="1:7" s="88" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="88" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="55" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B24" s="64"/>
       <c r="C24" s="64"/>
@@ -23405,7 +23405,7 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B26" s="65" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C26" s="85" t="s">
         <v>8</v>
@@ -23430,7 +23430,7 @@
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="52"/>
       <c r="B27" s="69" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C27" s="85">
         <f>C4*0.9</f>
@@ -23455,12 +23455,12 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="58" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B29" s="69" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C29" s="85">
         <f t="shared" ref="C29:G32" si="1">C6*0.9</f>
@@ -23485,7 +23485,7 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B30" s="69" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C30" s="85">
         <f t="shared" si="1"/>
@@ -23510,7 +23510,7 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B31" s="69" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C31" s="85">
         <f t="shared" si="1"/>
@@ -23535,7 +23535,7 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B32" s="69" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C32" s="85">
         <f t="shared" si="1"/>
@@ -23568,7 +23568,7 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="55" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B34" s="64"/>
       <c r="C34" s="64"/>
@@ -23580,7 +23580,7 @@
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="58"/>
       <c r="B35" s="65" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C35" s="85">
         <f>C12*0.9</f>
@@ -23606,7 +23606,7 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="55" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B37" s="64"/>
       <c r="C37" s="64"/>
@@ -23617,10 +23617,10 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="76" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B38" s="69" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C38" s="85">
         <f t="shared" ref="C38:G40" si="2">C15*0.9</f>
@@ -23646,7 +23646,7 @@
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="52"/>
       <c r="B39" s="69" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C39" s="85">
         <f t="shared" si="2"/>
@@ -23674,7 +23674,7 @@
         <v>105</v>
       </c>
       <c r="B40" s="65" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C40" s="85">
         <f t="shared" si="2"/>
@@ -23699,7 +23699,7 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" s="55" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B42" s="64"/>
       <c r="C42" s="64"/>
@@ -23712,22 +23712,22 @@
       <c r="A43" s="58"/>
       <c r="B43" s="58"/>
       <c r="C43" s="52" t="s">
+        <v>68</v>
+      </c>
+      <c r="D43" s="52" t="s">
         <v>69</v>
       </c>
-      <c r="D43" s="52" t="s">
+      <c r="E43" s="52" t="s">
         <v>70</v>
       </c>
-      <c r="E43" s="52" t="s">
+      <c r="F43" s="52" t="s">
         <v>71</v>
-      </c>
-      <c r="F43" s="52" t="s">
-        <v>72</v>
       </c>
       <c r="G43" s="58"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B44" s="65" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C44" s="85">
         <f>C21*0.9</f>
@@ -23748,12 +23748,12 @@
     </row>
     <row r="46" spans="1:7" s="88" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A46" s="88" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" s="55" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B47" s="64"/>
       <c r="C47" s="64"/>
@@ -23785,7 +23785,7 @@
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B49" s="65" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C49" s="85" t="s">
         <v>8</v>
@@ -23810,7 +23810,7 @@
     <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" s="52"/>
       <c r="B50" s="69" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C50" s="85">
         <f>C4*1.05</f>
@@ -23835,12 +23835,12 @@
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" s="58" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B52" s="69" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C52" s="85">
         <f t="shared" ref="C52:G55" si="4">C6*1.05</f>
@@ -23865,7 +23865,7 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B53" s="69" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C53" s="85">
         <f t="shared" si="4"/>
@@ -23890,7 +23890,7 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B54" s="69" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C54" s="85">
         <f t="shared" si="4"/>
@@ -23915,7 +23915,7 @@
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B55" s="69" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C55" s="85">
         <f t="shared" si="4"/>
@@ -23948,7 +23948,7 @@
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" s="55" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B57" s="64"/>
       <c r="C57" s="64"/>
@@ -23960,7 +23960,7 @@
     <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" s="58"/>
       <c r="B58" s="65" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C58" s="85">
         <f>C12*1.1</f>
@@ -23986,7 +23986,7 @@
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" s="55" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B60" s="64"/>
       <c r="C60" s="64"/>
@@ -23997,10 +23997,10 @@
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" s="76" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B61" s="69" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C61" s="85">
         <f t="shared" ref="C61:G63" si="5">C15*1.05</f>
@@ -24026,7 +24026,7 @@
     <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" s="52"/>
       <c r="B62" s="69" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C62" s="85">
         <f t="shared" si="5"/>
@@ -24054,7 +24054,7 @@
         <v>105</v>
       </c>
       <c r="B63" s="65" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C63" s="85">
         <f t="shared" si="5"/>
@@ -24079,7 +24079,7 @@
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65" s="55" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B65" s="64"/>
       <c r="C65" s="64"/>
@@ -24092,22 +24092,22 @@
       <c r="A66" s="58"/>
       <c r="B66" s="58"/>
       <c r="C66" s="52" t="s">
+        <v>68</v>
+      </c>
+      <c r="D66" s="52" t="s">
         <v>69</v>
       </c>
-      <c r="D66" s="52" t="s">
+      <c r="E66" s="52" t="s">
         <v>70</v>
       </c>
-      <c r="E66" s="52" t="s">
+      <c r="F66" s="52" t="s">
         <v>71</v>
-      </c>
-      <c r="F66" s="52" t="s">
-        <v>72</v>
       </c>
       <c r="G66" s="58"/>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B67" s="65" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C67" s="85">
         <f>C21*1.05</f>
@@ -24127,7 +24127,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="ekc5PhtIcIZbfdmZRWD2olNdX79X0ScnU+D+sDDdff5khFvQ5kXf048kwECbJsc8kGY6r9NKbdpgAW3EA0CR+w==" saltValue="phDvWftklaeSYhP0hk2+Kg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="7JjtPmMI1QZgStYlByhIeJ5pcdIgBP4TEVRHkUyghR7T55Ja1L6UjWzwDX7VXcFyWgHWP0HhxnAru1KHbfvcOg==" saltValue="rw1iTpFjpX02DGBepdA7Gw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
@@ -24177,7 +24177,7 @@
         <v>165</v>
       </c>
       <c r="B2" s="69" t="s">
-        <v>215</v>
+        <v>322</v>
       </c>
       <c r="C2" s="85">
         <v>0.21</v>
@@ -24195,7 +24195,7 @@
     <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="69"/>
       <c r="B3" s="69" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C3" s="85">
         <v>1</v>
@@ -24215,7 +24215,7 @@
         <v>178</v>
       </c>
       <c r="B4" s="69" t="s">
-        <v>215</v>
+        <v>322</v>
       </c>
       <c r="C4" s="85">
         <v>0.15</v>
@@ -24233,7 +24233,7 @@
     <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="69"/>
       <c r="B5" s="69" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C5" s="85">
         <v>1</v>
@@ -24253,7 +24253,7 @@
         <v>179</v>
       </c>
       <c r="B6" s="69" t="s">
-        <v>215</v>
+        <v>322</v>
       </c>
       <c r="C6" s="85">
         <v>0.15</v>
@@ -24271,7 +24271,7 @@
     <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="69"/>
       <c r="B7" s="69" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C7" s="85">
         <v>1</v>
@@ -24291,7 +24291,7 @@
         <v>180</v>
       </c>
       <c r="B8" s="69" t="s">
-        <v>215</v>
+        <v>322</v>
       </c>
       <c r="C8" s="85">
         <v>0.35</v>
@@ -24309,7 +24309,7 @@
     <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="69"/>
       <c r="B9" s="69" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C9" s="85">
         <v>1</v>
@@ -24329,7 +24329,7 @@
         <v>185</v>
       </c>
       <c r="B10" s="69" t="s">
-        <v>215</v>
+        <v>322</v>
       </c>
       <c r="C10" s="85">
         <v>0.35</v>
@@ -24347,7 +24347,7 @@
     <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="69"/>
       <c r="B11" s="69" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C11" s="85">
         <v>1</v>
@@ -24367,7 +24367,7 @@
         <v>191</v>
       </c>
       <c r="B12" s="69" t="s">
-        <v>215</v>
+        <v>322</v>
       </c>
       <c r="C12" s="85">
         <v>0.23</v>
@@ -24385,7 +24385,7 @@
     <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="69"/>
       <c r="B13" s="69" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C13" s="85">
         <v>1</v>
@@ -24402,7 +24402,7 @@
     </row>
     <row r="15" spans="1:6" s="88" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="88" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -24428,7 +24428,7 @@
         <v>165</v>
       </c>
       <c r="B17" s="69" t="s">
-        <v>215</v>
+        <v>322</v>
       </c>
       <c r="C17" s="85">
         <f t="shared" ref="C17:F28" si="0">C2*0.9</f>
@@ -24450,7 +24450,7 @@
     <row r="18" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="69"/>
       <c r="B18" s="69" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C18" s="85">
         <f t="shared" si="0"/>
@@ -24474,7 +24474,7 @@
         <v>178</v>
       </c>
       <c r="B19" s="69" t="s">
-        <v>215</v>
+        <v>322</v>
       </c>
       <c r="C19" s="85">
         <f t="shared" si="0"/>
@@ -24496,7 +24496,7 @@
     <row r="20" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="69"/>
       <c r="B20" s="69" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C20" s="85">
         <f t="shared" si="0"/>
@@ -24520,7 +24520,7 @@
         <v>179</v>
       </c>
       <c r="B21" s="69" t="s">
-        <v>215</v>
+        <v>322</v>
       </c>
       <c r="C21" s="85">
         <f t="shared" si="0"/>
@@ -24542,7 +24542,7 @@
     <row r="22" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="69"/>
       <c r="B22" s="69" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C22" s="85">
         <f t="shared" si="0"/>
@@ -24566,7 +24566,7 @@
         <v>180</v>
       </c>
       <c r="B23" s="69" t="s">
-        <v>215</v>
+        <v>322</v>
       </c>
       <c r="C23" s="85">
         <f t="shared" si="0"/>
@@ -24588,7 +24588,7 @@
     <row r="24" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="69"/>
       <c r="B24" s="69" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C24" s="85">
         <f t="shared" si="0"/>
@@ -24612,7 +24612,7 @@
         <v>185</v>
       </c>
       <c r="B25" s="69" t="s">
-        <v>215</v>
+        <v>322</v>
       </c>
       <c r="C25" s="85">
         <f t="shared" si="0"/>
@@ -24634,7 +24634,7 @@
     <row r="26" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="69"/>
       <c r="B26" s="69" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C26" s="85">
         <f t="shared" si="0"/>
@@ -24658,7 +24658,7 @@
         <v>191</v>
       </c>
       <c r="B27" s="69" t="s">
-        <v>215</v>
+        <v>322</v>
       </c>
       <c r="C27" s="85">
         <f t="shared" si="0"/>
@@ -24680,7 +24680,7 @@
     <row r="28" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="69"/>
       <c r="B28" s="69" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C28" s="85">
         <f t="shared" si="0"/>
@@ -24701,7 +24701,7 @@
     </row>
     <row r="30" spans="1:6" s="88" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="88" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -24727,7 +24727,7 @@
         <v>165</v>
       </c>
       <c r="B32" s="69" t="s">
-        <v>215</v>
+        <v>322</v>
       </c>
       <c r="C32" s="85">
         <f t="shared" ref="C32:F43" si="1">C2*1.05</f>
@@ -24749,7 +24749,7 @@
     <row r="33" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="69"/>
       <c r="B33" s="69" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C33" s="85">
         <f t="shared" si="1"/>
@@ -24773,7 +24773,7 @@
         <v>178</v>
       </c>
       <c r="B34" s="69" t="s">
-        <v>215</v>
+        <v>322</v>
       </c>
       <c r="C34" s="85">
         <f t="shared" si="1"/>
@@ -24795,7 +24795,7 @@
     <row r="35" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="69"/>
       <c r="B35" s="69" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C35" s="85">
         <f t="shared" si="1"/>
@@ -24819,7 +24819,7 @@
         <v>179</v>
       </c>
       <c r="B36" s="69" t="s">
-        <v>215</v>
+        <v>322</v>
       </c>
       <c r="C36" s="85">
         <f t="shared" si="1"/>
@@ -24841,7 +24841,7 @@
     <row r="37" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="69"/>
       <c r="B37" s="69" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C37" s="85">
         <f t="shared" si="1"/>
@@ -24865,7 +24865,7 @@
         <v>180</v>
       </c>
       <c r="B38" s="69" t="s">
-        <v>215</v>
+        <v>322</v>
       </c>
       <c r="C38" s="85">
         <f t="shared" si="1"/>
@@ -24887,7 +24887,7 @@
     <row r="39" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="69"/>
       <c r="B39" s="69" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C39" s="85">
         <f t="shared" si="1"/>
@@ -24911,7 +24911,7 @@
         <v>185</v>
       </c>
       <c r="B40" s="69" t="s">
-        <v>215</v>
+        <v>322</v>
       </c>
       <c r="C40" s="85">
         <f t="shared" si="1"/>
@@ -24933,7 +24933,7 @@
     <row r="41" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="69"/>
       <c r="B41" s="69" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C41" s="85">
         <f t="shared" si="1"/>
@@ -24957,7 +24957,7 @@
         <v>191</v>
       </c>
       <c r="B42" s="69" t="s">
-        <v>215</v>
+        <v>322</v>
       </c>
       <c r="C42" s="85">
         <f t="shared" si="1"/>
@@ -24979,7 +24979,7 @@
     <row r="43" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="69"/>
       <c r="B43" s="69" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C43" s="85">
         <f t="shared" si="1"/>
@@ -24999,7 +24999,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="+nq/gAsAwRvn2DJ5nSwIgMyyDEVT4cJuhCPTCiJUpbTCQBg7IGhUh8yWworVDgtJWkVCYc0dvHVCKvVf9FFUYw==" saltValue="vzvIE7MZJSiPw+UbgFlcNw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="Nrl3lh1dxNoIg7p0XYbU2M+9jyBjRWHrk2L0AMcZStlANJrh/rcU5r4RBtGzZm8ntbHund19APWRKPL+1emoTA==" saltValue="fC3fKhrzjDtRqlbZin2sNw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -25044,16 +25044,16 @@
         <v>76</v>
       </c>
       <c r="H1" s="57" t="s">
+        <v>68</v>
+      </c>
+      <c r="I1" s="57" t="s">
         <v>69</v>
       </c>
-      <c r="I1" s="57" t="s">
+      <c r="J1" s="57" t="s">
         <v>70</v>
       </c>
-      <c r="J1" s="57" t="s">
+      <c r="K1" s="57" t="s">
         <v>71</v>
-      </c>
-      <c r="K1" s="57" t="s">
-        <v>72</v>
       </c>
       <c r="L1" s="57" t="s">
         <v>113</v>
@@ -25070,7 +25070,7 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="52" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
@@ -25647,7 +25647,7 @@
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" s="52" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="B17" s="65"/>
     </row>
@@ -25829,7 +25829,7 @@
     </row>
     <row r="23" spans="1:15" s="88" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="88" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="24" spans="1:15" ht="26.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -25851,16 +25851,16 @@
         <v>76</v>
       </c>
       <c r="H24" s="57" t="s">
+        <v>68</v>
+      </c>
+      <c r="I24" s="57" t="s">
         <v>69</v>
       </c>
-      <c r="I24" s="57" t="s">
+      <c r="J24" s="57" t="s">
         <v>70</v>
       </c>
-      <c r="J24" s="57" t="s">
+      <c r="K24" s="57" t="s">
         <v>71</v>
-      </c>
-      <c r="K24" s="57" t="s">
-        <v>72</v>
       </c>
       <c r="L24" s="57" t="s">
         <v>113</v>
@@ -25877,7 +25877,7 @@
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A25" s="52" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.2">
@@ -26623,7 +26623,7 @@
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A40" s="52" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="B40" s="65"/>
     </row>
@@ -26857,7 +26857,7 @@
     </row>
     <row r="46" spans="1:15" s="88" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A46" s="88" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="47" spans="1:15" ht="26.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -26879,16 +26879,16 @@
         <v>76</v>
       </c>
       <c r="H47" s="57" t="s">
+        <v>68</v>
+      </c>
+      <c r="I47" s="57" t="s">
         <v>69</v>
       </c>
-      <c r="I47" s="57" t="s">
+      <c r="J47" s="57" t="s">
         <v>70</v>
       </c>
-      <c r="J47" s="57" t="s">
+      <c r="K47" s="57" t="s">
         <v>71</v>
-      </c>
-      <c r="K47" s="57" t="s">
-        <v>72</v>
       </c>
       <c r="L47" s="57" t="s">
         <v>113</v>
@@ -26905,7 +26905,7 @@
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A48" s="52" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.2">
@@ -27651,7 +27651,7 @@
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A63" s="52" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="B63" s="65"/>
     </row>
@@ -27884,7 +27884,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="rQ01xIALYuqDhNLtNtfjMR9gxR6KZkFMJMQGeIXONEtUhzQUWWf1gTNvtdlv0G2OLZyproaN4d9sTy8xCQYI/Q==" saltValue="9F/C/WwnrXRHfrXVfnygmg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="TgXLX3xSgpkfCyp/4Eo8qI8zSbJExp69WhWmcmWNO4q7kcxs2JxjeaNv0ckSAioN2ksSufFs7L7t3S50xLZyrw==" saltValue="7IkBcvlLiqDBN6eGlO3UiQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -27931,7 +27931,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="52" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -27956,7 +27956,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="52" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="B4" s="65"/>
       <c r="C4" s="77"/>
@@ -27987,7 +27987,7 @@
     </row>
     <row r="7" spans="1:7" s="88" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="88" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -28011,7 +28011,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="52" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
@@ -28041,7 +28041,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="52" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="B11" s="65"/>
       <c r="C11" s="77"/>
@@ -28077,7 +28077,7 @@
     </row>
     <row r="14" spans="1:7" s="88" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="88" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
@@ -28101,7 +28101,7 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="52" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
@@ -28131,7 +28131,7 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="52" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="B18" s="65"/>
       <c r="C18" s="77"/>
@@ -28166,7 +28166,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="63oPjaI4VvRyxPLgribamnV6Uo7tzOJnyX+7yM9+eN9oEpU+qNS7T5x30sDkNJXhaGhLAE6z/0HVuWP8r3Hx5w==" saltValue="pjEIx+vuEv7gnwiVXR3pEA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="lXRnjlR7Gi9BWz1KPWCZ0gotQEAHZ/bM4sLxpgWHlWf+Tki0ysUGCfigQhSkKVmEGZ1hq+ekGU4q1JR5s/kDDg==" saltValue="GrLAEsoBANYieAfmO6mtfQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -28202,7 +28202,7 @@
         <v>163</v>
       </c>
       <c r="B1" s="52" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="C1" s="76" t="s">
         <v>9</v>
@@ -28231,7 +28231,7 @@
         <v>84</v>
       </c>
       <c r="C2" s="69" t="s">
-        <v>320</v>
+        <v>337</v>
       </c>
       <c r="D2" s="85">
         <v>0</v>
@@ -28251,7 +28251,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C3" s="69" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="D3" s="85">
         <v>0</v>
@@ -28271,7 +28271,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C4" s="69" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="D4" s="85">
         <v>0</v>
@@ -28297,7 +28297,7 @@
         <v>207</v>
       </c>
       <c r="C5" s="69" t="s">
-        <v>320</v>
+        <v>337</v>
       </c>
       <c r="D5" s="85">
         <v>0</v>
@@ -28317,7 +28317,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C6" s="69" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="D6" s="85">
         <v>0</v>
@@ -28340,7 +28340,7 @@
         <v>6</v>
       </c>
       <c r="C7" s="69" t="s">
-        <v>320</v>
+        <v>337</v>
       </c>
       <c r="D7" s="85">
         <v>0</v>
@@ -28360,7 +28360,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C8" s="69" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="D8" s="85">
         <v>0</v>
@@ -28386,7 +28386,7 @@
         <v>207</v>
       </c>
       <c r="C9" s="69" t="s">
-        <v>320</v>
+        <v>337</v>
       </c>
       <c r="D9" s="85">
         <v>0</v>
@@ -28406,7 +28406,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C10" s="69" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="D10" s="85">
         <v>0</v>
@@ -28429,7 +28429,7 @@
         <v>6</v>
       </c>
       <c r="C11" s="69" t="s">
-        <v>320</v>
+        <v>337</v>
       </c>
       <c r="D11" s="85">
         <v>0</v>
@@ -28449,7 +28449,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C12" s="69" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="D12" s="85">
         <v>0</v>
@@ -28475,7 +28475,7 @@
         <v>207</v>
       </c>
       <c r="C13" s="69" t="s">
-        <v>320</v>
+        <v>337</v>
       </c>
       <c r="D13" s="85">
         <v>0</v>
@@ -28495,7 +28495,7 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C14" s="69" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="D14" s="85">
         <v>0</v>
@@ -28518,7 +28518,7 @@
         <v>6</v>
       </c>
       <c r="C15" s="69" t="s">
-        <v>320</v>
+        <v>337</v>
       </c>
       <c r="D15" s="85">
         <v>0</v>
@@ -28538,7 +28538,7 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C16" s="69" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="D16" s="85">
         <v>0</v>
@@ -28564,7 +28564,7 @@
         <v>207</v>
       </c>
       <c r="C17" s="69" t="s">
-        <v>320</v>
+        <v>337</v>
       </c>
       <c r="D17" s="85">
         <v>0</v>
@@ -28584,7 +28584,7 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C18" s="69" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="D18" s="85">
         <v>0</v>
@@ -28607,7 +28607,7 @@
         <v>6</v>
       </c>
       <c r="C19" s="69" t="s">
-        <v>320</v>
+        <v>337</v>
       </c>
       <c r="D19" s="85">
         <v>0</v>
@@ -28627,7 +28627,7 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C20" s="69" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="D20" s="85">
         <v>0</v>
@@ -28653,7 +28653,7 @@
         <v>92</v>
       </c>
       <c r="C21" s="69" t="s">
-        <v>320</v>
+        <v>337</v>
       </c>
       <c r="D21" s="85">
         <v>0.28260869565217389</v>
@@ -28673,7 +28673,7 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C22" s="69" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="D22" s="85">
         <v>0.46</v>
@@ -28699,7 +28699,7 @@
         <v>92</v>
       </c>
       <c r="C23" s="69" t="s">
-        <v>320</v>
+        <v>337</v>
       </c>
       <c r="D23" s="85">
         <v>0.28260869565217389</v>
@@ -28719,7 +28719,7 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C24" s="69" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="D24" s="85">
         <v>0.46</v>
@@ -28745,7 +28745,7 @@
         <v>92</v>
       </c>
       <c r="C25" s="69" t="s">
-        <v>320</v>
+        <v>337</v>
       </c>
       <c r="D25" s="85">
         <v>0.28260869565217389</v>
@@ -28765,7 +28765,7 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C26" s="69" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="D26" s="85">
         <v>0.46</v>
@@ -28791,7 +28791,7 @@
         <v>84</v>
       </c>
       <c r="C27" s="69" t="s">
-        <v>320</v>
+        <v>337</v>
       </c>
       <c r="D27" s="85">
         <v>1</v>
@@ -28811,7 +28811,7 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C28" s="69" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="D28" s="85">
         <v>0</v>
@@ -28831,7 +28831,7 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C29" s="69" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="D29" s="85">
         <v>0</v>
@@ -28857,7 +28857,7 @@
         <v>84</v>
       </c>
       <c r="C30" s="69" t="s">
-        <v>320</v>
+        <v>337</v>
       </c>
       <c r="D30" s="85">
         <v>1</v>
@@ -28877,7 +28877,7 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C31" s="69" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="D31" s="85">
         <v>0</v>
@@ -28897,7 +28897,7 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C32" s="69" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="D32" s="85">
         <v>0</v>
@@ -28923,7 +28923,7 @@
         <v>84</v>
       </c>
       <c r="C33" s="69" t="s">
-        <v>320</v>
+        <v>337</v>
       </c>
       <c r="D33" s="85">
         <v>1</v>
@@ -28943,7 +28943,7 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C34" s="69" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="D34" s="85">
         <v>0</v>
@@ -28963,7 +28963,7 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C35" s="69" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="D35" s="85">
         <v>0</v>
@@ -28989,7 +28989,7 @@
         <v>84</v>
       </c>
       <c r="C36" s="69" t="s">
-        <v>320</v>
+        <v>337</v>
       </c>
       <c r="D36" s="85">
         <v>1</v>
@@ -29009,7 +29009,7 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C37" s="69" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="D37" s="85">
         <v>0</v>
@@ -29029,7 +29029,7 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C38" s="69" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="D38" s="85">
         <v>0</v>
@@ -29055,7 +29055,7 @@
         <v>84</v>
       </c>
       <c r="C39" s="69" t="s">
-        <v>320</v>
+        <v>337</v>
       </c>
       <c r="D39" s="85">
         <v>1</v>
@@ -29075,7 +29075,7 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C40" s="69" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="D40" s="85">
         <v>0</v>
@@ -29095,7 +29095,7 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C41" s="69" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="D41" s="85">
         <v>0</v>
@@ -29121,7 +29121,7 @@
         <v>84</v>
       </c>
       <c r="C42" s="69" t="s">
-        <v>320</v>
+        <v>337</v>
       </c>
       <c r="D42" s="85">
         <v>0.3</v>
@@ -29141,7 +29141,7 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C43" s="69" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="D43" s="85">
         <v>0.5</v>
@@ -29161,7 +29161,7 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C44" s="69" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="D44" s="85">
         <v>0.65</v>
@@ -29184,7 +29184,7 @@
         <v>102</v>
       </c>
       <c r="C45" s="69" t="s">
-        <v>320</v>
+        <v>337</v>
       </c>
       <c r="D45" s="85">
         <v>0.3</v>
@@ -29204,7 +29204,7 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C46" s="69" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="D46" s="85">
         <v>0.49</v>
@@ -29224,7 +29224,7 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C47" s="69" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="D47" s="85">
         <v>0.52</v>
@@ -29250,7 +29250,7 @@
         <v>84</v>
       </c>
       <c r="C48" s="69" t="s">
-        <v>320</v>
+        <v>337</v>
       </c>
       <c r="D48" s="85">
         <v>0.88</v>
@@ -29270,7 +29270,7 @@
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C49" s="69" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="D49" s="85">
         <v>0.78409090909090906</v>
@@ -29296,7 +29296,7 @@
         <v>84</v>
       </c>
       <c r="C50" s="69" t="s">
-        <v>320</v>
+        <v>337</v>
       </c>
       <c r="D50" s="85">
         <v>0.88372093023255816</v>
@@ -29316,7 +29316,7 @@
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C51" s="69" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="D51" s="85">
         <v>0.86</v>
@@ -29342,7 +29342,7 @@
         <v>96</v>
       </c>
       <c r="C52" s="69" t="s">
-        <v>320</v>
+        <v>337</v>
       </c>
       <c r="D52" s="85">
         <v>0.57999999999999996</v>
@@ -29362,7 +29362,7 @@
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C53" s="69" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="D53" s="85">
         <v>0.51</v>
@@ -29382,7 +29382,7 @@
     </row>
     <row r="55" spans="1:8" s="89" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A55" s="92" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="B55" s="93"/>
       <c r="C55" s="93"/>
@@ -29392,7 +29392,7 @@
         <v>163</v>
       </c>
       <c r="B56" s="52" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="C56" s="76" t="s">
         <v>9</v>
@@ -29421,7 +29421,7 @@
         <v>84</v>
       </c>
       <c r="C57" s="69" t="s">
-        <v>320</v>
+        <v>337</v>
       </c>
       <c r="D57" s="85">
         <f t="shared" ref="D57:H66" si="0">D2*0.9</f>
@@ -29446,7 +29446,7 @@
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C58" s="69" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="D58" s="85">
         <f t="shared" si="0"/>
@@ -29471,7 +29471,7 @@
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C59" s="69" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="D59" s="85">
         <f t="shared" si="0"/>
@@ -29502,7 +29502,7 @@
         <v>207</v>
       </c>
       <c r="C60" s="69" t="s">
-        <v>320</v>
+        <v>337</v>
       </c>
       <c r="D60" s="85">
         <f t="shared" si="0"/>
@@ -29527,7 +29527,7 @@
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C61" s="69" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="D61" s="85">
         <f t="shared" si="0"/>
@@ -29555,7 +29555,7 @@
         <v>6</v>
       </c>
       <c r="C62" s="69" t="s">
-        <v>320</v>
+        <v>337</v>
       </c>
       <c r="D62" s="85">
         <f t="shared" si="0"/>
@@ -29580,7 +29580,7 @@
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C63" s="69" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="D63" s="85">
         <f t="shared" si="0"/>
@@ -29611,7 +29611,7 @@
         <v>207</v>
       </c>
       <c r="C64" s="69" t="s">
-        <v>320</v>
+        <v>337</v>
       </c>
       <c r="D64" s="85">
         <f t="shared" si="0"/>
@@ -29636,7 +29636,7 @@
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C65" s="69" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="D65" s="85">
         <f t="shared" si="0"/>
@@ -29664,7 +29664,7 @@
         <v>6</v>
       </c>
       <c r="C66" s="69" t="s">
-        <v>320</v>
+        <v>337</v>
       </c>
       <c r="D66" s="85">
         <f t="shared" si="0"/>
@@ -29689,7 +29689,7 @@
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C67" s="69" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="D67" s="85">
         <f t="shared" ref="D67:H76" si="1">D12*0.9</f>
@@ -29720,7 +29720,7 @@
         <v>207</v>
       </c>
       <c r="C68" s="69" t="s">
-        <v>320</v>
+        <v>337</v>
       </c>
       <c r="D68" s="85">
         <f t="shared" si="1"/>
@@ -29745,7 +29745,7 @@
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C69" s="69" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="D69" s="85">
         <f t="shared" si="1"/>
@@ -29773,7 +29773,7 @@
         <v>6</v>
       </c>
       <c r="C70" s="69" t="s">
-        <v>320</v>
+        <v>337</v>
       </c>
       <c r="D70" s="85">
         <f t="shared" si="1"/>
@@ -29798,7 +29798,7 @@
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C71" s="69" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="D71" s="85">
         <f t="shared" si="1"/>
@@ -29829,7 +29829,7 @@
         <v>207</v>
       </c>
       <c r="C72" s="69" t="s">
-        <v>320</v>
+        <v>337</v>
       </c>
       <c r="D72" s="85">
         <f t="shared" si="1"/>
@@ -29854,7 +29854,7 @@
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C73" s="69" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="D73" s="85">
         <f t="shared" si="1"/>
@@ -29882,7 +29882,7 @@
         <v>6</v>
       </c>
       <c r="C74" s="69" t="s">
-        <v>320</v>
+        <v>337</v>
       </c>
       <c r="D74" s="85">
         <f t="shared" si="1"/>
@@ -29907,7 +29907,7 @@
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C75" s="69" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="D75" s="85">
         <f t="shared" si="1"/>
@@ -29938,7 +29938,7 @@
         <v>92</v>
       </c>
       <c r="C76" s="69" t="s">
-        <v>320</v>
+        <v>337</v>
       </c>
       <c r="D76" s="85">
         <f t="shared" si="1"/>
@@ -29963,7 +29963,7 @@
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C77" s="69" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="D77" s="85">
         <f t="shared" ref="D77:H86" si="2">D22*0.9</f>
@@ -29994,7 +29994,7 @@
         <v>92</v>
       </c>
       <c r="C78" s="69" t="s">
-        <v>320</v>
+        <v>337</v>
       </c>
       <c r="D78" s="85">
         <f t="shared" si="2"/>
@@ -30019,7 +30019,7 @@
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C79" s="69" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="D79" s="85">
         <f t="shared" si="2"/>
@@ -30050,7 +30050,7 @@
         <v>92</v>
       </c>
       <c r="C80" s="69" t="s">
-        <v>320</v>
+        <v>337</v>
       </c>
       <c r="D80" s="85">
         <f t="shared" si="2"/>
@@ -30075,7 +30075,7 @@
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C81" s="69" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="D81" s="85">
         <f t="shared" si="2"/>
@@ -30106,7 +30106,7 @@
         <v>84</v>
       </c>
       <c r="C82" s="69" t="s">
-        <v>320</v>
+        <v>337</v>
       </c>
       <c r="D82" s="85">
         <f t="shared" si="2"/>
@@ -30131,7 +30131,7 @@
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C83" s="69" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="D83" s="85">
         <f t="shared" si="2"/>
@@ -30156,7 +30156,7 @@
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C84" s="69" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="D84" s="85">
         <f t="shared" si="2"/>
@@ -30187,7 +30187,7 @@
         <v>84</v>
       </c>
       <c r="C85" s="69" t="s">
-        <v>320</v>
+        <v>337</v>
       </c>
       <c r="D85" s="85">
         <f t="shared" si="2"/>
@@ -30212,7 +30212,7 @@
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C86" s="69" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="D86" s="85">
         <f t="shared" si="2"/>
@@ -30237,7 +30237,7 @@
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C87" s="69" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="D87" s="85">
         <f t="shared" ref="D87:H96" si="3">D32*0.9</f>
@@ -30268,7 +30268,7 @@
         <v>84</v>
       </c>
       <c r="C88" s="69" t="s">
-        <v>320</v>
+        <v>337</v>
       </c>
       <c r="D88" s="85">
         <f t="shared" si="3"/>
@@ -30293,7 +30293,7 @@
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C89" s="69" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="D89" s="85">
         <f t="shared" si="3"/>
@@ -30318,7 +30318,7 @@
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C90" s="69" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="D90" s="85">
         <f t="shared" si="3"/>
@@ -30349,7 +30349,7 @@
         <v>84</v>
       </c>
       <c r="C91" s="69" t="s">
-        <v>320</v>
+        <v>337</v>
       </c>
       <c r="D91" s="85">
         <f t="shared" si="3"/>
@@ -30374,7 +30374,7 @@
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C92" s="69" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="D92" s="85">
         <f t="shared" si="3"/>
@@ -30399,7 +30399,7 @@
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C93" s="69" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="D93" s="85">
         <f t="shared" si="3"/>
@@ -30430,7 +30430,7 @@
         <v>84</v>
       </c>
       <c r="C94" s="69" t="s">
-        <v>320</v>
+        <v>337</v>
       </c>
       <c r="D94" s="85">
         <f t="shared" si="3"/>
@@ -30455,7 +30455,7 @@
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C95" s="69" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="D95" s="85">
         <f t="shared" si="3"/>
@@ -30480,7 +30480,7 @@
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C96" s="69" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="D96" s="85">
         <f t="shared" si="3"/>
@@ -30511,7 +30511,7 @@
         <v>84</v>
       </c>
       <c r="C97" s="69" t="s">
-        <v>320</v>
+        <v>337</v>
       </c>
       <c r="D97" s="85">
         <f t="shared" ref="D97:H106" si="4">D42*0.9</f>
@@ -30536,7 +30536,7 @@
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C98" s="69" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="D98" s="85">
         <f t="shared" si="4"/>
@@ -30561,7 +30561,7 @@
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C99" s="69" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="D99" s="85">
         <f t="shared" si="4"/>
@@ -30589,7 +30589,7 @@
         <v>102</v>
       </c>
       <c r="C100" s="69" t="s">
-        <v>320</v>
+        <v>337</v>
       </c>
       <c r="D100" s="85">
         <f t="shared" si="4"/>
@@ -30614,7 +30614,7 @@
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C101" s="69" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="D101" s="85">
         <f t="shared" si="4"/>
@@ -30639,7 +30639,7 @@
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C102" s="69" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="D102" s="85">
         <f t="shared" si="4"/>
@@ -30670,7 +30670,7 @@
         <v>84</v>
       </c>
       <c r="C103" s="69" t="s">
-        <v>320</v>
+        <v>337</v>
       </c>
       <c r="D103" s="85">
         <f t="shared" si="4"/>
@@ -30695,7 +30695,7 @@
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C104" s="69" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="D104" s="85">
         <f t="shared" si="4"/>
@@ -30726,7 +30726,7 @@
         <v>84</v>
       </c>
       <c r="C105" s="69" t="s">
-        <v>320</v>
+        <v>337</v>
       </c>
       <c r="D105" s="85">
         <f t="shared" si="4"/>
@@ -30751,7 +30751,7 @@
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C106" s="69" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="D106" s="85">
         <f t="shared" si="4"/>
@@ -30782,7 +30782,7 @@
         <v>96</v>
       </c>
       <c r="C107" s="69" t="s">
-        <v>320</v>
+        <v>337</v>
       </c>
       <c r="D107" s="85">
         <f t="shared" ref="D107:H108" si="5">D52*0.9</f>
@@ -30807,7 +30807,7 @@
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C108" s="69" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="D108" s="85">
         <f t="shared" si="5"/>
@@ -30832,7 +30832,7 @@
     </row>
     <row r="110" spans="1:8" s="89" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A110" s="92" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="B110" s="93"/>
       <c r="C110" s="93"/>
@@ -30842,7 +30842,7 @@
         <v>163</v>
       </c>
       <c r="B111" s="52" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="C111" s="76" t="s">
         <v>9</v>
@@ -30871,7 +30871,7 @@
         <v>84</v>
       </c>
       <c r="C112" s="69" t="s">
-        <v>320</v>
+        <v>337</v>
       </c>
       <c r="D112" s="85">
         <f t="shared" ref="D112:H121" si="6">D2*1.05</f>
@@ -30896,7 +30896,7 @@
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C113" s="69" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="D113" s="85">
         <f t="shared" si="6"/>
@@ -30921,7 +30921,7 @@
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C114" s="69" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="D114" s="85">
         <f t="shared" si="6"/>
@@ -30952,7 +30952,7 @@
         <v>207</v>
       </c>
       <c r="C115" s="69" t="s">
-        <v>320</v>
+        <v>337</v>
       </c>
       <c r="D115" s="85">
         <f t="shared" si="6"/>
@@ -30977,7 +30977,7 @@
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C116" s="69" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="D116" s="85">
         <f t="shared" si="6"/>
@@ -31005,7 +31005,7 @@
         <v>6</v>
       </c>
       <c r="C117" s="69" t="s">
-        <v>320</v>
+        <v>337</v>
       </c>
       <c r="D117" s="85">
         <f t="shared" si="6"/>
@@ -31030,7 +31030,7 @@
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C118" s="69" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="D118" s="85">
         <f t="shared" si="6"/>
@@ -31061,7 +31061,7 @@
         <v>207</v>
       </c>
       <c r="C119" s="69" t="s">
-        <v>320</v>
+        <v>337</v>
       </c>
       <c r="D119" s="85">
         <f t="shared" si="6"/>
@@ -31086,7 +31086,7 @@
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C120" s="69" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="D120" s="85">
         <f t="shared" si="6"/>
@@ -31114,7 +31114,7 @@
         <v>6</v>
       </c>
       <c r="C121" s="69" t="s">
-        <v>320</v>
+        <v>337</v>
       </c>
       <c r="D121" s="85">
         <f t="shared" si="6"/>
@@ -31139,7 +31139,7 @@
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C122" s="69" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="D122" s="85">
         <f t="shared" ref="D122:H131" si="7">D12*1.05</f>
@@ -31170,7 +31170,7 @@
         <v>207</v>
       </c>
       <c r="C123" s="69" t="s">
-        <v>320</v>
+        <v>337</v>
       </c>
       <c r="D123" s="85">
         <f t="shared" si="7"/>
@@ -31195,7 +31195,7 @@
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C124" s="69" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="D124" s="85">
         <f t="shared" si="7"/>
@@ -31223,7 +31223,7 @@
         <v>6</v>
       </c>
       <c r="C125" s="69" t="s">
-        <v>320</v>
+        <v>337</v>
       </c>
       <c r="D125" s="85">
         <f t="shared" si="7"/>
@@ -31248,7 +31248,7 @@
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C126" s="69" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="D126" s="85">
         <f t="shared" si="7"/>
@@ -31279,7 +31279,7 @@
         <v>207</v>
       </c>
       <c r="C127" s="69" t="s">
-        <v>320</v>
+        <v>337</v>
       </c>
       <c r="D127" s="85">
         <f t="shared" si="7"/>
@@ -31304,7 +31304,7 @@
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C128" s="69" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="D128" s="85">
         <f t="shared" si="7"/>
@@ -31332,7 +31332,7 @@
         <v>6</v>
       </c>
       <c r="C129" s="69" t="s">
-        <v>320</v>
+        <v>337</v>
       </c>
       <c r="D129" s="85">
         <f t="shared" si="7"/>
@@ -31357,7 +31357,7 @@
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C130" s="69" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="D130" s="85">
         <f t="shared" si="7"/>
@@ -31388,7 +31388,7 @@
         <v>92</v>
       </c>
       <c r="C131" s="69" t="s">
-        <v>320</v>
+        <v>337</v>
       </c>
       <c r="D131" s="85">
         <f t="shared" si="7"/>
@@ -31413,7 +31413,7 @@
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C132" s="69" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="D132" s="85">
         <f t="shared" ref="D132:H141" si="8">D22*1.05</f>
@@ -31444,7 +31444,7 @@
         <v>92</v>
       </c>
       <c r="C133" s="69" t="s">
-        <v>320</v>
+        <v>337</v>
       </c>
       <c r="D133" s="85">
         <f t="shared" si="8"/>
@@ -31469,7 +31469,7 @@
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C134" s="69" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="D134" s="85">
         <f t="shared" si="8"/>
@@ -31500,7 +31500,7 @@
         <v>92</v>
       </c>
       <c r="C135" s="69" t="s">
-        <v>320</v>
+        <v>337</v>
       </c>
       <c r="D135" s="85">
         <f t="shared" si="8"/>
@@ -31525,7 +31525,7 @@
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C136" s="69" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="D136" s="85">
         <f t="shared" si="8"/>
@@ -31556,7 +31556,7 @@
         <v>84</v>
       </c>
       <c r="C137" s="69" t="s">
-        <v>320</v>
+        <v>337</v>
       </c>
       <c r="D137" s="85">
         <f t="shared" si="8"/>
@@ -31581,7 +31581,7 @@
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C138" s="69" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="D138" s="85">
         <f t="shared" si="8"/>
@@ -31606,7 +31606,7 @@
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C139" s="69" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="D139" s="85">
         <f t="shared" si="8"/>
@@ -31637,7 +31637,7 @@
         <v>84</v>
       </c>
       <c r="C140" s="69" t="s">
-        <v>320</v>
+        <v>337</v>
       </c>
       <c r="D140" s="85">
         <f t="shared" si="8"/>
@@ -31662,7 +31662,7 @@
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C141" s="69" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="D141" s="85">
         <f t="shared" si="8"/>
@@ -31687,7 +31687,7 @@
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C142" s="69" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="D142" s="85">
         <f t="shared" ref="D142:H151" si="9">D32*1.05</f>
@@ -31718,7 +31718,7 @@
         <v>84</v>
       </c>
       <c r="C143" s="69" t="s">
-        <v>320</v>
+        <v>337</v>
       </c>
       <c r="D143" s="85">
         <f t="shared" si="9"/>
@@ -31743,7 +31743,7 @@
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C144" s="69" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="D144" s="85">
         <f t="shared" si="9"/>
@@ -31768,7 +31768,7 @@
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C145" s="69" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="D145" s="85">
         <f t="shared" si="9"/>
@@ -31799,7 +31799,7 @@
         <v>84</v>
       </c>
       <c r="C146" s="69" t="s">
-        <v>320</v>
+        <v>337</v>
       </c>
       <c r="D146" s="85">
         <f t="shared" si="9"/>
@@ -31824,7 +31824,7 @@
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C147" s="69" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="D147" s="85">
         <f t="shared" si="9"/>
@@ -31849,7 +31849,7 @@
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C148" s="69" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="D148" s="85">
         <f t="shared" si="9"/>
@@ -31880,7 +31880,7 @@
         <v>84</v>
       </c>
       <c r="C149" s="69" t="s">
-        <v>320</v>
+        <v>337</v>
       </c>
       <c r="D149" s="85">
         <f t="shared" si="9"/>
@@ -31905,7 +31905,7 @@
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C150" s="69" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="D150" s="85">
         <f t="shared" si="9"/>
@@ -31930,7 +31930,7 @@
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C151" s="69" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="D151" s="85">
         <f t="shared" si="9"/>
@@ -31961,7 +31961,7 @@
         <v>84</v>
       </c>
       <c r="C152" s="69" t="s">
-        <v>320</v>
+        <v>337</v>
       </c>
       <c r="D152" s="85">
         <f t="shared" ref="D152:H161" si="10">D42*1.05</f>
@@ -31986,7 +31986,7 @@
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C153" s="69" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="D153" s="85">
         <f t="shared" si="10"/>
@@ -32011,7 +32011,7 @@
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C154" s="69" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="D154" s="85">
         <f t="shared" si="10"/>
@@ -32039,7 +32039,7 @@
         <v>102</v>
       </c>
       <c r="C155" s="69" t="s">
-        <v>320</v>
+        <v>337</v>
       </c>
       <c r="D155" s="85">
         <f t="shared" si="10"/>
@@ -32064,7 +32064,7 @@
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C156" s="69" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="D156" s="85">
         <f t="shared" si="10"/>
@@ -32089,7 +32089,7 @@
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C157" s="69" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="D157" s="85">
         <f t="shared" si="10"/>
@@ -32120,7 +32120,7 @@
         <v>84</v>
       </c>
       <c r="C158" s="69" t="s">
-        <v>320</v>
+        <v>337</v>
       </c>
       <c r="D158" s="85">
         <f t="shared" si="10"/>
@@ -32145,7 +32145,7 @@
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C159" s="69" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="D159" s="85">
         <f t="shared" si="10"/>
@@ -32176,7 +32176,7 @@
         <v>84</v>
       </c>
       <c r="C160" s="69" t="s">
-        <v>320</v>
+        <v>337</v>
       </c>
       <c r="D160" s="85">
         <f t="shared" si="10"/>
@@ -32201,7 +32201,7 @@
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C161" s="69" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="D161" s="85">
         <f t="shared" si="10"/>
@@ -32232,7 +32232,7 @@
         <v>96</v>
       </c>
       <c r="C162" s="69" t="s">
-        <v>320</v>
+        <v>337</v>
       </c>
       <c r="D162" s="85">
         <f t="shared" ref="D162:H163" si="11">D52*1.05</f>
@@ -32257,7 +32257,7 @@
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C163" s="69" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="D163" s="85">
         <f t="shared" si="11"/>
@@ -32281,7 +32281,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="ob+er1XAhv0o6BQciEPhUdeAiooVp1v3DHme3QzYF4vwmXZcueqFcTAfV0KPavfIzAWmKs0ues3ply7CB8YScA==" saltValue="M1TPpRvX319AVtkNp6VTCA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="G/OVjxGHAMtsjlQA8xlrQv9NiOvWTTPCPHwJZYGnAE7D3Lk98Evdn/LOvBnH08QMYFdCwz06ZWRJNnqqoK7wGw==" saltValue="DSk6JFo+eSF1eUHr6nNc+w==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -32313,7 +32313,7 @@
         <v>163</v>
       </c>
       <c r="B1" s="70" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="C1" s="70"/>
       <c r="D1" s="52" t="s">
@@ -32338,7 +32338,7 @@
         <v>86</v>
       </c>
       <c r="C2" s="78" t="s">
-        <v>320</v>
+        <v>337</v>
       </c>
       <c r="D2" s="85">
         <v>1</v>
@@ -32356,7 +32356,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C3" s="96" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="D3" s="85">
         <v>0.2</v>
@@ -32380,7 +32380,7 @@
         <v>86</v>
       </c>
       <c r="C4" s="78" t="s">
-        <v>320</v>
+        <v>337</v>
       </c>
       <c r="D4" s="85">
         <v>1</v>
@@ -32398,7 +32398,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C5" s="96" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="D5" s="85">
         <v>0.59</v>
@@ -32422,7 +32422,7 @@
         <v>86</v>
       </c>
       <c r="C6" s="78" t="s">
-        <v>320</v>
+        <v>337</v>
       </c>
       <c r="D6" s="85">
         <v>1</v>
@@ -32440,7 +32440,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C7" s="96" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="D7" s="85">
         <v>0.6</v>
@@ -32458,7 +32458,7 @@
     </row>
     <row r="9" spans="1:8" s="88" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="88" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -32466,7 +32466,7 @@
         <v>163</v>
       </c>
       <c r="B10" s="70" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="C10" s="70"/>
       <c r="D10" s="52" t="s">
@@ -32490,7 +32490,7 @@
         <v>86</v>
       </c>
       <c r="C11" s="78" t="s">
-        <v>320</v>
+        <v>337</v>
       </c>
       <c r="D11" s="85">
         <f t="shared" ref="D11:G16" si="0">D2*0.9</f>
@@ -32511,7 +32511,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C12" s="96" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="D12" s="85">
         <f t="shared" si="0"/>
@@ -32538,7 +32538,7 @@
         <v>86</v>
       </c>
       <c r="C13" s="78" t="s">
-        <v>320</v>
+        <v>337</v>
       </c>
       <c r="D13" s="85">
         <f t="shared" si="0"/>
@@ -32559,7 +32559,7 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C14" s="96" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="D14" s="85">
         <f t="shared" si="0"/>
@@ -32586,7 +32586,7 @@
         <v>86</v>
       </c>
       <c r="C15" s="78" t="s">
-        <v>320</v>
+        <v>337</v>
       </c>
       <c r="D15" s="85">
         <f t="shared" si="0"/>
@@ -32607,7 +32607,7 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C16" s="96" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="D16" s="85">
         <f t="shared" si="0"/>
@@ -32628,7 +32628,7 @@
     </row>
     <row r="18" spans="1:7" s="88" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="88" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
@@ -32636,7 +32636,7 @@
         <v>163</v>
       </c>
       <c r="B19" s="70" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="C19" s="70"/>
       <c r="D19" s="52" t="s">
@@ -32660,7 +32660,7 @@
         <v>86</v>
       </c>
       <c r="C20" s="78" t="s">
-        <v>320</v>
+        <v>337</v>
       </c>
       <c r="D20" s="85">
         <f t="shared" ref="D20:G25" si="1">D2*1.05</f>
@@ -32681,7 +32681,7 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C21" s="96" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="D21" s="85">
         <f t="shared" si="1"/>
@@ -32708,7 +32708,7 @@
         <v>86</v>
       </c>
       <c r="C22" s="78" t="s">
-        <v>320</v>
+        <v>337</v>
       </c>
       <c r="D22" s="85">
         <f t="shared" si="1"/>
@@ -32729,7 +32729,7 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C23" s="96" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="D23" s="85">
         <f t="shared" si="1"/>
@@ -32756,7 +32756,7 @@
         <v>86</v>
       </c>
       <c r="C24" s="78" t="s">
-        <v>320</v>
+        <v>337</v>
       </c>
       <c r="D24" s="85">
         <f t="shared" si="1"/>
@@ -32777,7 +32777,7 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C25" s="96" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="D25" s="85">
         <f t="shared" si="1"/>
@@ -32797,7 +32797,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="zWB/GcPHCHuMEdUxgFgMpAtWyXFO2hKef3vPl5tTGYtmwgDKhmC9DLjKvXZwKSZcQtPI4c+Zgoka1v742OzwRg==" saltValue="FeIcWKlxMigYKkXny3aiVQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="bSroB9dMzxzEZCaPPpV3g9g0AHCpN7Qhj3H1eALZhoXX0432uR441hEyOEloPeMnMCoO4j67a6v1XXfcojjDeA==" saltValue="b4BP9E7BoEsBbrmvrVrrdw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -32809,8 +32809,8 @@
   </sheetPr>
   <dimension ref="A1:H35"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13:F13"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C11" activeCellId="2" sqref="C35 C23:F23 C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -32921,16 +32921,16 @@
       <c r="B13" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C13" s="106" t="s">
+      <c r="C13" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="D13" s="106" t="s">
+      <c r="D13" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="E13" s="106" t="s">
+      <c r="E13" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="F13" s="106" t="s">
+      <c r="F13" s="10" t="s">
         <v>76</v>
       </c>
       <c r="G13" s="11"/>
@@ -33128,7 +33128,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="KY8lq2xFn9bWhlGdPsUHZdeBG72fIBWqHsFJGO3+EDH8pzvuxFlpiZi1+qxqTHyNNTeV3tjGSBTi6Rfkj9jYnQ==" saltValue="OQlXorGmoC6cazIjLz2z0g==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="0l2TINIkOtTu1PvFXPXsy3LN6herXi4VZmroudm6SMjSlfXr+kqE2LqvZql8AEpRWCeu3/rq9okUpQRPQG7m/g==" saltValue="rietDPc+dhrmYCQLeGLmDw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="69" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -33383,16 +33383,16 @@
         <v>116</v>
       </c>
       <c r="L13" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="M13" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="M13" s="10" t="s">
+      <c r="N13" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="N13" s="10" t="s">
+      <c r="O13" s="10" t="s">
         <v>71</v>
-      </c>
-      <c r="O13" s="10" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -33485,7 +33485,7 @@
       <c r="G17" s="2"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="VIj1vi1kjn9EK6LvnSQvKHM9oTxxK7BFMxtI4CGQGZZpuZkxjyLAv4J24gFsnfEA/1WIim3tfiR+y5UGWyaTWQ==" saltValue="hLd6Qq3TmRqstw5lYcGGXA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="ACesIbPUwAb598nwOeVL1/wJoQEOu2dKSq/duLmgOxg+DDWOEWhdYY58hxeYbiYyRpy5D3ibEGmQOYkDSuc5ew==" saltValue="QRD1Qx6v7JCJeuXhbm13hA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -33591,7 +33591,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="m5NRNoMwC0llipnHvPBwSak9rV1HL2dc5JaPQhdX2PRWKdWW5gLTjzvEFZXV9s9WTqb12ZML94gM52mwkFsDrA==" saltValue="H7aoii7Ci4TQvDKEX6cO3A==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="YOtQqupNtmmfEhsSP9osgfSg7mAcjiK6DNWmFhWo5Qii3Y2ygvtKCCjO6xNeoQTjjgUwvvWJH+l7xJN2oqmDjA==" saltValue="HSchgUJuuLDxtjJr+GZ73Q==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
@@ -33798,7 +33798,7 @@
       <c r="K14" s="104"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="otq17K0I36eO4kDNGDIheL24FCxqulFHIoMCdd/p9MEFTnFrU2wDKTzk13AsLWXRqfhHGG9F29f29IoIwd/Ffw==" saltValue="Vl6SykaqctiuoD8xqpS+GA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="+6eZjG47u6HVPwnBOROPPVhQEWFSB6IpGjo32cR2GPkzmA3T5Zl+TyXTy5r6GjrCD6bKHMDtoi4fBJYXeJIiKQ==" saltValue="WJ2sJpE3ow1pwsuKiqFzwQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="193" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -33879,7 +33879,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="Sc8WeRrUrDzAj7naCM5hu2eyzhTK6Hy1RjxUSezFih+llzi6FEzqJ6VmtvzBOV9YSS5wQEIwDWTR2tGrN3sMLA==" saltValue="wzUn0KKEUZ2Uglz5qUr9fA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="e8cBMV+s6F1FimBsxuCEkcBp/W8s+jbTL61zBr5dPcakV2Sj/0WOoS7Uj/XnGs0VNtfoO5M1K7XwYGP7VC4DXA==" saltValue="/boncKGSm7fygJ3lBdkkbA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -34140,7 +34140,7 @@
       <c r="E21" s="42"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="DE9NAfoAcoAgA0OC3xPfuQGmQe7fGuBepQmawgT3MoQRMVmiotGVTy7wDP/SD7V3QtQ4tuY1DWY6UppFYSbFOA==" saltValue="lH3BjNOh7dRCPvtxvwk1kw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="Q/q1BlYkbi0Ttbvx/aNnt1xR7VYjPFfhrW3eGH3F4JUQpQoQ/6LTMpGG7ugz0mBiczWXhGBf6+8uPIN6kh1uxw==" saltValue="E8dnp8NYmJmeHpZJtwsmzw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -34204,7 +34204,7 @@
       <c r="D3" s="42"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="iplgdCGXru8f9gU8C8vy585d4o4jypFsGhLFbL62cTLeqkfQIVQ7Gq/Nfif6Whn9kXPrqO6hw0u0kGo8Oz+PCA==" saltValue="tFBH4ybEf7N6L0mV5QBtdw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="rGAcWHfLpQIenHP9MvVrlFwk1pzWapRvE0qXi3m9GQJ9dHta7z+qZ+trQm3y/7q8PbHUBJN1hFaNWLXxKEkZ4w==" saltValue="RHm4q5+NV9gAd85fi4uilg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/inputs/es/Optima_template.xlsx
+++ b/inputs/es/Optima_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\romesh\projects\nutrition\inputs\es\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EFE3081E-07F0-4323-B6B8-D36C08848B47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{289FA6C4-13ED-4382-BD84-F4F8CAA2A0F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2760" yWindow="6840" windowWidth="31920" windowHeight="14040" tabRatio="961" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2719,7 +2719,7 @@
       <c r="A63" s="52"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="a0GA+lcnX48U8ZaSzREg4C4ExRCnJM2FyUN9iS3rccdH7w4spP/Z3Y1WVP1zxxGUpe7zlOEP4y09aW+TS8TT0g==" saltValue="F6kiR0yiUyrYNzsxeoc5aQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="b+JowsaLLPCC7YEeeOAhKpIu8uFNPfnDwyPfDnrhylLj1F+b54bHm3CBOsrG1Dv0zPmLFrBMNBfP0i990CywQA==" saltValue="9KXJk70JbjUiM/eYRCM3Cw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
@@ -3497,7 +3497,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="vSYqPpNS3aP4HXkfaqTTs+cHjV1hnhFAq8G93btYSUuZcsnBRWENI42+Tjpt/J/AP56aMr2aXSwLh5HP15ivfg==" saltValue="dnWeFGgZMgTbbPGPvaNmTg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="0Le3ywd7SQBfUd5K2ENGw74y4hCIBIMnsHXiZS9N3NWvgJ6uU+uyx9Q+84Q0JFy2/l5UQwE3lfqVsF2EnaeG3A==" saltValue="Zz50u8yA2VieMPGyd0/CMA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
@@ -3647,7 +3647,7 @@
       <c r="C20" s="45"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="nJRZFAgJe1mKstBtJbXhSgY0VF88NNX39dJro6BGc+DfLRGQviwjZLCKvY5rqmdUuWIimnIH8X1p+JUyezOlhw==" saltValue="vufIJ0FNmGsLoJuSpFTBZw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="pmB+frFCJTE/Mq1kC/M3lckP+58Ws+sqRfWTz3fnStGpCX4G2tvrO7crRUQZX/ozLaxn7yxmr+NKmdKq3m4HEQ==" saltValue="CKga7d3UYwfSPC/zXNa86g==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <legacyDrawing r:id="rId1"/>
@@ -3748,7 +3748,7 @@
       <c r="A19" s="23"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="ViAQ+yKqItMuoqD4W44CNAd+fN3ArAEihW8aiiHi8Po9typYcF2YN10akf4p3zjreF6LQCzUTi6fhmAyOyIfcw==" saltValue="TK86Ri2jTeWJ3AjupTX6Fw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="FQ3XGj9yDyH3Y75CCWEVAffCp6paZJzumnZ9xPKmgXhqisp+dh1IHzPor7SQVR6TpCw7Lx05wpqQfONxj27aeA==" saltValue="u6vkDieXg2aUk2OnvBlKTg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -3863,7 +3863,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="sTj8cOfvRPciyfc+a+9mNz7X/tyOUqVMntHMPhoCTDJ8a74s9+YRl7FQyLovjw9CjJT6eFlL6OLTiZlfm40qPQ==" saltValue="kCgTDMXNwdxldSvUgqmbGQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="VfectRXfXIymvnFUPHyyUpfLryuCdIjzeF/tVtTZs7l4E28QuG9Rf6PHwrue2WN+7W4fZBNaf4v8A5KsnYnN2A==" saltValue="Mg7z5dUV4xV2F1TskC9h0g==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -5624,7 +5624,7 @@
       <c r="B40" s="17"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="BsgjDBZONG7l3XDtp8b2IfK6skO2r4Iio9XmpGhXxTfN6JZBYB1gINj4G7nQTxf3ObLJpeT+tuWyxwDYssbl1g==" saltValue="0x5aRQbjSBF+oMGEN6WaPw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="EeAPnX5sQT34Nvwg09E8dlueryxOy+R/eqgCjW5mb7gZM4PqqgKt/7agpoNpjz4QMCstNqHPmvEmXuK1NbBBSw==" saltValue="F6vZGr8G7eRJm3/jzZxmDQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -5659,7 +5659,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="qreYGA8o1klRMWzTsEfkS9rgiJHf20999nlHRLRVOKDxtsrdNyhCjlsEM5m2ps1eJZPqstbpaOTr9SMsMfFuiw==" saltValue="dbvMTFyIEw5gDDkwaKMXfA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="knsWRQo/qZ9vU0pebHaeIdoLWuXL3nkACg0jdBhEz4aSx72tJ3VnHUNaMZe9irVoGguGjXsTz7Eb34ErT/N37w==" saltValue="5pPU1tDh833v1G3S9VFNlw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -5865,7 +5865,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="RWwuiZdyG2qCo49AM4c3ZXh75J48ijMTq12N9BV98hgaH6ETnDKAK+mmznzAIKcOUv7lgGnvCv4fU7tSGWZXKg==" saltValue="LHbLbhBal9nLLTdfgMVPOA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="2qDct5fjkyDWZfNlTHz+QaMmRtBhUw5GQVj6b7f9ogJsTn+LNGH8CUFT8ZKK/waBwZqdXh4AdsOV7hXroNd97w==" saltValue="gv236uf/WMElGWRXB/Ajrg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
@@ -7680,7 +7680,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="3HhyHGUfTx28tBPfIkxL9alkbXUTsPQ0XGNzmJExPrVi2ajD+ZUY+EruAj7CFmfWAVKTF8T8MgpS0PQBzYMytg==" saltValue="ZRQMfktORF5zplRpvw1fnQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="ylkK5OLhWsmQlvkvH1xCw5uaAj/yiK84uOAJJYQc1ECUH3/cVLFnbOnCIN3scRCZh1+AQL96IUGzWBwKbrxzLg==" saltValue="Weimz5TOw6lidXUpA4Rrdw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -8448,7 +8448,7 @@
       <c r="K39" s="82"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="KM63V+rb8tSl8hTjgPSRHueezat4xIwz54oDcK2tl0/m6XQhkZmpw3pBaKnYdZKjon20U2jEB3hVwFJfMOCBIA==" saltValue="/I85KO3qQ+awmDyGZKYuRg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="Nl9tEd5RZR1cBQrT2JzGHuF9QnQaQjj9hOfZ9LYnJHMevr85BlsHahNSkGn6vPEreMqF7dTv3P+fLeCesqls4w==" saltValue="IwgWLnSix3CWe6GF5YyYVA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -8823,7 +8823,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="mcPA417iWo21OSg2JFCbhz9oJW1LrwiPZdR4kLvs2yFYAaSTPdZm89K1RYKyS0ecLEbuDpnd+BIFoMx7LlVcEg==" saltValue="ktKImOSWaw7Mbj+Buhcc0A==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="M2VjEboAsjv9cDVdYfcYcH3a91HbH/22FHKaMxg35gBYQ+5CW8XRzqg3YqJpmgzB8FOSMRRJSgvMUrI7a9iIlg==" saltValue="p0/zBSljwV9fhqo94kozkg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -9813,7 +9813,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="4xnjo26euRv8sT+LnZjq/hbiwzB3Jez/Ox4OFHxElY2lgq8CPZid/Ig26WQHOUtC6eh8K+W6VaU/McPAu/Ltrg==" saltValue="48aGRBiKMgNBbVfRXx10wQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="+aL/32NpcEKg726Bc9eL2iELoyL4tfQbFMu23Iu6ZoaVnJ9CrlBkyB+MIrG113BMxoy8zTDDln6M/LTB/K3pWQ==" saltValue="R5iHRxjVQ996qKe33L474A==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <conditionalFormatting sqref="B2:I16 B18:I40 B17:C17 E17:I17">
     <cfRule type="expression" dxfId="0" priority="9">
       <formula>$A2=""</formula>
@@ -13631,7 +13631,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="7JDiJv56lLpuy8fbrxz9fkJYjdIoVEZcObQzxMO4POSwkVKhz3GXx0MyrzXx9JnU0W7q85JyOKdHvBgnvD4ucw==" saltValue="aF506CSTWjUiE110p4x/RA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="yP150X7XobIlYwHUR5yK6zE3bxznPpHxUrxonWpxYAYscNtuHfmER1WTmwcp7K6MoYweqUY9BQwHPJ23uUbS7g==" saltValue="2tOIadnH38MzOD9Gk/Eysg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="45">
     <mergeCell ref="B145:B147"/>
     <mergeCell ref="B148:B150"/>
@@ -14898,7 +14898,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="KkcrIHb2cfqyq37F9m9FFa1dtYNJ1zk3QmB63c1TGt6KaXzTZr/4ql5G+cgJwZjytVIJ43jCSDO9hEW9ZwsUWQ==" saltValue="Nm4sVHonV12xuiLHsrdxAw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="ZesfZbUfz3kAIMhlJEYg/1XHDD2Qj8Z7lKviNHUc/42ZbpENAjuLCiYqzHQiV9SkK1mML5ebNIQLQSYWcz/otw==" saltValue="rvMKQbTWqHI2pdCKKZFEwg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -23037,7 +23037,7 @@
       <c r="I328" s="72"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="bKWwMbzZ5xkgRJe/u8cGXz5n3b502wj6du9MGrKHu3p3VkfwP+HvvgfShthOmqJCQq58xHq/Dtnlrgw+XXldng==" saltValue="uxnhcTJeFqqFakQLuflkdw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="uDoToAOzqmWg8HJDvFbPROiTVPTWItL21uAzBlEcXiHF3s2LvIhwG+4wksjB1MuqbdvJviVZEKL0Mvy0gTzybA==" saltValue="FBQuBZpyN3mIVENItSwwkA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -24127,7 +24127,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="7JjtPmMI1QZgStYlByhIeJ5pcdIgBP4TEVRHkUyghR7T55Ja1L6UjWzwDX7VXcFyWgHWP0HhxnAru1KHbfvcOg==" saltValue="rw1iTpFjpX02DGBepdA7Gw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="Tje2fZvXoiK6f1ORXi3cAW4nxLFVlfE472Pw+Cxchq2ryGT6kuw/u8muIIoi0k6P1Lt6iI4HMuwZ9PHxXr7jTg==" saltValue="9ML2xCw0MPwv33cr2EbpAw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
@@ -24999,7 +24999,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="Nrl3lh1dxNoIg7p0XYbU2M+9jyBjRWHrk2L0AMcZStlANJrh/rcU5r4RBtGzZm8ntbHund19APWRKPL+1emoTA==" saltValue="fC3fKhrzjDtRqlbZin2sNw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="VvFKS9cCxMYD/fK2OCzQihvmxGxEJWo3dkmhvFnsWU2eaKpdn88bcgfWZs/+NdcACMfyBqOjjuR3V9Sr7YeC0w==" saltValue="zdNZeEDWev0SHj2TPdw8lg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -27884,7 +27884,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="TgXLX3xSgpkfCyp/4Eo8qI8zSbJExp69WhWmcmWNO4q7kcxs2JxjeaNv0ckSAioN2ksSufFs7L7t3S50xLZyrw==" saltValue="7IkBcvlLiqDBN6eGlO3UiQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="9t+RtcSCudmFamtIHz7WxvRsz5MZwqNKK6J2fG6/uvfZTAQEe7WNzo9xkqJC03aqXVrX4aDpLTHhROQjaRTBdA==" saltValue="d0KtyoamCDarslZsMERhXQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -28166,7 +28166,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="lXRnjlR7Gi9BWz1KPWCZ0gotQEAHZ/bM4sLxpgWHlWf+Tki0ysUGCfigQhSkKVmEGZ1hq+ekGU4q1JR5s/kDDg==" saltValue="GrLAEsoBANYieAfmO6mtfQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="kj4nG5ghU+LIlMO0sg+uog+icpAJaNMIwYXPbQyzoCsu3LHV5IseueGkSZKVs/M6PQSFG6to0GSowuN4CI4EiA==" saltValue="QKTi/bO7wow0/96SbqwmEg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -32281,7 +32281,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="G/OVjxGHAMtsjlQA8xlrQv9NiOvWTTPCPHwJZYGnAE7D3Lk98Evdn/LOvBnH08QMYFdCwz06ZWRJNnqqoK7wGw==" saltValue="DSk6JFo+eSF1eUHr6nNc+w==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="FDKquX8N0BO87FDZKEFYUoy+y4uWAFYRIfdCHNSaAIE0Yr9cJvwxSy6xxhjKvGt9q9BaPjGlE5gJS2ikApXNjw==" saltValue="uYoJiATbaIFznIbC0NF6Lw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -32797,7 +32797,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="bSroB9dMzxzEZCaPPpV3g9g0AHCpN7Qhj3H1eALZhoXX0432uR441hEyOEloPeMnMCoO4j67a6v1XXfcojjDeA==" saltValue="b4BP9E7BoEsBbrmvrVrrdw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="uAAzzvKA0uJ+v1mQ3dCN9vAGyHIu7pwtaXpnPVEEt5suXqGtKWoSmwBcHU87AXHWLic8DitOL4GT7ejblJI99Q==" saltValue="67t0IRBS9Y+Idm0lvu+otw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -33128,7 +33128,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="0l2TINIkOtTu1PvFXPXsy3LN6herXi4VZmroudm6SMjSlfXr+kqE2LqvZql8AEpRWCeu3/rq9okUpQRPQG7m/g==" saltValue="rietDPc+dhrmYCQLeGLmDw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="Rc0yZJwCgqlDmb+O6IM3MirNMKme8vBh0YWw+1v9UfhRClsp166kn8womoXTcR16ihvE7LRs4L1k8DIuowyvwg==" saltValue="NHqooueITj7Mbn4e8yvh2w==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="69" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -33485,7 +33485,7 @@
       <c r="G17" s="2"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="ACesIbPUwAb598nwOeVL1/wJoQEOu2dKSq/duLmgOxg+DDWOEWhdYY58hxeYbiYyRpy5D3ibEGmQOYkDSuc5ew==" saltValue="QRD1Qx6v7JCJeuXhbm13hA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="hx48leZt8ij5XtMiaWh+8Bf7VMnNgu+irvJ2w/7UFxTLzw3KmDTkNwPhH4/W8Xus6HdFfmygGEocLun18YyfNg==" saltValue="KcH6eG3RZyWydl50BU/0nQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -33591,7 +33591,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="YOtQqupNtmmfEhsSP9osgfSg7mAcjiK6DNWmFhWo5Qii3Y2ygvtKCCjO6xNeoQTjjgUwvvWJH+l7xJN2oqmDjA==" saltValue="HSchgUJuuLDxtjJr+GZ73Q==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="QI8PVmb7LdyNtoVql5wBLYv2Uo3kq08VWonmRuQugWjsF4XZGTdVTap01i5sQq2S98nDd+cmjjU8biwF7hNqxg==" saltValue="28YCx2wA/Q8MQ+6qS5yTTA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
@@ -33798,7 +33798,7 @@
       <c r="K14" s="104"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="+6eZjG47u6HVPwnBOROPPVhQEWFSB6IpGjo32cR2GPkzmA3T5Zl+TyXTy5r6GjrCD6bKHMDtoi4fBJYXeJIiKQ==" saltValue="WJ2sJpE3ow1pwsuKiqFzwQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="PlPlViEAvtywzA8VJnkcqHZbMIOECarvw5vTrv/4xjiHHA1u3vxrsCSkvYdjFMyuK6h4SyGE3GplXrbCWML5cw==" saltValue="gs8+fiG/5lrBg9vm+Uy1oQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="193" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -33879,7 +33879,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="e8cBMV+s6F1FimBsxuCEkcBp/W8s+jbTL61zBr5dPcakV2Sj/0WOoS7Uj/XnGs0VNtfoO5M1K7XwYGP7VC4DXA==" saltValue="/boncKGSm7fygJ3lBdkkbA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="d/IrJR7PASZLPk+teWF2nVdSfPdfJbi297ReDR93JNLX3ee2yNJZpniM9bOi+7F2CxhMv8SMlQqanh25vp30Mg==" saltValue="brcPBPLv07d43EG0YkT1gw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -34140,7 +34140,7 @@
       <c r="E21" s="42"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="Q/q1BlYkbi0Ttbvx/aNnt1xR7VYjPFfhrW3eGH3F4JUQpQoQ/6LTMpGG7ugz0mBiczWXhGBf6+8uPIN6kh1uxw==" saltValue="E8dnp8NYmJmeHpZJtwsmzw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="NKaUFvuMdacW99V8i8YCJD7/MxoQG2cndnDwnh/Il2ltCaETuVv87LLEpipNZq8BJcyZpLaXyTEjgK5UkXyyXQ==" saltValue="EHVX+lyK6dAc15tg5UjnMQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -34204,7 +34204,7 @@
       <c r="D3" s="42"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="rGAcWHfLpQIenHP9MvVrlFwk1pzWapRvE0qXi3m9GQJ9dHta7z+qZ+trQm3y/7q8PbHUBJN1hFaNWLXxKEkZ4w==" saltValue="RHm4q5+NV9gAd85fi4uilg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="yQG6MQwe6jmKvem+vG/ojlnnKGBEnYI7b4clWatoSe1By76aGqR3cePA8AZlsCZHAUKN8HUgLE0ZDX6fRVEaqw==" saltValue="6Yx+IdpLek5IqjcYpl6rGQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>